--- a/inputs/en/template_input.xlsx
+++ b/inputs/en/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDF3F98-FEEB-42C1-8B4A-FC4421002C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E687BA-77A3-4072-A638-95B7FAA974EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3360" windowWidth="29130" windowHeight="12660" tabRatio="961" firstSheet="9" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="6315" windowWidth="29130" windowHeight="12660" tabRatio="961" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="337">
   <si>
     <t>year</t>
   </si>
@@ -913,21 +913,6 @@
   </si>
   <si>
     <t>Mild (HAZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>High (HAZ-score between &lt; -3)</t>
-  </si>
-  <si>
-    <t>Normal  (WHZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild  (WHZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>MAM   (WHZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>SAM   (WHZ-score &lt; -3)</t>
   </si>
   <si>
     <t>Average episodes per year: &lt;1 month</t>
@@ -1380,9 +1365,6 @@
     <t>Upper bounds</t>
   </si>
   <si>
-    <t>Upperr bounds</t>
-  </si>
-  <si>
     <t>Lower bound</t>
   </si>
   <si>
@@ -1576,6 +1558,15 @@
   </si>
   <si>
     <t>Anaemic pregnant woman (per pregnancy)</t>
+  </si>
+  <si>
+    <t>Normal (WHZ-score &gt; -1)</t>
+  </si>
+  <si>
+    <t>Mild (WHZ-score between -2 and -1)</t>
+  </si>
+  <si>
+    <t>High (HAZ-score &lt; -3)</t>
   </si>
 </sst>
 </file>
@@ -5147,15 +5138,15 @@
         <v>100</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5163,7 +5154,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5172,7 +5163,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5190,7 +5181,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5341,7 +5332,7 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -5380,7 +5371,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5390,7 +5381,7 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5430,7 +5421,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5457,7 +5448,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D44" s="17"/>
     </row>
@@ -5511,7 +5502,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5520,7 +5511,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5528,7 +5519,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5536,7 +5527,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5544,7 +5535,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5552,7 +5543,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5565,7 +5556,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5573,7 +5564,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5581,7 +5572,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5629,19 +5620,19 @@
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>205</v>
-      </c>
       <c r="F1" s="53" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5658,7 +5649,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F2" s="81">
         <v>0.2</v>
@@ -5681,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="81">
         <v>0.2</v>
@@ -5704,7 +5695,7 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="81">
         <v>0.2</v>
@@ -5715,7 +5706,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -5727,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F5" s="81">
         <v>0.2</v>
@@ -5738,7 +5729,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -5750,7 +5741,7 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F6" s="81">
         <v>0.2</v>
@@ -5773,7 +5764,7 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F7" s="81">
         <v>0.2</v>
@@ -5796,7 +5787,7 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F8" s="81">
         <v>0.2</v>
@@ -5819,7 +5810,7 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F9" s="81">
         <v>0.2</v>
@@ -5830,7 +5821,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -5842,7 +5833,7 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F10" s="81">
         <v>0.2</v>
@@ -5853,7 +5844,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -5865,7 +5856,7 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F11" s="81">
         <v>0.2</v>
@@ -5876,7 +5867,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -5888,7 +5879,7 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F12" s="81">
         <v>0.2</v>
@@ -5899,7 +5890,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -5911,7 +5902,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F13" s="81">
         <v>0.2</v>
@@ -5922,7 +5913,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -5934,7 +5925,7 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F14" s="81">
         <v>0.2</v>
@@ -5945,7 +5936,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -5957,7 +5948,7 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F15" s="81">
         <v>0.2</v>
@@ -5980,7 +5971,7 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F16" s="81">
         <v>0.2</v>
@@ -6003,7 +5994,7 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F17" s="81">
         <v>0.2</v>
@@ -6014,7 +6005,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -6026,7 +6017,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F18" s="81">
         <v>0.2</v>
@@ -6037,7 +6028,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -6049,7 +6040,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F19" s="81">
         <v>0.01</v>
@@ -6060,7 +6051,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -6072,7 +6063,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F20" s="81">
         <v>0.1</v>
@@ -6083,7 +6074,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -6095,7 +6086,7 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F21" s="81">
         <v>0.2</v>
@@ -6106,7 +6097,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -6118,7 +6109,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F22" s="81">
         <v>0.2</v>
@@ -6141,7 +6132,7 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F23" s="81">
         <v>0.2</v>
@@ -6164,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F24" s="81">
         <v>0.2</v>
@@ -6187,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F25" s="81">
         <v>0.2</v>
@@ -6198,7 +6189,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -6210,7 +6201,7 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F26" s="81">
         <v>0.2</v>
@@ -6233,7 +6224,7 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F27" s="81">
         <v>0.2</v>
@@ -6256,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F28" s="81">
         <v>0.2</v>
@@ -6279,7 +6270,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F29" s="81">
         <v>0.2</v>
@@ -6302,7 +6293,7 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F30" s="81">
         <v>0.5</v>
@@ -6325,7 +6316,7 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F31" s="81">
         <v>0.2</v>
@@ -6348,7 +6339,7 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F32" s="81">
         <v>0.2</v>
@@ -6371,7 +6362,7 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F33" s="81">
         <v>0.2</v>
@@ -6394,7 +6385,7 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F34" s="81">
         <v>0.2</v>
@@ -6417,7 +6408,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F35" s="81">
         <v>0.2</v>
@@ -6440,7 +6431,7 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F36" s="81">
         <v>0.2</v>
@@ -6463,7 +6454,7 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F37" s="81">
         <v>0.2</v>
@@ -6486,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F38" s="81">
         <v>0.2</v>
@@ -6545,15 +6536,15 @@
         <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>59</v>
@@ -6562,7 +6553,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>59</v>
@@ -6574,16 +6565,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -6694,7 +6685,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -7005,7 +6996,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -7049,7 +7040,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -7093,7 +7084,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -7139,7 +7130,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -7566,7 +7557,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -7615,7 +7606,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -7853,7 +7844,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -7901,7 +7892,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -7949,7 +7940,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -7997,7 +7988,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -8045,7 +8036,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -8611,22 +8602,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -8656,24 +8647,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -8691,7 +8682,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -8709,7 +8700,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -8727,7 +8718,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -8745,7 +8736,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -8763,7 +8754,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -8781,7 +8772,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -8799,7 +8790,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -8817,7 +8808,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -8963,7 +8954,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -9007,7 +8998,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -9051,7 +9042,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -9095,7 +9086,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -9139,7 +9130,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C7" s="133">
         <v>1</v>
@@ -9183,7 +9174,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -9227,7 +9218,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C9" s="133">
         <v>0</v>
@@ -9643,7 +9634,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -9687,7 +9678,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -9926,7 +9917,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C26" s="133">
         <v>0</v>
@@ -9971,7 +9962,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -10016,7 +10007,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -10060,7 +10051,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -10104,7 +10095,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -10643,16 +10634,16 @@
         <v>69</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -10664,13 +10655,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -10685,7 +10676,7 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
@@ -10701,7 +10692,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10714,7 +10705,7 @@
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -10726,11 +10717,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -10743,7 +10734,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -10754,10 +10745,10 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -10766,14 +10757,14 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -10785,14 +10776,14 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -10804,14 +10795,14 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -10819,11 +10810,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -10836,11 +10827,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -10853,11 +10844,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -10870,11 +10861,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -10887,11 +10878,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -10899,18 +10890,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -10918,7 +10909,7 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
@@ -10929,17 +10920,17 @@
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -10950,7 +10941,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -10963,16 +10954,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -10982,16 +10973,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -11001,16 +10992,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -11020,7 +11011,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -11029,26 +11020,26 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -11064,7 +11055,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -11072,7 +11063,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -11088,7 +11079,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -11105,7 +11096,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -11113,11 +11104,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -11134,7 +11125,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -11142,7 +11133,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -11158,7 +11149,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -11169,11 +11160,11 @@
         <v>58</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -11191,7 +11182,7 @@
       <c r="C30" s="133"/>
       <c r="D30" s="133"/>
       <c r="E30" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -11210,10 +11201,10 @@
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
       <c r="G31" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I31" s="133"/>
       <c r="J31" s="133"/>
@@ -11229,10 +11220,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -11248,10 +11239,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -11267,10 +11258,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -11286,10 +11277,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -11305,10 +11296,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -11325,7 +11316,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="133"/>
       <c r="H37" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -11336,17 +11327,17 @@
         <v>60</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
       <c r="G38" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H38" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
@@ -11386,19 +11377,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -11410,13 +11401,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11424,25 +11415,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -11453,25 +11444,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -11482,25 +11473,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -11511,25 +11502,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -11540,25 +11531,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -11570,17 +11561,17 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
@@ -11591,17 +11582,17 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
@@ -11612,17 +11603,17 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
@@ -11633,17 +11624,17 @@
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
@@ -11654,7 +11645,7 @@
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11663,10 +11654,10 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -11675,7 +11666,7 @@
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11685,7 +11676,7 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -11694,7 +11685,7 @@
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11704,7 +11695,7 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -11713,7 +11704,7 @@
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11723,7 +11714,7 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -11773,7 +11764,7 @@
         <v>113</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>36</v>
@@ -12848,13 +12839,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -12874,13 +12865,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B2" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -12901,7 +12892,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -12923,7 +12914,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -12947,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -12969,7 +12960,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -12990,7 +12981,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -13013,7 +13004,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -13034,7 +13025,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -13055,7 +13046,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -13078,7 +13069,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -13099,7 +13090,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -13120,7 +13111,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -13143,7 +13134,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -13164,7 +13155,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -13185,7 +13176,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -13205,10 +13196,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -13235,13 +13226,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B19" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -13262,7 +13253,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -13283,7 +13274,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -13306,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -13327,7 +13318,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -13348,7 +13339,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -13371,7 +13362,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -13392,7 +13383,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -13413,7 +13404,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -13436,7 +13427,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -13457,7 +13448,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -13478,7 +13469,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -13501,7 +13492,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -13522,7 +13513,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -13543,7 +13534,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -13563,10 +13554,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -13593,13 +13584,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B36" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -13620,7 +13611,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -13641,7 +13632,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -13664,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -13685,7 +13676,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -13706,7 +13697,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -13729,7 +13720,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -13750,7 +13741,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -13771,7 +13762,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -13794,7 +13785,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -13815,7 +13806,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -13836,7 +13827,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -13859,7 +13850,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -13880,7 +13871,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -13901,7 +13892,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -13921,10 +13912,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -13944,7 +13935,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B53" s="140"/>
       <c r="C53" s="140"/>
@@ -13956,13 +13947,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="40" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D54" s="40" t="s">
         <v>1</v>
@@ -13982,13 +13973,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="40" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D55" s="134">
         <f>D2*0.9</f>
@@ -14014,7 +14005,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D56" s="134">
         <f t="shared" ref="D56:H56" si="1">D3*0.9</f>
@@ -14040,7 +14031,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D57" s="134">
         <f t="shared" ref="D57:H57" si="2">D4*0.9</f>
@@ -14068,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D58" s="134">
         <f t="shared" ref="D58:H58" si="3">D5*0.9</f>
@@ -14094,7 +14085,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D59" s="134">
         <f t="shared" ref="D59:H59" si="4">D6*0.9</f>
@@ -14120,7 +14111,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D60" s="134">
         <f t="shared" ref="D60:H60" si="5">D7*0.9</f>
@@ -14148,7 +14139,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D61" s="134">
         <f t="shared" ref="D61:H61" si="6">D8*0.9</f>
@@ -14174,7 +14165,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D62" s="134">
         <f t="shared" ref="D62:H62" si="7">D9*0.9</f>
@@ -14200,7 +14191,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D63" s="134">
         <f t="shared" ref="D63:H63" si="8">D10*0.9</f>
@@ -14228,7 +14219,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D64" s="134">
         <f t="shared" ref="D64:H64" si="9">D11*0.9</f>
@@ -14254,7 +14245,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D65" s="134">
         <f t="shared" ref="D65:H65" si="10">D12*0.9</f>
@@ -14280,7 +14271,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D66" s="134">
         <f t="shared" ref="D66:H66" si="11">D13*0.9</f>
@@ -14308,7 +14299,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D67" s="134">
         <f t="shared" ref="D67:H67" si="12">D14*0.9</f>
@@ -14334,7 +14325,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D68" s="134">
         <f t="shared" ref="D68:H68" si="13">D15*0.9</f>
@@ -14360,7 +14351,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D69" s="134">
         <f t="shared" ref="D69:H69" si="14">D16*0.9</f>
@@ -14385,10 +14376,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="138" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D70" s="134">
         <f t="shared" ref="D70:H70" si="15">D17*0.9</f>
@@ -14420,13 +14411,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="40" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B72" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D72" s="134">
         <f>D19*0.9</f>
@@ -14452,7 +14443,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D73" s="134">
         <f t="shared" ref="D73:D87" si="17">D20*0.9</f>
@@ -14478,7 +14469,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D74" s="134">
         <f t="shared" si="17"/>
@@ -14506,7 +14497,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D75" s="134">
         <f t="shared" si="17"/>
@@ -14532,7 +14523,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D76" s="134">
         <f t="shared" si="17"/>
@@ -14558,7 +14549,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D77" s="134">
         <f t="shared" si="17"/>
@@ -14586,7 +14577,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D78" s="134">
         <f t="shared" si="17"/>
@@ -14612,7 +14603,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D79" s="134">
         <f t="shared" si="17"/>
@@ -14638,7 +14629,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D80" s="134">
         <f t="shared" si="17"/>
@@ -14666,7 +14657,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D81" s="134">
         <f t="shared" si="17"/>
@@ -14692,7 +14683,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D82" s="134">
         <f t="shared" si="17"/>
@@ -14718,7 +14709,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D83" s="134">
         <f t="shared" si="17"/>
@@ -14746,7 +14737,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D84" s="134">
         <f t="shared" si="17"/>
@@ -14772,7 +14763,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D85" s="134">
         <f t="shared" si="17"/>
@@ -14798,7 +14789,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D86" s="134">
         <f t="shared" si="17"/>
@@ -14823,10 +14814,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" s="138" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D87" s="134">
         <f t="shared" si="17"/>
@@ -14858,13 +14849,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="97" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B89" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D89" s="134">
         <f>D36*0.9</f>
@@ -14890,7 +14881,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D90" s="134">
         <f t="shared" ref="D90:D104" si="34">D37*0.9</f>
@@ -14916,7 +14907,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D91" s="134">
         <f t="shared" si="34"/>
@@ -14944,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D92" s="134">
         <f t="shared" si="34"/>
@@ -14970,7 +14961,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D93" s="134">
         <f t="shared" si="34"/>
@@ -14996,7 +14987,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D94" s="134">
         <f t="shared" si="34"/>
@@ -15024,7 +15015,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D95" s="134">
         <f t="shared" si="34"/>
@@ -15050,7 +15041,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D96" s="134">
         <f t="shared" si="34"/>
@@ -15076,7 +15067,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D97" s="134">
         <f t="shared" si="34"/>
@@ -15104,7 +15095,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D98" s="134">
         <f t="shared" si="34"/>
@@ -15130,7 +15121,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" s="148"/>
       <c r="C99" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D99" s="134">
         <f t="shared" si="34"/>
@@ -15156,7 +15147,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="148"/>
       <c r="C100" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D100" s="134">
         <f t="shared" si="34"/>
@@ -15184,7 +15175,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D101" s="134">
         <f t="shared" si="34"/>
@@ -15210,7 +15201,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" s="148"/>
       <c r="C102" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D102" s="134">
         <f t="shared" si="34"/>
@@ -15236,7 +15227,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" s="148"/>
       <c r="C103" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D103" s="134">
         <f t="shared" si="34"/>
@@ -15261,10 +15252,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" s="98" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D104" s="134">
         <f t="shared" si="34"/>
@@ -15289,7 +15280,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B106" s="140"/>
       <c r="C106" s="140"/>
@@ -15301,13 +15292,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="40" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D107" s="40" t="s">
         <v>1</v>
@@ -15327,13 +15318,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="40" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B108" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D108" s="134">
         <f>D2*1.05</f>
@@ -15359,7 +15350,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" s="148"/>
       <c r="C109" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D109" s="134">
         <f t="shared" ref="D109:D112" si="51">D3*1.05</f>
@@ -15385,7 +15376,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="148"/>
       <c r="C110" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D110" s="134">
         <f t="shared" si="51"/>
@@ -15413,7 +15404,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D111" s="134">
         <f t="shared" si="51"/>
@@ -15439,7 +15430,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" s="148"/>
       <c r="C112" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D112" s="134">
         <f t="shared" si="51"/>
@@ -15465,7 +15456,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" s="148"/>
       <c r="C113" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D113" s="134">
         <f t="shared" ref="D113:H113" si="56">D7*1.05</f>
@@ -15493,7 +15484,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D114" s="134">
         <f t="shared" ref="D114:H114" si="57">D8*1.05</f>
@@ -15519,7 +15510,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" s="148"/>
       <c r="C115" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D115" s="134">
         <f t="shared" ref="D115:H115" si="58">D9*1.05</f>
@@ -15545,7 +15536,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" s="148"/>
       <c r="C116" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D116" s="134">
         <f t="shared" ref="D116:H116" si="59">D10*1.05</f>
@@ -15573,7 +15564,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D117" s="134">
         <f t="shared" ref="D117:H117" si="60">D11*1.05</f>
@@ -15599,7 +15590,7 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B118" s="148"/>
       <c r="C118" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D118" s="134">
         <f t="shared" ref="D118:H118" si="61">D12*1.05</f>
@@ -15625,7 +15616,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" s="148"/>
       <c r="C119" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D119" s="134">
         <f t="shared" ref="D119:H119" si="62">D13*1.05</f>
@@ -15653,7 +15644,7 @@
         <v>4</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D120" s="134">
         <f t="shared" ref="D120:H120" si="63">D14*1.05</f>
@@ -15679,7 +15670,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="148"/>
       <c r="C121" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D121" s="134">
         <f t="shared" ref="D121:H121" si="64">D15*1.05</f>
@@ -15705,7 +15696,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" s="148"/>
       <c r="C122" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D122" s="134">
         <f t="shared" ref="D122:H122" si="65">D16*1.05</f>
@@ -15730,10 +15721,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="138" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D123" s="134">
         <f t="shared" ref="D123:H123" si="66">D17*1.05</f>
@@ -15765,13 +15756,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="40" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B125" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D125" s="134">
         <f>D19*1.05</f>
@@ -15797,7 +15788,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="148"/>
       <c r="C126" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D126" s="134">
         <f t="shared" ref="D126:H126" si="68">D20*1.05</f>
@@ -15823,7 +15814,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="148"/>
       <c r="C127" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D127" s="134">
         <f t="shared" ref="D127:H127" si="69">D21*1.05</f>
@@ -15851,7 +15842,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D128" s="134">
         <f t="shared" ref="D128:H128" si="70">D22*1.05</f>
@@ -15877,7 +15868,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="148"/>
       <c r="C129" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D129" s="134">
         <f t="shared" ref="D129:H129" si="71">D23*1.05</f>
@@ -15903,7 +15894,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" s="148"/>
       <c r="C130" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D130" s="134">
         <f t="shared" ref="D130:H130" si="72">D24*1.05</f>
@@ -15931,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D131" s="134">
         <f t="shared" ref="D131:H131" si="73">D25*1.05</f>
@@ -15957,7 +15948,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" s="148"/>
       <c r="C132" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D132" s="134">
         <f t="shared" ref="D132:H132" si="74">D26*1.05</f>
@@ -15983,7 +15974,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="148"/>
       <c r="C133" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D133" s="134">
         <f t="shared" ref="D133:H133" si="75">D27*1.05</f>
@@ -16011,7 +16002,7 @@
         <v>3</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D134" s="134">
         <f t="shared" ref="D134:H134" si="76">D28*1.05</f>
@@ -16037,7 +16028,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" s="148"/>
       <c r="C135" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D135" s="134">
         <f t="shared" ref="D135:H135" si="77">D29*1.05</f>
@@ -16063,7 +16054,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" s="148"/>
       <c r="C136" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D136" s="134">
         <f t="shared" ref="D136:H136" si="78">D30*1.05</f>
@@ -16091,7 +16082,7 @@
         <v>4</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D137" s="134">
         <f t="shared" ref="D137:H137" si="79">D31*1.05</f>
@@ -16117,7 +16108,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" s="148"/>
       <c r="C138" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D138" s="134">
         <f t="shared" ref="D138:H138" si="80">D32*1.05</f>
@@ -16143,7 +16134,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" s="148"/>
       <c r="C139" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D139" s="134">
         <f t="shared" ref="D139:H139" si="81">D33*1.05</f>
@@ -16168,10 +16159,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B140" s="138" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D140" s="134">
         <f t="shared" ref="D140:H140" si="82">D34*1.05</f>
@@ -16203,13 +16194,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="97" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B142" s="148" t="s">
         <v>32</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D142" s="134">
         <f>D36*1.05</f>
@@ -16235,7 +16226,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="148"/>
       <c r="C143" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D143" s="134">
         <f t="shared" ref="D143:H143" si="84">D37*1.05</f>
@@ -16261,7 +16252,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="148"/>
       <c r="C144" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D144" s="134">
         <f t="shared" ref="D144:H144" si="85">D38*1.05</f>
@@ -16289,7 +16280,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D145" s="134">
         <f t="shared" ref="D145:H145" si="86">D39*1.05</f>
@@ -16315,7 +16306,7 @@
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="148"/>
       <c r="C146" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D146" s="134">
         <f t="shared" ref="D146:H146" si="87">D40*1.05</f>
@@ -16341,7 +16332,7 @@
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="148"/>
       <c r="C147" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D147" s="134">
         <f t="shared" ref="D147:H147" si="88">D41*1.05</f>
@@ -16369,7 +16360,7 @@
         <v>2</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D148" s="134">
         <f t="shared" ref="D148:H148" si="89">D42*1.05</f>
@@ -16395,7 +16386,7 @@
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="148"/>
       <c r="C149" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D149" s="134">
         <f t="shared" ref="D149:H149" si="90">D43*1.05</f>
@@ -16421,7 +16412,7 @@
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="148"/>
       <c r="C150" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D150" s="134">
         <f t="shared" ref="D150:H150" si="91">D44*1.05</f>
@@ -16449,7 +16440,7 @@
         <v>3</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D151" s="134">
         <f t="shared" ref="D151:H151" si="92">D45*1.05</f>
@@ -16475,7 +16466,7 @@
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="148"/>
       <c r="C152" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D152" s="134">
         <f t="shared" ref="D152:H152" si="93">D46*1.05</f>
@@ -16501,7 +16492,7 @@
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="148"/>
       <c r="C153" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D153" s="134">
         <f t="shared" ref="D153:H153" si="94">D47*1.05</f>
@@ -16529,7 +16520,7 @@
         <v>4</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D154" s="134">
         <f t="shared" ref="D154:H154" si="95">D48*1.05</f>
@@ -16555,7 +16546,7 @@
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="148"/>
       <c r="C155" s="35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D155" s="134">
         <f t="shared" ref="D155:H155" si="96">D49*1.05</f>
@@ -16581,7 +16572,7 @@
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="148"/>
       <c r="C156" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D156" s="134">
         <f t="shared" ref="D156:H156" si="97">D50*1.05</f>
@@ -16606,10 +16597,10 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="98" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D157" s="134">
         <f t="shared" ref="D157:H157" si="98">D51*1.05</f>
@@ -16635,6 +16626,42 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16644,42 +16671,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16712,7 +16703,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16732,7 +16723,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -16816,7 +16807,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -16841,7 +16832,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -16851,7 +16842,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -16861,7 +16852,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -16879,7 +16870,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -16897,7 +16888,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -16924,7 +16915,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -17078,7 +17069,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B27" s="141"/>
       <c r="C27" s="142"/>
@@ -17088,7 +17079,7 @@
     </row>
     <row r="28" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17108,7 +17099,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B30" s="104"/>
       <c r="C30" s="105"/>
@@ -17208,7 +17199,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C36" s="139">
         <f>C9*0.7</f>
@@ -17229,7 +17220,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="99" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B38" s="100"/>
       <c r="C38" s="110"/>
@@ -17239,7 +17230,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C39" s="108"/>
       <c r="D39" s="95"/>
@@ -17248,7 +17239,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="113" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C40" s="139">
         <f>C13*0.7</f>
@@ -17269,7 +17260,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="113" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C41" s="139">
         <f t="shared" ref="C41:F41" si="6">C14*0.7</f>
@@ -17290,7 +17281,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="113" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C42" s="139">
         <f t="shared" ref="C42:F42" si="7">C15*0.7</f>
@@ -17319,7 +17310,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B44" s="104"/>
       <c r="C44" s="115"/>
@@ -17497,7 +17488,7 @@
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B54" s="141"/>
       <c r="C54" s="142"/>
@@ -17507,7 +17498,7 @@
     </row>
     <row r="55" spans="1:6" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17527,7 +17518,7 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="40" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B57" s="104"/>
       <c r="C57" s="105"/>
@@ -17627,7 +17618,7 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="40" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C63" s="139">
         <f>C9*1.3</f>
@@ -17648,7 +17639,7 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="99" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B65" s="100"/>
       <c r="C65" s="110"/>
@@ -17658,7 +17649,7 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="40" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C66" s="108"/>
       <c r="D66" s="95"/>
@@ -17667,7 +17658,7 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="113" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C67" s="139">
         <f>C13*1.3</f>
@@ -17688,7 +17679,7 @@
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="113" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C68" s="139">
         <f t="shared" ref="C68:F68" si="22">C14*1.3</f>
@@ -17709,7 +17700,7 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="113" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C69" s="139">
         <f t="shared" ref="C69:F69" si="23">C15*1.3</f>
@@ -17738,7 +17729,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="40" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B71" s="104"/>
       <c r="C71" s="115"/>
@@ -17948,18 +17939,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D2" s="103" t="s">
         <v>1</v>
@@ -17991,7 +17982,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -18019,7 +18010,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18047,7 +18038,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -18075,7 +18066,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18106,7 +18097,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -18134,7 +18125,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -18162,7 +18153,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -18190,7 +18181,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -18221,7 +18212,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -18249,7 +18240,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -18277,7 +18268,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -18305,7 +18296,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -18336,7 +18327,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -18364,7 +18355,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -18392,7 +18383,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -18420,7 +18411,7 @@
     </row>
     <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -18451,7 +18442,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -18479,7 +18470,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -18507,7 +18498,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -18535,7 +18526,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -18566,7 +18557,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -18594,7 +18585,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -18622,7 +18613,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -18650,7 +18641,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -18678,18 +18669,18 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D29" s="103" t="s">
         <v>1</v>
@@ -18721,7 +18712,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -18749,7 +18740,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -18836,7 +18827,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -18864,7 +18855,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18951,7 +18942,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -18979,7 +18970,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -19066,7 +19057,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -19094,7 +19085,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -19181,7 +19172,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -19209,7 +19200,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -19296,7 +19287,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -19324,7 +19315,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -19412,7 +19403,7 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -19420,10 +19411,10 @@
         <v>70</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D56" s="103" t="s">
         <v>53</v>
@@ -19449,7 +19440,7 @@
         <v>38</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -19471,7 +19462,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -19496,7 +19487,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -19518,7 +19509,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -19543,7 +19534,7 @@
         <v>40</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -19565,7 +19556,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -19591,7 +19582,7 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -19599,10 +19590,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D65" s="103" t="s">
         <v>1</v>
@@ -19634,7 +19625,7 @@
         <v>73</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -19662,7 +19653,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -19690,7 +19681,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -19718,7 +19709,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -19749,7 +19740,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -19777,7 +19768,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -19805,7 +19796,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -19833,7 +19824,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -19864,7 +19855,7 @@
         <v>8</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -19892,7 +19883,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -19920,7 +19911,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -19948,7 +19939,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -19979,7 +19970,7 @@
         <v>13</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -20007,7 +19998,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -20035,7 +20026,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -20063,7 +20054,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -20094,7 +20085,7 @@
         <v>71</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -20122,7 +20113,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -20150,7 +20141,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -20178,7 +20169,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -20209,7 +20200,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -20237,7 +20228,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -20265,7 +20256,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -20293,7 +20284,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -20324,7 +20315,7 @@
         <v>18</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -20352,7 +20343,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -20380,7 +20371,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -20408,7 +20399,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -20439,7 +20430,7 @@
         <v>17</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -20467,7 +20458,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -20495,7 +20486,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -20523,7 +20514,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -20554,7 +20545,7 @@
         <v>20</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -20582,7 +20573,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -20610,7 +20601,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -20638,7 +20629,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -20666,7 +20657,7 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -20674,10 +20665,10 @@
         <v>71</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D104" s="103" t="s">
         <v>1</v>
@@ -20707,7 +20698,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -20735,7 +20726,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -20763,7 +20754,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -20791,7 +20782,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -20819,13 +20810,13 @@
     </row>
     <row r="110" spans="1:16" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H110" s="140"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="99" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B111" s="100"/>
       <c r="C111" s="100"/>
@@ -20837,13 +20828,13 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="118" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B112" s="119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C112" s="119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D112" s="103" t="s">
         <v>1</v>
@@ -20867,7 +20858,7 @@
         <v>71</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D113" s="139">
         <f>D3*0.8</f>
@@ -20892,7 +20883,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D114" s="139">
         <f t="shared" ref="D114:H114" si="1">D4*0.8</f>
@@ -20917,7 +20908,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C115" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D115" s="139">
         <f t="shared" ref="D115:H115" si="2">D5*0.8</f>
@@ -20942,7 +20933,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D116" s="139">
         <f t="shared" ref="D116:H116" si="3">D6*0.8</f>
@@ -20970,7 +20961,7 @@
         <v>16</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D117" s="139">
         <f t="shared" ref="D117:H117" si="4">D7*0.8</f>
@@ -20995,7 +20986,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D118" s="139">
         <f t="shared" ref="D118:H118" si="5">D8*0.8</f>
@@ -21020,7 +21011,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C119" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D119" s="139">
         <f t="shared" ref="D119:H119" si="6">D9*0.8</f>
@@ -21045,7 +21036,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D120" s="139">
         <f t="shared" ref="D120:H120" si="7">D10*0.8</f>
@@ -21073,7 +21064,7 @@
         <v>18</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D121" s="139">
         <f t="shared" ref="D121:H121" si="8">D11*0.8</f>
@@ -21098,7 +21089,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D122" s="139">
         <f t="shared" ref="D122:H122" si="9">D12*0.8</f>
@@ -21123,7 +21114,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C123" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D123" s="139">
         <f t="shared" ref="D123:H123" si="10">D13*0.8</f>
@@ -21148,7 +21139,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D124" s="139">
         <f t="shared" ref="D124:H124" si="11">D14*0.8</f>
@@ -21176,7 +21167,7 @@
         <v>19</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D125" s="139">
         <f t="shared" ref="D125:H125" si="12">D15*0.8</f>
@@ -21201,7 +21192,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D126" s="139">
         <f t="shared" ref="D126:H126" si="13">D16*0.8</f>
@@ -21226,7 +21217,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C127" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D127" s="139">
         <f t="shared" ref="D127:H127" si="14">D17*0.8</f>
@@ -21251,7 +21242,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C128" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D128" s="139">
         <f t="shared" ref="D128:H128" si="15">D18*0.8</f>
@@ -21279,7 +21270,7 @@
         <v>17</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D129" s="139">
         <f t="shared" ref="D129:H129" si="16">D19*0.8</f>
@@ -21304,7 +21295,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D130" s="139">
         <f t="shared" ref="D130:H130" si="17">D20*0.8</f>
@@ -21329,7 +21320,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C131" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D131" s="139">
         <f t="shared" ref="D131:H131" si="18">D21*0.8</f>
@@ -21354,7 +21345,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C132" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D132" s="139">
         <f t="shared" ref="D132:H132" si="19">D22*0.8</f>
@@ -21382,7 +21373,7 @@
         <v>23</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D133" s="139">
         <f t="shared" ref="D133:H133" si="20">D23*0.8</f>
@@ -21407,7 +21398,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C134" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D134" s="139">
         <f t="shared" ref="D134:H134" si="21">D24*0.8</f>
@@ -21432,7 +21423,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C135" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D135" s="139">
         <f t="shared" ref="D135:H135" si="22">D25*0.8</f>
@@ -21457,7 +21448,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D136" s="139">
         <f t="shared" ref="D136:H136" si="23">D26*0.8</f>
@@ -21482,7 +21473,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="99" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B138" s="100"/>
       <c r="C138" s="100"/>
@@ -21494,13 +21485,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B139" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C139" s="94" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D139" s="103" t="s">
         <v>1</v>
@@ -21524,7 +21515,7 @@
         <v>71</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D140" s="139">
         <f>D30*0.7</f>
@@ -21549,7 +21540,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D141" s="139">
         <f t="shared" ref="D141:H141" si="25">D31*0.7</f>
@@ -21627,7 +21618,7 @@
         <v>16</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D144" s="139">
         <f t="shared" ref="D144:H144" si="28">D34*0.7</f>
@@ -21652,7 +21643,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C145" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D145" s="139">
         <f t="shared" ref="D145:H145" si="29">D35*0.7</f>
@@ -21730,7 +21721,7 @@
         <v>18</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D148" s="139">
         <f t="shared" ref="D148:H148" si="32">D38*0.7</f>
@@ -21755,7 +21746,7 @@
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C149" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D149" s="139">
         <f t="shared" ref="D149:H149" si="33">D39*0.7</f>
@@ -21833,7 +21824,7 @@
         <v>19</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D152" s="139">
         <f t="shared" ref="D152:H152" si="36">D42*0.7</f>
@@ -21858,7 +21849,7 @@
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C153" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D153" s="139">
         <f t="shared" ref="D153:H153" si="37">D43*0.7</f>
@@ -21936,7 +21927,7 @@
         <v>17</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D156" s="139">
         <f t="shared" ref="D156:H156" si="40">D46*0.7</f>
@@ -21961,7 +21952,7 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C157" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D157" s="139">
         <f t="shared" ref="D157:H157" si="41">D47*0.7</f>
@@ -22039,7 +22030,7 @@
         <v>23</v>
       </c>
       <c r="C160" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D160" s="139">
         <f t="shared" ref="D160:H160" si="44">D50*0.7</f>
@@ -22064,7 +22055,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C161" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D161" s="139">
         <f t="shared" ref="D161:H161" si="45">D51*0.7</f>
@@ -22143,7 +22134,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B165" s="100"/>
       <c r="C165" s="100"/>
@@ -22158,10 +22149,10 @@
         <v>70</v>
       </c>
       <c r="B166" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C166" s="123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D166" s="103" t="s">
         <v>53</v>
@@ -22183,7 +22174,7 @@
         <v>38</v>
       </c>
       <c r="C167" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D167" s="139">
         <f>D57*0.7</f>
@@ -22205,7 +22196,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C168" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D168" s="139">
         <f t="shared" ref="D168:G168" si="49">D58*0.7</f>
@@ -22230,7 +22221,7 @@
         <v>39</v>
       </c>
       <c r="C169" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D169" s="139">
         <f t="shared" ref="D169:G169" si="50">D59*0.7</f>
@@ -22252,7 +22243,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C170" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D170" s="139">
         <f t="shared" ref="D170:G170" si="51">D60*0.7</f>
@@ -22277,7 +22268,7 @@
         <v>40</v>
       </c>
       <c r="C171" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D171" s="139">
         <f t="shared" ref="D171:G171" si="52">D61*0.7</f>
@@ -22299,7 +22290,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C172" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D172" s="139">
         <f t="shared" ref="D172:G172" si="53">D62*0.7</f>
@@ -22325,7 +22316,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="99" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B174" s="100"/>
       <c r="C174" s="100"/>
@@ -22340,10 +22331,10 @@
         <v>24</v>
       </c>
       <c r="B175" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C175" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D175" s="103" t="s">
         <v>1</v>
@@ -22367,7 +22358,7 @@
         <v>73</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D176" s="139">
         <f>D66*0.7</f>
@@ -22391,7 +22382,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C177" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D177" s="139">
         <f t="shared" ref="D177:G177" si="55">D67*0.7</f>
@@ -22415,7 +22406,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C178" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D178" s="139">
         <f t="shared" ref="D178:G178" si="56">D68*0.7</f>
@@ -22439,7 +22430,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C179" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D179" s="139">
         <f t="shared" ref="D179:G179" si="57">D69*0.7</f>
@@ -22466,7 +22457,7 @@
         <v>7</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D180" s="139">
         <f t="shared" ref="D180:G180" si="58">D70*0.7</f>
@@ -22490,7 +22481,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C181" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D181" s="139">
         <f t="shared" ref="D181:G181" si="59">D71*0.7</f>
@@ -22514,7 +22505,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C182" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D182" s="139">
         <f t="shared" ref="D182:G182" si="60">D72*0.7</f>
@@ -22538,7 +22529,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C183" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D183" s="139">
         <f t="shared" ref="D183:G183" si="61">D73*0.7</f>
@@ -22565,7 +22556,7 @@
         <v>8</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D184" s="139">
         <f t="shared" ref="D184:G184" si="62">D74*0.7</f>
@@ -22589,7 +22580,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C185" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D185" s="139">
         <f t="shared" ref="D185:G185" si="63">D75*0.7</f>
@@ -22613,7 +22604,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C186" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D186" s="139">
         <f t="shared" ref="D186:G186" si="64">D76*0.7</f>
@@ -22637,7 +22628,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C187" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D187" s="139">
         <f t="shared" ref="D187:G187" si="65">D77*0.7</f>
@@ -22664,7 +22655,7 @@
         <v>13</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D188" s="139">
         <f t="shared" ref="D188:G188" si="66">D78*0.7</f>
@@ -22688,7 +22679,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C189" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D189" s="139">
         <f t="shared" ref="D189:G189" si="67">D79*0.7</f>
@@ -22712,7 +22703,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C190" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D190" s="139">
         <f t="shared" ref="D190:G190" si="68">D80*0.7</f>
@@ -22736,7 +22727,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C191" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D191" s="139">
         <f t="shared" ref="D191:G191" si="69">D81*0.7</f>
@@ -22763,7 +22754,7 @@
         <v>71</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D192" s="139">
         <f t="shared" ref="D192:G192" si="70">D82*0.7</f>
@@ -22787,7 +22778,7 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C193" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D193" s="139">
         <f t="shared" ref="D193:G193" si="71">D83*0.7</f>
@@ -22811,7 +22802,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C194" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D194" s="139">
         <f t="shared" ref="D194:G194" si="72">D84*0.7</f>
@@ -22835,7 +22826,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C195" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D195" s="139">
         <f t="shared" ref="D195:G195" si="73">D85*0.7</f>
@@ -22862,7 +22853,7 @@
         <v>16</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D196" s="139">
         <f t="shared" ref="D196:G196" si="74">D86*0.7</f>
@@ -22886,7 +22877,7 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C197" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D197" s="139">
         <f t="shared" ref="D197:G197" si="75">D87*0.7</f>
@@ -22910,7 +22901,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C198" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D198" s="139">
         <f t="shared" ref="D198:G198" si="76">D88*0.7</f>
@@ -22934,7 +22925,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C199" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D199" s="139">
         <f t="shared" ref="D199:G199" si="77">D89*0.7</f>
@@ -22961,7 +22952,7 @@
         <v>18</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D200" s="139">
         <f t="shared" ref="D200:G200" si="78">D90*0.7</f>
@@ -22985,7 +22976,7 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C201" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D201" s="139">
         <f t="shared" ref="D201:G201" si="79">D91*0.7</f>
@@ -23009,7 +23000,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C202" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D202" s="139">
         <f t="shared" ref="D202:G202" si="80">D92*0.7</f>
@@ -23033,7 +23024,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C203" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D203" s="139">
         <f t="shared" ref="D203:G203" si="81">D93*0.7</f>
@@ -23060,7 +23051,7 @@
         <v>17</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D204" s="139">
         <f t="shared" ref="D204:G204" si="82">D94*0.7</f>
@@ -23084,7 +23075,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C205" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D205" s="139">
         <f t="shared" ref="D205:G205" si="83">D95*0.7</f>
@@ -23108,7 +23099,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C206" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D206" s="139">
         <f t="shared" ref="D206:G206" si="84">D96*0.7</f>
@@ -23132,7 +23123,7 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C207" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D207" s="139">
         <f t="shared" ref="D207:G207" si="85">D97*0.7</f>
@@ -23159,7 +23150,7 @@
         <v>20</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D208" s="139">
         <f t="shared" ref="D208:G208" si="86">D98*0.7</f>
@@ -23183,7 +23174,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C209" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D209" s="139">
         <f t="shared" ref="D209:G209" si="87">D99*0.7</f>
@@ -23207,7 +23198,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C210" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D210" s="139">
         <f t="shared" ref="D210:G210" si="88">D100*0.7</f>
@@ -23231,7 +23222,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C211" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D211" s="139">
         <f t="shared" ref="D211:G211" si="89">D101*0.7</f>
@@ -23255,7 +23246,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="99" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B213" s="100"/>
       <c r="C213" s="100"/>
@@ -23270,10 +23261,10 @@
         <v>71</v>
       </c>
       <c r="B214" s="126" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C214" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D214" s="103" t="s">
         <v>1</v>
@@ -23295,7 +23286,7 @@
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D215" s="139">
         <f>D105*0.7</f>
@@ -23319,7 +23310,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C216" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D216" s="139">
         <f t="shared" ref="D216:G216" si="91">D106*0.7</f>
@@ -23343,7 +23334,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C217" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D217" s="139">
         <f t="shared" ref="D217:G217" si="92">D107*0.7</f>
@@ -23367,7 +23358,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D218" s="139">
         <f t="shared" ref="D218:G218" si="93">D108*0.7</f>
@@ -23391,13 +23382,13 @@
     </row>
     <row r="220" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H220" s="140"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="99" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B221" s="100"/>
       <c r="C221" s="100"/>
@@ -23410,13 +23401,13 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="118" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B222" s="119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C222" s="119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D222" s="103" t="s">
         <v>1</v>
@@ -23441,7 +23432,7 @@
         <v>71</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D223" s="139">
         <f>D3*1.2</f>
@@ -23467,7 +23458,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C224" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D224" s="139">
         <f t="shared" ref="D224:H224" si="95">D4*1.2</f>
@@ -23493,7 +23484,7 @@
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C225" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D225" s="139">
         <f t="shared" ref="D225:H225" si="96">D5*1.2</f>
@@ -23519,7 +23510,7 @@
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C226" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D226" s="139">
         <f t="shared" ref="D226:H226" si="97">D6*1.2</f>
@@ -23548,7 +23539,7 @@
         <v>16</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D227" s="139">
         <f t="shared" ref="D227:H227" si="98">D7*1.2</f>
@@ -23574,7 +23565,7 @@
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C228" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D228" s="139">
         <f t="shared" ref="D228:H228" si="99">D8*1.2</f>
@@ -23600,7 +23591,7 @@
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C229" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D229" s="139">
         <f t="shared" ref="D229:H229" si="100">D9*1.2</f>
@@ -23626,7 +23617,7 @@
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C230" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D230" s="139">
         <f t="shared" ref="D230:H230" si="101">D10*1.2</f>
@@ -23655,7 +23646,7 @@
         <v>18</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D231" s="139">
         <f t="shared" ref="D231:H231" si="102">D11*1.2</f>
@@ -23681,7 +23672,7 @@
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C232" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D232" s="139">
         <f t="shared" ref="D232:H232" si="103">D12*1.2</f>
@@ -23707,7 +23698,7 @@
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C233" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D233" s="139">
         <f t="shared" ref="D233:H233" si="104">D13*1.2</f>
@@ -23733,7 +23724,7 @@
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C234" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D234" s="139">
         <f t="shared" ref="D234:H234" si="105">D14*1.2</f>
@@ -23762,7 +23753,7 @@
         <v>19</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D235" s="139">
         <f t="shared" ref="D235:H235" si="106">D15*1.2</f>
@@ -23788,7 +23779,7 @@
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C236" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D236" s="139">
         <f t="shared" ref="D236:H236" si="107">D16*1.2</f>
@@ -23814,7 +23805,7 @@
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C237" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D237" s="139">
         <f t="shared" ref="D237:H237" si="108">D17*1.2</f>
@@ -23840,7 +23831,7 @@
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C238" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D238" s="139">
         <f t="shared" ref="D238:H238" si="109">D18*1.2</f>
@@ -23869,7 +23860,7 @@
         <v>17</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D239" s="139">
         <f t="shared" ref="D239:H239" si="110">D19*1.2</f>
@@ -23895,7 +23886,7 @@
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C240" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D240" s="139">
         <f t="shared" ref="D240:H240" si="111">D20*1.2</f>
@@ -23921,7 +23912,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C241" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D241" s="139">
         <f t="shared" ref="D241:H241" si="112">D21*1.2</f>
@@ -23947,7 +23938,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C242" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D242" s="139">
         <f t="shared" ref="D242:H242" si="113">D22*1.2</f>
@@ -23976,7 +23967,7 @@
         <v>23</v>
       </c>
       <c r="C243" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D243" s="139">
         <f t="shared" ref="D243:H243" si="114">D23*1.2</f>
@@ -24002,7 +23993,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C244" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D244" s="139">
         <f t="shared" ref="D244:H244" si="115">D24*1.2</f>
@@ -24028,7 +24019,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C245" s="43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D245" s="139">
         <f t="shared" ref="D245:H245" si="116">D25*1.2</f>
@@ -24054,7 +24045,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C246" s="43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D246" s="139">
         <f t="shared" ref="D246:H246" si="117">D26*1.2</f>
@@ -24080,7 +24071,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="99" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B248" s="100"/>
       <c r="C248" s="100"/>
@@ -24093,13 +24084,13 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B249" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C249" s="94" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D249" s="103" t="s">
         <v>1</v>
@@ -24124,7 +24115,7 @@
         <v>71</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D250" s="139">
         <f>D30*1.2</f>
@@ -24150,7 +24141,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C251" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D251" s="139">
         <f t="shared" ref="D251:H251" si="119">D31*1.2</f>
@@ -24231,7 +24222,7 @@
         <v>16</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D254" s="139">
         <f t="shared" ref="D254:H254" si="122">D34*1.2</f>
@@ -24257,7 +24248,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C255" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D255" s="139">
         <f t="shared" ref="D255:H255" si="123">D35*1.2</f>
@@ -24338,7 +24329,7 @@
         <v>18</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D258" s="139">
         <f t="shared" ref="D258:H258" si="126">D38*1.2</f>
@@ -24364,7 +24355,7 @@
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C259" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D259" s="139">
         <f t="shared" ref="D259:H259" si="127">D39*1.2</f>
@@ -24445,7 +24436,7 @@
         <v>19</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D262" s="139">
         <f t="shared" ref="D262:H262" si="130">D42*1.2</f>
@@ -24471,7 +24462,7 @@
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C263" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D263" s="139">
         <f t="shared" ref="D263:H263" si="131">D43*1.2</f>
@@ -24552,7 +24543,7 @@
         <v>17</v>
       </c>
       <c r="C266" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D266" s="139">
         <f t="shared" ref="D266:H266" si="134">D46*1.2</f>
@@ -24578,7 +24569,7 @@
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C267" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D267" s="139">
         <f t="shared" ref="D267:H267" si="135">D47*1.2</f>
@@ -24659,7 +24650,7 @@
         <v>23</v>
       </c>
       <c r="C270" s="43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D270" s="139">
         <f t="shared" ref="D270:H270" si="138">D50*1.2</f>
@@ -24685,7 +24676,7 @@
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C271" s="43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D271" s="139">
         <f t="shared" ref="D271:H271" si="139">D51*1.2</f>
@@ -24767,7 +24758,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B275" s="100"/>
       <c r="C275" s="100"/>
@@ -24783,10 +24774,10 @@
         <v>70</v>
       </c>
       <c r="B276" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C276" s="123" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D276" s="103" t="s">
         <v>53</v>
@@ -24809,7 +24800,7 @@
         <v>38</v>
       </c>
       <c r="C277" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D277" s="139">
         <f>D57*1.2</f>
@@ -24831,7 +24822,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C278" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D278" s="139">
         <f t="shared" ref="D278:G278" si="143">D58*1.2</f>
@@ -24856,7 +24847,7 @@
         <v>39</v>
       </c>
       <c r="C279" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D279" s="139">
         <f t="shared" ref="D279:G279" si="144">D59*1.2</f>
@@ -24878,7 +24869,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C280" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D280" s="139">
         <f t="shared" ref="D280:G280" si="145">D60*1.2</f>
@@ -24903,7 +24894,7 @@
         <v>40</v>
       </c>
       <c r="C281" s="43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D281" s="139">
         <f t="shared" ref="D281:G281" si="146">D61*1.2</f>
@@ -24925,7 +24916,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C282" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D282" s="139">
         <f t="shared" ref="D282:G282" si="147">D62*1.2</f>
@@ -24951,7 +24942,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="99" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B284" s="100"/>
       <c r="C284" s="100"/>
@@ -24967,10 +24958,10 @@
         <v>24</v>
       </c>
       <c r="B285" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C285" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D285" s="103" t="s">
         <v>1</v>
@@ -24995,7 +24986,7 @@
         <v>73</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D286" s="139">
         <f>D66*1.2</f>
@@ -25020,7 +25011,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C287" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D287" s="139">
         <f t="shared" ref="D287:G287" si="149">D67*1.2</f>
@@ -25045,7 +25036,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C288" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D288" s="139">
         <f t="shared" ref="D288:G288" si="150">D68*1.2</f>
@@ -25070,7 +25061,7 @@
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C289" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D289" s="139">
         <f t="shared" ref="D289:G289" si="151">D69*1.2</f>
@@ -25098,7 +25089,7 @@
         <v>7</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D290" s="139">
         <f t="shared" ref="D290:G290" si="152">D70*1.2</f>
@@ -25123,7 +25114,7 @@
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C291" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D291" s="139">
         <f t="shared" ref="D291:G291" si="153">D71*1.2</f>
@@ -25148,7 +25139,7 @@
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C292" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D292" s="139">
         <f t="shared" ref="D292:G292" si="154">D72*1.2</f>
@@ -25173,7 +25164,7 @@
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C293" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D293" s="139">
         <f t="shared" ref="D293:G293" si="155">D73*1.2</f>
@@ -25201,7 +25192,7 @@
         <v>8</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D294" s="139">
         <f t="shared" ref="D294:G294" si="156">D74*1.2</f>
@@ -25226,7 +25217,7 @@
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C295" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D295" s="139">
         <f t="shared" ref="D295:G295" si="157">D75*1.2</f>
@@ -25251,7 +25242,7 @@
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C296" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D296" s="139">
         <f t="shared" ref="D296:G296" si="158">D76*1.2</f>
@@ -25276,7 +25267,7 @@
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C297" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D297" s="139">
         <f t="shared" ref="D297:G297" si="159">D77*1.2</f>
@@ -25304,7 +25295,7 @@
         <v>13</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D298" s="139">
         <f t="shared" ref="D298:G298" si="160">D78*1.2</f>
@@ -25329,7 +25320,7 @@
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C299" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D299" s="139">
         <f t="shared" ref="D299:G299" si="161">D79*1.2</f>
@@ -25354,7 +25345,7 @@
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C300" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D300" s="139">
         <f t="shared" ref="D300:G300" si="162">D80*1.2</f>
@@ -25379,7 +25370,7 @@
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C301" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D301" s="139">
         <f t="shared" ref="D301:G301" si="163">D81*1.2</f>
@@ -25407,7 +25398,7 @@
         <v>71</v>
       </c>
       <c r="C302" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D302" s="139">
         <f t="shared" ref="D302:G302" si="164">D82*1.2</f>
@@ -25432,7 +25423,7 @@
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C303" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D303" s="139">
         <f t="shared" ref="D303:G303" si="165">D83*1.2</f>
@@ -25457,7 +25448,7 @@
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C304" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D304" s="139">
         <f t="shared" ref="D304:G304" si="166">D84*1.2</f>
@@ -25482,7 +25473,7 @@
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C305" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D305" s="139">
         <f t="shared" ref="D305:G305" si="167">D85*1.2</f>
@@ -25510,7 +25501,7 @@
         <v>16</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D306" s="139">
         <f t="shared" ref="D306:G306" si="168">D86*1.2</f>
@@ -25535,7 +25526,7 @@
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C307" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D307" s="139">
         <f t="shared" ref="D307:G307" si="169">D87*1.2</f>
@@ -25560,7 +25551,7 @@
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C308" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D308" s="139">
         <f t="shared" ref="D308:G308" si="170">D88*1.2</f>
@@ -25585,7 +25576,7 @@
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C309" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D309" s="139">
         <f t="shared" ref="D309:G309" si="171">D89*1.2</f>
@@ -25613,7 +25604,7 @@
         <v>18</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D310" s="139">
         <f t="shared" ref="D310:G310" si="172">D90*1.2</f>
@@ -25638,7 +25629,7 @@
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C311" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D311" s="139">
         <f t="shared" ref="D311:G311" si="173">D91*1.2</f>
@@ -25663,7 +25654,7 @@
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C312" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D312" s="139">
         <f t="shared" ref="D312:G312" si="174">D92*1.2</f>
@@ -25688,7 +25679,7 @@
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C313" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D313" s="139">
         <f t="shared" ref="D313:G313" si="175">D93*1.2</f>
@@ -25716,7 +25707,7 @@
         <v>17</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D314" s="139">
         <f t="shared" ref="D314:G314" si="176">D94*1.2</f>
@@ -25741,7 +25732,7 @@
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C315" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D315" s="139">
         <f t="shared" ref="D315:G315" si="177">D95*1.2</f>
@@ -25766,7 +25757,7 @@
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C316" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D316" s="139">
         <f t="shared" ref="D316:G316" si="178">D96*1.2</f>
@@ -25791,7 +25782,7 @@
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C317" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D317" s="139">
         <f t="shared" ref="D317:G317" si="179">D97*1.2</f>
@@ -25819,7 +25810,7 @@
         <v>20</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D318" s="139">
         <f t="shared" ref="D318:G318" si="180">D98*1.2</f>
@@ -25844,7 +25835,7 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C319" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D319" s="139">
         <f t="shared" ref="D319:G319" si="181">D99*1.2</f>
@@ -25869,7 +25860,7 @@
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C320" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D320" s="139">
         <f t="shared" ref="D320:G320" si="182">D100*1.2</f>
@@ -25894,7 +25885,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C321" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D321" s="139">
         <f t="shared" ref="D321:G321" si="183">D101*1.2</f>
@@ -25919,7 +25910,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="99" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B323" s="100"/>
       <c r="C323" s="100"/>
@@ -25935,10 +25926,10 @@
         <v>71</v>
       </c>
       <c r="B324" s="126" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C324" s="123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D324" s="103" t="s">
         <v>1</v>
@@ -25961,7 +25952,7 @@
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D325" s="139">
         <f>D105*1.2</f>
@@ -25986,7 +25977,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C326" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D326" s="139">
         <f t="shared" ref="D326:G326" si="185">D106*1.2</f>
@@ -26011,7 +26002,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C327" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D327" s="139">
         <f t="shared" ref="D327:G327" si="186">D107*1.2</f>
@@ -26036,7 +26027,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C328" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D328" s="139">
         <f t="shared" ref="D328:G328" si="187">D108*1.2</f>
@@ -26094,7 +26085,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26120,10 +26111,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -26141,7 +26132,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C4" s="136">
         <v>1.0249999999999999</v>
@@ -26161,7 +26152,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26186,7 +26177,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -26234,13 +26225,13 @@
     </row>
     <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C11" s="136">
         <v>1.5</v>
@@ -26264,15 +26255,15 @@
     </row>
     <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C14" s="136">
         <v>1.0249999999999999</v>
@@ -26293,7 +26284,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C15" s="136">
         <v>1.0249999999999999</v>
@@ -26316,7 +26307,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C16" s="136">
         <v>1</v>
@@ -26337,7 +26328,7 @@
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26356,7 +26347,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C20" s="136">
         <v>1.52</v>
@@ -26373,12 +26364,12 @@
     </row>
     <row r="22" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="99" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B23" s="100"/>
       <c r="C23" s="100"/>
@@ -26410,10 +26401,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="113" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C25" s="136" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D25" s="136">
         <f>D3*0.9</f>
@@ -26435,7 +26426,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="117" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C26" s="136">
         <f t="shared" si="0"/>
@@ -26460,12 +26451,12 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="104" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="117" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C28" s="136">
         <f>C6*0.9</f>
@@ -26490,7 +26481,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="117" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C29" s="136">
         <f t="shared" ref="C29:G29" si="2">C7*0.9</f>
@@ -26515,7 +26506,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="117" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C30" s="136">
         <f t="shared" ref="C30:G30" si="3">C8*0.9</f>
@@ -26548,7 +26539,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="99" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B32" s="100"/>
       <c r="C32" s="100"/>
@@ -26560,7 +26551,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="104"/>
       <c r="B33" s="113" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C33" s="136">
         <f>C11*0.9</f>
@@ -26586,7 +26577,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="99" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B35" s="100"/>
       <c r="C35" s="100"/>
@@ -26597,10 +26588,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B36" s="117" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C36" s="136">
         <f>C14*0.9</f>
@@ -26626,7 +26617,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="40"/>
       <c r="B37" s="117" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C37" s="136">
         <f t="shared" ref="C37:G37" si="6">C15*0.9</f>
@@ -26654,7 +26645,7 @@
         <v>70</v>
       </c>
       <c r="B38" s="113" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C38" s="136">
         <f t="shared" ref="C38:G38" si="7">C16*0.9</f>
@@ -26679,7 +26670,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="99" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B40" s="100"/>
       <c r="C40" s="100"/>
@@ -26707,7 +26698,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B42" s="113" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C42" s="136">
         <f>C20*0.9</f>
@@ -26728,12 +26719,12 @@
     </row>
     <row r="44" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="99" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="100"/>
@@ -26765,10 +26756,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" s="113" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C47" s="136" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D47" s="136">
         <f>D3*1.05</f>
@@ -26790,7 +26781,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="40"/>
       <c r="B48" s="117" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C48" s="136">
         <f t="shared" si="9"/>
@@ -26815,12 +26806,12 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="104" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C50" s="136">
         <f>C6*1.05</f>
@@ -26845,7 +26836,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C51" s="136">
         <f t="shared" ref="C51:G51" si="11">C7*1.05</f>
@@ -26870,7 +26861,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C52" s="136">
         <f t="shared" ref="C52:G52" si="12">C8*1.05</f>
@@ -26903,7 +26894,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="99" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B54" s="100"/>
       <c r="C54" s="100"/>
@@ -26915,7 +26906,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="104"/>
       <c r="B55" s="113" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C55" s="136">
         <f>C11*1.1</f>
@@ -26941,7 +26932,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="99" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B57" s="100"/>
       <c r="C57" s="100"/>
@@ -26952,10 +26943,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C58" s="136">
         <f>C14*1.05</f>
@@ -26981,7 +26972,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="40"/>
       <c r="B59" s="117" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C59" s="136">
         <f t="shared" ref="C59:G59" si="15">C15*1.05</f>
@@ -27009,7 +27000,7 @@
         <v>70</v>
       </c>
       <c r="B60" s="113" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C60" s="136">
         <f t="shared" ref="C60:G60" si="16">C16*1.05</f>
@@ -27034,7 +27025,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="99" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B62" s="100"/>
       <c r="C62" s="100"/>
@@ -27062,7 +27053,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B64" s="113" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C64" s="136">
         <f>C20*1.05</f>
@@ -27135,7 +27126,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -27153,7 +27144,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -27170,10 +27161,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C4" s="136">
         <v>0.15</v>
@@ -27191,7 +27182,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -27208,10 +27199,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C6" s="136">
         <v>0.15</v>
@@ -27229,7 +27220,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -27249,7 +27240,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -27267,7 +27258,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -27287,7 +27278,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -27305,7 +27296,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -27325,7 +27316,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C12" s="136">
         <v>0.23</v>
@@ -27343,7 +27334,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -27360,7 +27351,7 @@
     </row>
     <row r="15" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27386,7 +27377,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C17" s="136">
         <f>C2*0.9</f>
@@ -27408,7 +27399,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="90"/>
       <c r="B18" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C18" s="136">
         <f t="shared" ref="C18:F18" si="1">C3*0.9</f>
@@ -27429,10 +27420,10 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C19" s="136">
         <f t="shared" ref="C19:F19" si="2">C4*0.9</f>
@@ -27454,7 +27445,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="90"/>
       <c r="B20" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C20" s="136">
         <f t="shared" ref="C20:F20" si="3">C5*0.9</f>
@@ -27475,10 +27466,10 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B21" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C21" s="136">
         <f t="shared" ref="C21:F21" si="4">C6*0.9</f>
@@ -27500,7 +27491,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="90"/>
       <c r="B22" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C22" s="136">
         <f t="shared" ref="C22:F22" si="5">C7*0.9</f>
@@ -27524,7 +27515,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C23" s="136">
         <f t="shared" ref="C23:F23" si="6">C8*0.9</f>
@@ -27546,7 +27537,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="90"/>
       <c r="B24" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C24" s="136">
         <f t="shared" ref="C24:F24" si="7">C9*0.9</f>
@@ -27570,7 +27561,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C25" s="136">
         <f t="shared" ref="C25:F25" si="8">C10*0.9</f>
@@ -27592,7 +27583,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90"/>
       <c r="B26" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C26" s="136">
         <f t="shared" ref="C26:F26" si="9">C11*0.9</f>
@@ -27616,7 +27607,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C27" s="136">
         <f t="shared" ref="C27:F27" si="10">C12*0.9</f>
@@ -27638,7 +27629,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="90"/>
       <c r="B28" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C28" s="136">
         <f t="shared" ref="C28:F28" si="11">C13*0.9</f>
@@ -27659,7 +27650,7 @@
     </row>
     <row r="30" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27685,7 +27676,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C32" s="136">
         <f>C2*1.05</f>
@@ -27707,7 +27698,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="90"/>
       <c r="B33" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C33" s="136">
         <f t="shared" ref="C33:F33" si="13">C3*1.05</f>
@@ -27728,10 +27719,10 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B34" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C34" s="136">
         <f t="shared" ref="C34:F34" si="14">C4*1.05</f>
@@ -27753,7 +27744,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="90"/>
       <c r="B35" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C35" s="136">
         <f t="shared" ref="C35:F35" si="15">C5*1.05</f>
@@ -27774,10 +27765,10 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B36" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C36" s="136">
         <f t="shared" ref="C36:F36" si="16">C6*1.05</f>
@@ -27799,7 +27790,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="90"/>
       <c r="B37" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C37" s="136">
         <f t="shared" ref="C37:F37" si="17">C7*1.05</f>
@@ -27823,7 +27814,7 @@
         <v>57</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C38" s="136">
         <f t="shared" ref="C38:F38" si="18">C8*1.05</f>
@@ -27845,7 +27836,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="90"/>
       <c r="B39" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C39" s="136">
         <f t="shared" ref="C39:F39" si="19">C9*1.05</f>
@@ -27869,7 +27860,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C40" s="136">
         <f t="shared" ref="C40:F40" si="20">C10*1.05</f>
@@ -27891,7 +27882,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="90"/>
       <c r="B41" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C41" s="136">
         <f t="shared" ref="C41:F41" si="21">C11*1.05</f>
@@ -27915,7 +27906,7 @@
         <v>59</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C42" s="136">
         <f t="shared" ref="C42:F42" si="22">C12*1.05</f>
@@ -27937,7 +27928,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="90"/>
       <c r="B43" s="90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C43" s="136">
         <f t="shared" ref="C43:F43" si="23">C13*1.05</f>
@@ -27973,8 +27964,8 @@
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P73" sqref="P73"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28030,12 +28021,12 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -28079,7 +28070,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -28123,7 +28114,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -28167,7 +28158,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -28211,7 +28202,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -28255,7 +28246,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -28299,7 +28290,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -28387,7 +28378,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -28475,7 +28466,7 @@
     </row>
     <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -28563,7 +28554,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B16" s="59"/>
     </row>
@@ -28745,7 +28736,7 @@
     </row>
     <row r="22" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="140" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -28793,12 +28784,12 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C25" s="136">
         <f>C3*0.9</f>
@@ -28855,7 +28846,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C26" s="136">
         <f t="shared" ref="C26:O26" si="1">C4*0.9</f>
@@ -28912,7 +28903,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C27" s="136">
         <f t="shared" ref="C27:O27" si="2">C5*0.9</f>
@@ -28969,7 +28960,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C28" s="136">
         <f t="shared" ref="C28:O28" si="3">C6*0.9</f>
@@ -29026,7 +29017,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C29" s="136">
         <f t="shared" ref="C29:O29" si="4">C7*0.9</f>
@@ -29083,7 +29074,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C30" s="136">
         <f t="shared" ref="C30:O30" si="5">C8*0.9</f>
@@ -29140,7 +29131,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C31" s="136">
         <f t="shared" ref="C31:O31" si="6">C9*0.9</f>
@@ -29254,7 +29245,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="90" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C33" s="136">
         <f t="shared" ref="C33:O33" si="8">C11*0.9</f>
@@ -29368,7 +29359,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B35" s="59" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C35" s="136">
         <f t="shared" ref="C35:O35" si="10">C13*0.9</f>
@@ -29482,7 +29473,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B38" s="59"/>
     </row>
@@ -29716,7 +29707,7 @@
     </row>
     <row r="44" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="140" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -29764,12 +29755,12 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="40" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B47" s="59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C47" s="136">
         <f>C3*1.05</f>
@@ -29826,7 +29817,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B48" s="59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C48" s="136">
         <f t="shared" ref="C48:O48" si="17">C4*1.05</f>
@@ -29883,7 +29874,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C49" s="136">
         <f t="shared" ref="C49:O49" si="18">C5*1.05</f>
@@ -29940,7 +29931,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C50" s="136">
         <f t="shared" ref="C50:O50" si="19">C6*1.05</f>
@@ -29997,7 +29988,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C51" s="136">
         <f t="shared" ref="C51:O51" si="20">C7*1.05</f>
@@ -30054,7 +30045,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C52" s="136">
         <f t="shared" ref="C52:O52" si="21">C8*1.05</f>
@@ -30111,7 +30102,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="90" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C53" s="136">
         <f t="shared" ref="C53:O53" si="22">C9*1.05</f>
@@ -30225,7 +30216,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="90" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C55" s="136">
         <f t="shared" ref="C55:O55" si="24">C11*1.05</f>
@@ -30339,7 +30330,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B57" s="59" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C57" s="136">
         <f t="shared" ref="C57:O57" si="26">C13*1.05</f>
@@ -30453,7 +30444,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="40" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B60" s="59"/>
     </row>
@@ -30735,7 +30726,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -30760,7 +30751,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -30771,7 +30762,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -30791,7 +30782,7 @@
     </row>
     <row r="7" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="140" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -30815,7 +30806,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -30845,7 +30836,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="127"/>
@@ -30856,7 +30847,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="90" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C12" s="136">
         <f>C5*0.9</f>
@@ -30881,7 +30872,7 @@
     </row>
     <row r="14" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="140" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -30905,7 +30896,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -30935,7 +30926,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="127"/>
@@ -30946,7 +30937,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="136">
         <f>C5*1.05</f>
@@ -31008,10 +30999,10 @@
         <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -31037,7 +31028,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -31057,7 +31048,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -31077,7 +31068,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -31103,7 +31094,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -31123,7 +31114,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -31146,7 +31137,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -31166,7 +31157,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -31186,13 +31177,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -31212,7 +31203,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -31235,7 +31226,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -31255,7 +31246,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -31281,7 +31272,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -31301,7 +31292,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -31325,7 +31316,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -31346,7 +31337,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -31373,7 +31364,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -31394,7 +31385,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D18" s="136">
         <v>0.46</v>
@@ -31421,7 +31412,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -31441,7 +31432,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D20" s="136">
         <v>0.46</v>
@@ -31467,7 +31458,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -31487,7 +31478,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D22" s="136">
         <v>0.46</v>
@@ -31513,7 +31504,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -31533,7 +31524,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -31553,7 +31544,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -31579,7 +31570,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -31599,7 +31590,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -31619,7 +31610,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -31645,7 +31636,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -31665,7 +31656,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -31685,7 +31676,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -31711,7 +31702,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -31731,7 +31722,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -31751,7 +31742,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -31777,7 +31768,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -31797,7 +31788,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -31817,7 +31808,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -31843,7 +31834,7 @@
         <v>71</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -31863,7 +31854,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D39" s="136">
         <v>0.5</v>
@@ -31883,7 +31874,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D40" s="136">
         <v>0.65</v>
@@ -31906,7 +31897,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -31926,7 +31917,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D42" s="136">
         <v>0.49</v>
@@ -31946,7 +31937,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D43" s="136">
         <v>0.52</v>
@@ -31972,7 +31963,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -31992,7 +31983,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D45" s="136">
         <v>0.93</v>
@@ -32018,7 +32009,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -32038,7 +32029,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D47" s="136">
         <v>0.86</v>
@@ -32058,13 +32049,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -32084,7 +32075,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D49" s="136">
         <v>0.51</v>
@@ -32104,7 +32095,7 @@
     </row>
     <row r="51" spans="1:8" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="144" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B51" s="145"/>
       <c r="C51" s="145"/>
@@ -32114,10 +32105,10 @@
         <v>69</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C52" s="125" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>1</v>
@@ -32143,7 +32134,7 @@
         <v>71</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D53" s="136">
         <f>D2*0.9</f>
@@ -32168,7 +32159,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C54" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D54" s="136">
         <f t="shared" ref="D54:H54" si="1">D3*0.9</f>
@@ -32193,7 +32184,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C55" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D55" s="136">
         <f t="shared" ref="D55:H55" si="2">D4*0.9</f>
@@ -32224,7 +32215,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D56" s="136">
         <f t="shared" ref="D56:H56" si="3">D5*0.9</f>
@@ -32249,7 +32240,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C57" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D57" s="136">
         <f t="shared" ref="D57:H57" si="4">D6*0.9</f>
@@ -32277,7 +32268,7 @@
         <v>65</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D58" s="136">
         <f t="shared" ref="D58:H58" si="5">D7*0.9</f>
@@ -32302,7 +32293,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C59" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D59" s="136">
         <f t="shared" ref="D59:H59" si="6">D8*0.9</f>
@@ -32327,13 +32318,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B60" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D60" s="136">
         <f t="shared" ref="D60:H60" si="7">D9*0.9</f>
@@ -32358,7 +32349,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D61" s="136">
         <f t="shared" ref="D61:H61" si="8">D10*0.9</f>
@@ -32386,7 +32377,7 @@
         <v>65</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D62" s="136">
         <f t="shared" ref="D62:H62" si="9">D11*0.9</f>
@@ -32411,7 +32402,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D63" s="136">
         <f t="shared" ref="D63:H63" si="10">D12*0.9</f>
@@ -32442,7 +32433,7 @@
         <v>66</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D64" s="136">
         <f t="shared" ref="D64:H64" si="11">D13*0.9</f>
@@ -32467,7 +32458,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C65" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D65" s="136">
         <f t="shared" ref="D65:H65" si="12">D14*0.9</f>
@@ -32495,7 +32486,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D66" s="136">
         <f t="shared" ref="D66:H66" si="13">D15*0.9</f>
@@ -32520,7 +32511,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C67" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D67" s="136">
         <f t="shared" ref="D67:H67" si="14">D16*0.9</f>
@@ -32551,7 +32542,7 @@
         <v>27</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D68" s="136">
         <f t="shared" ref="D68:H68" si="15">D17*0.9</f>
@@ -32576,7 +32567,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C69" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D69" s="136">
         <f t="shared" ref="D69:H69" si="16">D18*0.9</f>
@@ -32607,7 +32598,7 @@
         <v>27</v>
       </c>
       <c r="C70" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D70" s="136">
         <f t="shared" ref="D70:H70" si="17">D19*0.9</f>
@@ -32632,7 +32623,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C71" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D71" s="136">
         <f t="shared" ref="D71:H71" si="18">D20*0.9</f>
@@ -32663,7 +32654,7 @@
         <v>27</v>
       </c>
       <c r="C72" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D72" s="136">
         <f t="shared" ref="D72:H72" si="19">D21*0.9</f>
@@ -32688,7 +32679,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C73" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D73" s="136">
         <f t="shared" ref="D73:H73" si="20">D22*0.9</f>
@@ -32719,7 +32710,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D74" s="136">
         <f t="shared" ref="D74:H74" si="21">D23*0.9</f>
@@ -32744,7 +32735,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C75" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D75" s="136">
         <f t="shared" ref="D75:H75" si="22">D24*0.9</f>
@@ -32769,7 +32760,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C76" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D76" s="136">
         <f t="shared" ref="D76:H76" si="23">D25*0.9</f>
@@ -32800,7 +32791,7 @@
         <v>71</v>
       </c>
       <c r="C77" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D77" s="136">
         <f t="shared" ref="D77:H77" si="24">D26*0.9</f>
@@ -32825,7 +32816,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C78" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D78" s="136">
         <f t="shared" ref="D78:H78" si="25">D27*0.9</f>
@@ -32850,7 +32841,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C79" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D79" s="136">
         <f t="shared" ref="D79:H79" si="26">D28*0.9</f>
@@ -32881,7 +32872,7 @@
         <v>71</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D80" s="136">
         <f t="shared" ref="D80:H80" si="27">D29*0.9</f>
@@ -32906,7 +32897,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C81" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D81" s="136">
         <f t="shared" ref="D81:H81" si="28">D30*0.9</f>
@@ -32931,7 +32922,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C82" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D82" s="136">
         <f t="shared" ref="D82:H82" si="29">D31*0.9</f>
@@ -32962,7 +32953,7 @@
         <v>71</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D83" s="136">
         <f t="shared" ref="D83:H83" si="30">D32*0.9</f>
@@ -32987,7 +32978,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C84" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D84" s="136">
         <f t="shared" ref="D84:H84" si="31">D33*0.9</f>
@@ -33012,7 +33003,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C85" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D85" s="136">
         <f t="shared" ref="D85:H85" si="32">D34*0.9</f>
@@ -33043,7 +33034,7 @@
         <v>71</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D86" s="136">
         <f t="shared" ref="D86:H86" si="33">D35*0.9</f>
@@ -33068,7 +33059,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C87" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D87" s="136">
         <f t="shared" ref="D87:H87" si="34">D36*0.9</f>
@@ -33093,7 +33084,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C88" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D88" s="136">
         <f t="shared" ref="D88:H88" si="35">D37*0.9</f>
@@ -33124,7 +33115,7 @@
         <v>71</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D89" s="136">
         <f t="shared" ref="D89:H89" si="36">D38*0.9</f>
@@ -33149,7 +33140,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C90" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D90" s="136">
         <f t="shared" ref="D90:H90" si="37">D39*0.9</f>
@@ -33174,7 +33165,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C91" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D91" s="136">
         <f t="shared" ref="D91:H91" si="38">D40*0.9</f>
@@ -33202,7 +33193,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D92" s="136">
         <f t="shared" ref="D92:H92" si="39">D41*0.9</f>
@@ -33227,7 +33218,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C93" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D93" s="136">
         <f t="shared" ref="D93:H93" si="40">D42*0.9</f>
@@ -33252,7 +33243,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C94" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D94" s="136">
         <f t="shared" ref="D94:H94" si="41">D43*0.9</f>
@@ -33283,7 +33274,7 @@
         <v>71</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D95" s="136">
         <f t="shared" ref="D95:H95" si="42">D44*0.9</f>
@@ -33308,7 +33299,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C96" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D96" s="136">
         <f t="shared" ref="D96:H96" si="43">D45*0.9</f>
@@ -33339,7 +33330,7 @@
         <v>71</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D97" s="136">
         <f t="shared" ref="D97:H97" si="44">D46*0.9</f>
@@ -33364,7 +33355,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D98" s="136">
         <f t="shared" ref="D98:H98" si="45">D47*0.9</f>
@@ -33389,13 +33380,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B99" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D99" s="136">
         <f t="shared" ref="D99:H99" si="46">D48*0.9</f>
@@ -33420,7 +33411,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C100" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D100" s="136">
         <f t="shared" ref="D100:H100" si="47">D49*0.9</f>
@@ -33445,7 +33436,7 @@
     </row>
     <row r="102" spans="1:8" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="144" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B102" s="145"/>
       <c r="C102" s="145"/>
@@ -33455,10 +33446,10 @@
         <v>69</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C103" s="125" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D103" s="40" t="s">
         <v>1</v>
@@ -33484,7 +33475,7 @@
         <v>71</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D104" s="136">
         <f>D2*1.05</f>
@@ -33509,7 +33500,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C105" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D105" s="136">
         <f t="shared" ref="D105:H105" si="49">D3*1.05</f>
@@ -33534,7 +33525,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C106" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D106" s="136">
         <f t="shared" ref="D106:H106" si="50">D4*1.05</f>
@@ -33565,7 +33556,7 @@
         <v>66</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D107" s="136">
         <f t="shared" ref="D107:H107" si="51">D5*1.05</f>
@@ -33590,7 +33581,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C108" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D108" s="136">
         <f t="shared" ref="D108:H108" si="52">D6*1.05</f>
@@ -33618,7 +33609,7 @@
         <v>65</v>
       </c>
       <c r="C109" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D109" s="136">
         <f t="shared" ref="D109:H109" si="53">D7*1.05</f>
@@ -33643,7 +33634,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C110" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D110" s="136">
         <f t="shared" ref="D110:H110" si="54">D8*1.05</f>
@@ -33668,13 +33659,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B111" s="52" t="s">
         <v>66</v>
       </c>
       <c r="C111" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D111" s="136">
         <f t="shared" ref="D111:H111" si="55">D9*1.05</f>
@@ -33699,7 +33690,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C112" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D112" s="136">
         <f t="shared" ref="D112:H112" si="56">D10*1.05</f>
@@ -33727,7 +33718,7 @@
         <v>65</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D113" s="136">
         <f t="shared" ref="D113:H113" si="57">D11*1.05</f>
@@ -33752,7 +33743,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D114" s="136">
         <f t="shared" ref="D114:H114" si="58">D12*1.05</f>
@@ -33783,7 +33774,7 @@
         <v>66</v>
       </c>
       <c r="C115" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D115" s="136">
         <f t="shared" ref="D115:H115" si="59">D13*1.05</f>
@@ -33808,7 +33799,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D116" s="136">
         <f t="shared" ref="D116:H116" si="60">D14*1.05</f>
@@ -33836,7 +33827,7 @@
         <v>65</v>
       </c>
       <c r="C117" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D117" s="136">
         <f t="shared" ref="D117:H117" si="61">D15*1.05</f>
@@ -33861,7 +33852,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D118" s="136">
         <f t="shared" ref="D118:H118" si="62">D16*1.05</f>
@@ -33892,7 +33883,7 @@
         <v>27</v>
       </c>
       <c r="C119" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D119" s="136">
         <f t="shared" ref="D119:H119" si="63">D17*1.05</f>
@@ -33917,7 +33908,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D120" s="136">
         <f t="shared" ref="D120:H120" si="64">D18*1.05</f>
@@ -33948,7 +33939,7 @@
         <v>27</v>
       </c>
       <c r="C121" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D121" s="136">
         <f t="shared" ref="D121:H121" si="65">D19*1.05</f>
@@ -33973,7 +33964,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D122" s="136">
         <f t="shared" ref="D122:H122" si="66">D20*1.05</f>
@@ -34004,7 +33995,7 @@
         <v>27</v>
       </c>
       <c r="C123" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D123" s="136">
         <f t="shared" ref="D123:H123" si="67">D21*1.05</f>
@@ -34029,7 +34020,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D124" s="136">
         <f t="shared" ref="D124:H124" si="68">D22*1.05</f>
@@ -34060,7 +34051,7 @@
         <v>71</v>
       </c>
       <c r="C125" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D125" s="136">
         <f t="shared" ref="D125:H125" si="69">D23*1.05</f>
@@ -34085,7 +34076,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D126" s="136">
         <f t="shared" ref="D126:H126" si="70">D24*1.05</f>
@@ -34110,7 +34101,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C127" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D127" s="136">
         <f t="shared" ref="D127:H127" si="71">D25*1.05</f>
@@ -34141,7 +34132,7 @@
         <v>71</v>
       </c>
       <c r="C128" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D128" s="136">
         <f t="shared" ref="D128:H128" si="72">D26*1.05</f>
@@ -34166,7 +34157,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C129" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D129" s="136">
         <f t="shared" ref="D129:H129" si="73">D27*1.05</f>
@@ -34191,7 +34182,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D130" s="136">
         <f t="shared" ref="D130:H130" si="74">D28*1.05</f>
@@ -34222,7 +34213,7 @@
         <v>71</v>
       </c>
       <c r="C131" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D131" s="136">
         <f t="shared" ref="D131:H131" si="75">D29*1.05</f>
@@ -34247,7 +34238,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C132" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D132" s="136">
         <f t="shared" ref="D132:H132" si="76">D30*1.05</f>
@@ -34272,7 +34263,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C133" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D133" s="136">
         <f t="shared" ref="D133:H133" si="77">D31*1.05</f>
@@ -34303,7 +34294,7 @@
         <v>71</v>
       </c>
       <c r="C134" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D134" s="136">
         <f t="shared" ref="D134:H134" si="78">D32*1.05</f>
@@ -34328,7 +34319,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C135" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D135" s="136">
         <f t="shared" ref="D135:H135" si="79">D33*1.05</f>
@@ -34353,7 +34344,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D136" s="136">
         <f t="shared" ref="D136:H136" si="80">D34*1.05</f>
@@ -34384,7 +34375,7 @@
         <v>71</v>
       </c>
       <c r="C137" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D137" s="136">
         <f t="shared" ref="D137:H137" si="81">D35*1.05</f>
@@ -34409,7 +34400,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C138" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D138" s="136">
         <f t="shared" ref="D138:H138" si="82">D36*1.05</f>
@@ -34434,7 +34425,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C139" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D139" s="136">
         <f t="shared" ref="D139:H139" si="83">D37*1.05</f>
@@ -34465,7 +34456,7 @@
         <v>71</v>
       </c>
       <c r="C140" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D140" s="136">
         <f t="shared" ref="D140:H140" si="84">D38*1.05</f>
@@ -34490,7 +34481,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D141" s="136">
         <f t="shared" ref="D141:H141" si="85">D39*1.05</f>
@@ -34515,7 +34506,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C142" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D142" s="136">
         <f t="shared" ref="D142:H142" si="86">D40*1.05</f>
@@ -34543,7 +34534,7 @@
         <v>16</v>
       </c>
       <c r="C143" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D143" s="136">
         <f t="shared" ref="D143:H143" si="87">D41*1.05</f>
@@ -34568,7 +34559,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C144" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D144" s="136">
         <f t="shared" ref="D144:H144" si="88">D42*1.05</f>
@@ -34593,7 +34584,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C145" s="52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D145" s="136">
         <f t="shared" ref="D145:H145" si="89">D43*1.05</f>
@@ -34624,7 +34615,7 @@
         <v>71</v>
       </c>
       <c r="C146" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D146" s="136">
         <f t="shared" ref="D146:H146" si="90">D44*1.05</f>
@@ -34649,7 +34640,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C147" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D147" s="136">
         <f t="shared" ref="D147:H147" si="91">D45*1.05</f>
@@ -34680,7 +34671,7 @@
         <v>71</v>
       </c>
       <c r="C148" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D148" s="136">
         <f t="shared" ref="D148:H148" si="92">D46*1.05</f>
@@ -34705,7 +34696,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C149" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D149" s="136">
         <f t="shared" ref="D149:H149" si="93">D47*1.05</f>
@@ -34730,13 +34721,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B150" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C150" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D150" s="136">
         <f t="shared" ref="D150:H150" si="94">D48*1.05</f>
@@ -34761,7 +34752,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C151" s="52" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D151" s="136">
         <f t="shared" ref="D151:H151" si="95">D49*1.05</f>
@@ -34819,7 +34810,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
@@ -34844,7 +34835,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -34862,7 +34853,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -34886,7 +34877,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -34905,7 +34896,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -34929,7 +34920,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -34948,7 +34939,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D7" s="136">
         <v>0.6</v>
@@ -34966,7 +34957,7 @@
     </row>
     <row r="9" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="140" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -34974,7 +34965,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="40" t="s">
@@ -34998,7 +34989,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D11" s="136">
         <f>D2*0.9</f>
@@ -35019,7 +35010,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D12" s="136">
         <f t="shared" ref="D12:G12" si="1">D3*0.9</f>
@@ -35046,7 +35037,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D13" s="136">
         <f t="shared" ref="D13:G13" si="2">D4*0.9</f>
@@ -35068,7 +35059,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="C14" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D14" s="136">
         <f t="shared" ref="D14:G14" si="3">D5*0.9</f>
@@ -35095,7 +35086,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D15" s="136">
         <f t="shared" ref="D15:G15" si="4">D6*0.9</f>
@@ -35117,7 +35108,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="C16" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D16" s="136">
         <f t="shared" ref="D16:G16" si="5">D7*0.9</f>
@@ -35138,7 +35129,7 @@
     </row>
     <row r="18" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="140" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -35146,7 +35137,7 @@
         <v>69</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="40" t="s">
@@ -35170,7 +35161,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D20" s="136">
         <f>D2*1.05</f>
@@ -35191,7 +35182,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D21" s="136">
         <f t="shared" ref="D21:G21" si="7">D3*1.05</f>
@@ -35218,7 +35209,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D22" s="136">
         <f t="shared" ref="D22:G22" si="8">D4*1.05</f>
@@ -35240,7 +35231,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="C23" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D23" s="136">
         <f t="shared" ref="D23:G23" si="9">D5*1.05</f>
@@ -35267,7 +35258,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D24" s="136">
         <f t="shared" ref="D24:G24" si="10">D6*1.05</f>
@@ -35289,7 +35280,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="C25" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D25" s="136">
         <f t="shared" ref="D25:G25" si="11">D7*1.05</f>
@@ -35348,10 +35339,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -35427,7 +35418,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -35450,7 +35441,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -35621,7 +35612,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -35656,7 +35647,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>32</v>
@@ -35741,7 +35732,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -35763,8 +35754,8 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35875,7 +35866,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>119</v>
+        <v>336</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -35914,7 +35905,7 @@
         <v>114</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>120</v>
+        <v>334</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -35939,7 +35930,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>121</v>
+        <v>335</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -35964,7 +35955,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -35984,7 +35975,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -36062,7 +36053,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -36176,7 +36167,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UgItZ1fUYYw4jxcRhHXwNHcUu0vhqIwiw+M/NqOF+Kwcup1Gz7SX/l9bwOv86KrlD68qT5UZTPKIb6eti+eUeQ==" saltValue="m4hom2mHEDeB1snGKNG4rA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36229,7 +36220,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -36249,7 +36240,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -36269,7 +36260,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -36289,7 +36280,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -36338,10 +36329,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -36373,10 +36364,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -36393,10 +36384,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -36413,10 +36404,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -36444,7 +36435,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -36458,10 +36449,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -36475,7 +36466,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -36492,7 +36483,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -36506,7 +36497,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -36541,15 +36532,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -36557,7 +36548,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -36565,7 +36556,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B4" s="147">
         <v>50</v>
@@ -36573,7 +36564,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="146" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -36581,7 +36572,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="146" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -36589,7 +36580,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="146" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
@@ -36621,24 +36612,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>32</v>
@@ -36709,7 +36700,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -36717,7 +36708,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -36782,24 +36773,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -36813,7 +36804,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -36827,7 +36818,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -36841,7 +36832,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -36855,7 +36846,7 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -36865,7 +36856,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
@@ -36899,16 +36890,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B1" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>181</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -36919,19 +36910,19 @@
         <v>67</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D3" s="80"/>
     </row>

--- a/inputs/en/template_input.xlsx
+++ b/inputs/en/template_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7759A39-8B41-410D-9485-986EB5F1B169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44EF1B4-239B-4D50-A696-0E3C8BCD85F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="9" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1620,11 +1620,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1938,7 +1938,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2656,7 +2656,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2692,8 +2692,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2703,7 +2703,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2713,16 +2713,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2755,7 +2755,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2770,7 +2770,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2800,7 +2800,7 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2819,28 +2819,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2943,7 +2943,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="726" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2973,7 +2973,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -5172,14 +5172,14 @@
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5190,14 +5190,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>188</v>
@@ -5206,7 +5206,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>187</v>
@@ -5215,7 +5215,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -5284,7 +5284,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>124</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>130</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5650,23 +5650,23 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="35"/>
+    <col min="7" max="7" width="22.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -5707,10 +5707,10 @@
         <v>196</v>
       </c>
       <c r="F2" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5730,10 +5730,10 @@
         <v>196</v>
       </c>
       <c r="F3" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5753,10 +5753,10 @@
         <v>196</v>
       </c>
       <c r="F4" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5776,10 +5776,10 @@
         <v>196</v>
       </c>
       <c r="F5" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5799,10 +5799,10 @@
         <v>196</v>
       </c>
       <c r="F6" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5822,10 +5822,10 @@
         <v>196</v>
       </c>
       <c r="F7" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,10 +5845,10 @@
         <v>196</v>
       </c>
       <c r="F8" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5868,10 +5868,10 @@
         <v>196</v>
       </c>
       <c r="F9" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5891,10 +5891,10 @@
         <v>196</v>
       </c>
       <c r="F10" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5914,10 +5914,10 @@
         <v>196</v>
       </c>
       <c r="F11" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5937,10 +5937,10 @@
         <v>196</v>
       </c>
       <c r="F12" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5960,10 +5960,10 @@
         <v>196</v>
       </c>
       <c r="F13" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5983,10 +5983,10 @@
         <v>196</v>
       </c>
       <c r="F14" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6006,10 +6006,10 @@
         <v>196</v>
       </c>
       <c r="F15" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6026,13 +6026,13 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6052,10 +6052,10 @@
         <v>196</v>
       </c>
       <c r="F17" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,13 +6072,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6098,10 +6098,10 @@
         <v>196</v>
       </c>
       <c r="F19" s="81">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G19" s="81">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6121,10 +6121,10 @@
         <v>196</v>
       </c>
       <c r="F20" s="81">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G20" s="81">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,10 +6144,10 @@
         <v>196</v>
       </c>
       <c r="F21" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6167,10 +6167,10 @@
         <v>196</v>
       </c>
       <c r="F22" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6190,10 +6190,10 @@
         <v>196</v>
       </c>
       <c r="F23" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6213,10 +6213,10 @@
         <v>196</v>
       </c>
       <c r="F24" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6236,10 +6236,10 @@
         <v>196</v>
       </c>
       <c r="F25" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6259,10 +6259,10 @@
         <v>196</v>
       </c>
       <c r="F26" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6282,10 +6282,10 @@
         <v>196</v>
       </c>
       <c r="F27" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6305,10 +6305,10 @@
         <v>196</v>
       </c>
       <c r="F28" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6328,10 +6328,10 @@
         <v>196</v>
       </c>
       <c r="F29" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6351,10 +6351,10 @@
         <v>196</v>
       </c>
       <c r="F30" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G30" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6374,10 +6374,10 @@
         <v>196</v>
       </c>
       <c r="F31" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6397,10 +6397,10 @@
         <v>196</v>
       </c>
       <c r="F32" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6420,10 +6420,10 @@
         <v>196</v>
       </c>
       <c r="F33" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6443,10 +6443,10 @@
         <v>196</v>
       </c>
       <c r="F34" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6466,10 +6466,10 @@
         <v>196</v>
       </c>
       <c r="F35" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6489,10 +6489,10 @@
         <v>196</v>
       </c>
       <c r="F36" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6512,10 +6512,10 @@
         <v>196</v>
       </c>
       <c r="F37" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6535,10 +6535,10 @@
         <v>196</v>
       </c>
       <c r="F38" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6558,10 +6558,10 @@
         <v>196</v>
       </c>
       <c r="F39" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="81">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6601,15 +6601,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>182</v>
       </c>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>202</v>
       </c>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>132</v>
       </c>
@@ -6656,77 +6656,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -6750,85 +6750,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6848,7 +6848,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6962,19 +6962,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -7582,7 +7582,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>182</v>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>202</v>
@@ -7963,7 +7963,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
         <v>37</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -8722,7 +8722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -8760,16 +8760,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>158</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>153</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>152</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>151</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>150</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>149</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>148</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>147</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>146</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>145</v>
       </c>
@@ -8969,20 +8969,20 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
         <v>144</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
         <v>168</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52" t="s">
         <v>193</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="52" t="s">
         <v>194</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
         <v>190</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>131</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>132</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
         <v>337</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
         <v>67</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
         <v>28</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
         <v>85</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52" t="s">
         <v>60</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="52"/>
       <c r="C17" s="129"/>
       <c r="D17" s="129"/>
@@ -9708,7 +9708,7 @@
       <c r="N17" s="129"/>
       <c r="O17" s="129"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>32</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
       <c r="B19" s="52" t="s">
         <v>86</v>
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="90" t="s">
         <v>182</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="90" t="s">
         <v>202</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="91" t="s">
         <v>57</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="52" t="s">
         <v>88</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="52" t="s">
         <v>87</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="52" t="s">
         <v>59</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="52"/>
       <c r="C26" s="129"/>
       <c r="D26" s="129"/>
@@ -10080,7 +10080,7 @@
       <c r="N26" s="129"/>
       <c r="O26" s="129"/>
     </row>
-    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>37</v>
       </c>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="P27" s="92"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="59" t="s">
         <v>183</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56"/>
       <c r="B29" s="59" t="s">
         <v>201</v>
@@ -10217,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="59" t="s">
         <v>184</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="59" t="s">
         <v>185</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="52"/>
       <c r="C32" s="130"/>
       <c r="D32" s="130"/>
@@ -10321,7 +10321,7 @@
       <c r="N32" s="129"/>
       <c r="O32" s="129"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
         <v>35</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="52" t="s">
         <v>64</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="52" t="s">
         <v>62</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>47</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="52" t="s">
         <v>34</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93"/>
       <c r="B38" s="52" t="s">
         <v>83</v>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="52" t="s">
         <v>82</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="52" t="s">
         <v>81</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="52" t="s">
         <v>79</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="52" t="s">
         <v>80</v>
       </c>
@@ -10782,22 +10782,22 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -10849,7 +10849,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -10866,7 +10866,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -10883,7 +10883,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>144</v>
       </c>
@@ -10900,7 +10900,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>192</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -10938,7 +10938,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -10957,7 +10957,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>183</v>
       </c>
@@ -10993,7 +10993,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>201</v>
       </c>
@@ -11010,7 +11010,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>184</v>
       </c>
@@ -11027,7 +11027,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>185</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
         <v>182</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
         <v>202</v>
       </c>
@@ -11082,7 +11082,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>168</v>
       </c>
@@ -11139,7 +11139,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>193</v>
       </c>
@@ -11158,7 +11158,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>194</v>
       </c>
@@ -11177,7 +11177,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>190</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>131</v>
       </c>
@@ -11217,7 +11217,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -11236,7 +11236,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -11253,7 +11253,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -11270,7 +11270,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>132</v>
       </c>
@@ -11287,7 +11287,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -11306,7 +11306,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -11323,7 +11323,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -11342,7 +11342,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>337</v>
       </c>
@@ -11363,7 +11363,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>67</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>28</v>
       </c>
@@ -11399,7 +11399,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>83</v>
       </c>
@@ -11418,7 +11418,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>82</v>
       </c>
@@ -11437,7 +11437,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>81</v>
       </c>
@@ -11456,7 +11456,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>79</v>
       </c>
@@ -11475,7 +11475,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>80</v>
       </c>
@@ -11494,7 +11494,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>85</v>
       </c>
@@ -11511,7 +11511,7 @@
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
-    <row r="39" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
         <v>60</v>
       </c>
@@ -11549,22 +11549,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>211</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11657,7 +11657,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11686,7 +11686,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11715,7 +11715,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11744,7 +11744,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11765,7 +11765,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11786,7 +11786,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11807,7 +11807,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11828,7 +11828,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11923,14 +11923,14 @@
       <selection activeCell="K3" sqref="K3:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -13018,15 +13018,15 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>212</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>213</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
         <v>170</v>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
         <v>169</v>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="148" t="s">
         <v>1</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
         <v>170</v>
@@ -13167,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
         <v>169</v>
@@ -13188,7 +13188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="148" t="s">
         <v>2</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
         <v>170</v>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
         <v>169</v>
@@ -13253,7 +13253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="148" t="s">
         <v>3</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
         <v>170</v>
@@ -13297,7 +13297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
         <v>169</v>
@@ -13318,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="148" t="s">
         <v>4</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
         <v>170</v>
@@ -13362,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
         <v>169</v>
@@ -13383,7 +13383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="96" t="s">
         <v>167</v>
       </c>
@@ -13406,14 +13406,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>214</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
         <v>170</v>
@@ -13460,7 +13460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
         <v>169</v>
@@ -13481,7 +13481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="148" t="s">
         <v>1</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
         <v>170</v>
@@ -13525,7 +13525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
         <v>169</v>
@@ -13546,7 +13546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="148" t="s">
         <v>2</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
         <v>170</v>
@@ -13590,7 +13590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
         <v>169</v>
@@ -13611,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="148" t="s">
         <v>3</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
         <v>170</v>
@@ -13655,7 +13655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
         <v>169</v>
@@ -13676,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="148" t="s">
         <v>4</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
         <v>170</v>
@@ -13720,7 +13720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
         <v>169</v>
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="96" t="s">
         <v>167</v>
       </c>
@@ -13764,14 +13764,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="97" t="s">
         <v>215</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
         <v>170</v>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
         <v>169</v>
@@ -13839,7 +13839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="148" t="s">
         <v>1</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
         <v>170</v>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
         <v>169</v>
@@ -13904,7 +13904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="148" t="s">
         <v>2</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
         <v>170</v>
@@ -13948,7 +13948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
         <v>169</v>
@@ -13969,7 +13969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="148" t="s">
         <v>3</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
         <v>170</v>
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
         <v>169</v>
@@ -14034,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="148" t="s">
         <v>4</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
         <v>170</v>
@@ -14078,7 +14078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
         <v>169</v>
@@ -14099,7 +14099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="98" t="s">
         <v>167</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="140" t="s">
         <v>267</v>
       </c>
@@ -14134,7 +14134,7 @@
       <c r="G53" s="140"/>
       <c r="H53" s="140"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
         <v>212</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
         <v>311</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
         <v>170</v>
@@ -14217,7 +14217,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
         <v>169</v>
@@ -14243,7 +14243,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="148" t="s">
         <v>1</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
         <v>170</v>
@@ -14297,7 +14297,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
         <v>169</v>
@@ -14323,7 +14323,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="148" t="s">
         <v>2</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
         <v>170</v>
@@ -14377,7 +14377,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
         <v>169</v>
@@ -14403,7 +14403,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="148" t="s">
         <v>3</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
         <v>170</v>
@@ -14457,7 +14457,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
         <v>169</v>
@@ -14483,7 +14483,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="148" t="s">
         <v>4</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
         <v>170</v>
@@ -14537,7 +14537,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
         <v>169</v>
@@ -14563,7 +14563,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="138" t="s">
         <v>167</v>
       </c>
@@ -14591,14 +14591,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D71" s="132"/>
       <c r="E71" s="132"/>
       <c r="F71" s="132"/>
       <c r="G71" s="132"/>
       <c r="H71" s="132"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
         <v>312</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
         <v>170</v>
@@ -14655,7 +14655,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
         <v>169</v>
@@ -14681,7 +14681,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="148" t="s">
         <v>1</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
         <v>170</v>
@@ -14735,7 +14735,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
         <v>169</v>
@@ -14761,7 +14761,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="148" t="s">
         <v>2</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
         <v>170</v>
@@ -14815,7 +14815,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
         <v>169</v>
@@ -14841,7 +14841,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="148" t="s">
         <v>3</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
         <v>170</v>
@@ -14895,7 +14895,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
         <v>169</v>
@@ -14921,7 +14921,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" s="148" t="s">
         <v>4</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
         <v>170</v>
@@ -14975,7 +14975,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
         <v>169</v>
@@ -15001,7 +15001,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="138" t="s">
         <v>167</v>
       </c>
@@ -15029,14 +15029,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D88" s="132"/>
       <c r="E88" s="132"/>
       <c r="F88" s="132"/>
       <c r="G88" s="132"/>
       <c r="H88" s="132"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="97" t="s">
         <v>313</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
         <v>170</v>
@@ -15093,7 +15093,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
         <v>169</v>
@@ -15119,7 +15119,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B92" s="148" t="s">
         <v>1</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
         <v>170</v>
@@ -15173,7 +15173,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
         <v>169</v>
@@ -15199,7 +15199,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" s="148" t="s">
         <v>2</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
         <v>170</v>
@@ -15253,7 +15253,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
         <v>169</v>
@@ -15279,7 +15279,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B98" s="148" t="s">
         <v>3</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="98" t="s">
         <v>167</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="140" t="s">
         <v>268</v>
       </c>
@@ -15479,7 +15479,7 @@
       <c r="G106" s="140"/>
       <c r="H106" s="140"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
         <v>212</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="40" t="s">
         <v>314</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="138" t="s">
         <v>167</v>
       </c>
@@ -15943,7 +15943,7 @@
       <c r="G124" s="132"/>
       <c r="H124" s="132"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="40" t="s">
         <v>315</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="138" t="s">
         <v>167</v>
       </c>
@@ -16381,7 +16381,7 @@
       <c r="G141" s="132"/>
       <c r="H141" s="132"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="97" t="s">
         <v>316</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="98" t="s">
         <v>167</v>
       </c>
@@ -16815,12 +16815,36 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16830,36 +16854,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16880,22 +16880,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>26</v>
@@ -16910,7 +16910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>217</v>
       </c>
@@ -16994,7 +16994,7 @@
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>218</v>
       </c>
@@ -17019,7 +17019,7 @@
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
         <v>219</v>
       </c>
@@ -17029,7 +17029,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>220</v>
       </c>
@@ -17093,7 +17093,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -17102,7 +17102,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>224</v>
       </c>
@@ -17256,7 +17256,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="113"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="140" t="s">
         <v>267</v>
       </c>
@@ -17266,12 +17266,12 @@
       <c r="E27" s="143"/>
       <c r="F27" s="143"/>
     </row>
-    <row r="28" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="99" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
         <v>26</v>
@@ -17286,7 +17286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>297</v>
       </c>
@@ -17386,7 +17386,7 @@
       <c r="E35" s="95"/>
       <c r="F35" s="95"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>304</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="99" t="s">
         <v>219</v>
       </c>
@@ -17417,7 +17417,7 @@
       <c r="E38" s="111"/>
       <c r="F38" s="111"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>298</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="113"/>
       <c r="C43" s="114"/>
@@ -17497,7 +17497,7 @@
       <c r="E43" s="95"/>
       <c r="F43" s="95"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>302</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="140" t="s">
         <v>268</v>
       </c>
@@ -17685,12 +17685,12 @@
       <c r="E54" s="143"/>
       <c r="F54" s="143"/>
     </row>
-    <row r="55" spans="1:6" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="99" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
         <v>26</v>
@@ -17705,7 +17705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
         <v>303</v>
       </c>
@@ -17805,7 +17805,7 @@
       <c r="E62" s="95"/>
       <c r="F62" s="95"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>305</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="99" t="s">
         <v>219</v>
       </c>
@@ -17836,7 +17836,7 @@
       <c r="E65" s="111"/>
       <c r="F65" s="111"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
         <v>306</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="113"/>
       <c r="C70" s="114"/>
@@ -17916,7 +17916,7 @@
       <c r="E70" s="95"/>
       <c r="F70" s="95"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
         <v>310</v>
       </c>
@@ -18115,23 +18115,23 @@
       <selection activeCell="I328" sqref="I328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
         <v>206</v>
       </c>
@@ -18165,7 +18165,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -18598,7 +18598,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>231</v>
       </c>
@@ -18856,12 +18856,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="99" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="121" t="s">
         <v>233</v>
       </c>
@@ -18895,7 +18895,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -19590,12 +19590,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="99" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="121" t="s">
         <v>70</v>
       </c>
@@ -19623,7 +19623,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -19769,12 +19769,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="99" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="121" t="s">
         <v>24</v>
       </c>
@@ -19808,7 +19808,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -20844,12 +20844,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="99" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="121" t="s">
         <v>71</v>
       </c>
@@ -20883,7 +20883,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -20997,13 +20997,13 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="110" spans="1:16" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="140" t="s">
         <v>267</v>
       </c>
       <c r="H110" s="140"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="99" t="s">
         <v>225</v>
       </c>
@@ -21015,7 +21015,7 @@
       <c r="G111" s="100"/>
       <c r="H111" s="100"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="118" t="s">
         <v>206</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
         <v>71</v>
@@ -21660,7 +21660,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
         <v>232</v>
       </c>
@@ -21672,7 +21672,7 @@
       <c r="G138" s="100"/>
       <c r="H138" s="100"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="121" t="s">
         <v>233</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
         <v>71</v>
@@ -22321,7 +22321,7 @@
       <c r="C164" s="43"/>
       <c r="D164" s="43"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="99" t="s">
         <v>235</v>
       </c>
@@ -22333,7 +22333,7 @@
       <c r="G165" s="100"/>
       <c r="H165" s="100"/>
     </row>
-    <row r="166" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="121" t="s">
         <v>70</v>
       </c>
@@ -22357,7 +22357,7 @@
       </c>
       <c r="H166" s="120"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
         <v>38</v>
@@ -22503,7 +22503,7 @@
       <c r="C173" s="43"/>
       <c r="D173" s="43"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="99" t="s">
         <v>239</v>
       </c>
@@ -22515,7 +22515,7 @@
       <c r="G174" s="100"/>
       <c r="H174" s="100"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="121" t="s">
         <v>24</v>
       </c>
@@ -22541,7 +22541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
         <v>73</v>
@@ -23433,7 +23433,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="99" t="s">
         <v>241</v>
       </c>
@@ -23445,7 +23445,7 @@
       <c r="G213" s="100"/>
       <c r="H213" s="100"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="121" t="s">
         <v>71</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
@@ -23569,13 +23569,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="140" t="s">
         <v>268</v>
       </c>
       <c r="H220" s="140"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="99" t="s">
         <v>225</v>
       </c>
@@ -23588,7 +23588,7 @@
       <c r="H221" s="100"/>
       <c r="I221" s="100"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="118" t="s">
         <v>206</v>
       </c>
@@ -23615,7 +23615,7 @@
       </c>
       <c r="I222" s="120"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
         <v>71</v>
@@ -24258,7 +24258,7 @@
       </c>
       <c r="I246" s="118"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="99" t="s">
         <v>232</v>
       </c>
@@ -24271,7 +24271,7 @@
       <c r="H248" s="100"/>
       <c r="I248" s="100"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="121" t="s">
         <v>233</v>
       </c>
@@ -24298,7 +24298,7 @@
       </c>
       <c r="I249" s="120"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
         <v>71</v>
@@ -24945,7 +24945,7 @@
       <c r="C274" s="43"/>
       <c r="D274" s="43"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="99" t="s">
         <v>235</v>
       </c>
@@ -24958,7 +24958,7 @@
       <c r="H275" s="100"/>
       <c r="I275" s="100"/>
     </row>
-    <row r="276" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="121" t="s">
         <v>70</v>
       </c>
@@ -24983,7 +24983,7 @@
       <c r="H276" s="120"/>
       <c r="I276" s="36"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
         <v>38</v>
@@ -25129,7 +25129,7 @@
       <c r="C283" s="43"/>
       <c r="D283" s="43"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="99" t="s">
         <v>239</v>
       </c>
@@ -25142,7 +25142,7 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="121" t="s">
         <v>24</v>
       </c>
@@ -25169,7 +25169,7 @@
       </c>
       <c r="I285" s="120"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
         <v>73</v>
@@ -26097,7 +26097,7 @@
       </c>
       <c r="I321" s="118"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="99" t="s">
         <v>241</v>
       </c>
@@ -26110,7 +26110,7 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="121" t="s">
         <v>71</v>
       </c>
@@ -26137,7 +26137,7 @@
       </c>
       <c r="I324" s="120"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
@@ -26260,24 +26260,24 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="125" t="s">
         <v>25</v>
       </c>
@@ -26318,7 +26318,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>245</v>
@@ -26339,7 +26339,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
         <v>246</v>
       </c>
@@ -26432,12 +26432,12 @@
       <c r="F10" s="117"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="104"/>
       <c r="B12" s="113" t="s">
         <v>190</v>
@@ -26458,16 +26458,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="104"/>
       <c r="B13" s="113"/>
     </row>
-    <row r="14" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="125" t="s">
         <v>233</v>
       </c>
@@ -26490,7 +26490,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="117" t="s">
         <v>250</v>
@@ -26511,7 +26511,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="125" t="s">
         <v>70</v>
       </c>
@@ -26535,12 +26535,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="56" t="s">
         <v>49</v>
       </c>
@@ -26571,12 +26571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="140" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
         <v>242</v>
       </c>
@@ -26587,7 +26587,7 @@
       <c r="F24" s="100"/>
       <c r="G24" s="100"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="125" t="s">
         <v>25</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="117" t="s">
         <v>278</v>
@@ -26658,7 +26658,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="104" t="s">
         <v>319</v>
       </c>
@@ -26771,7 +26771,7 @@
       <c r="F33" s="117"/>
       <c r="G33" s="117"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="99" t="s">
         <v>320</v>
       </c>
@@ -26782,7 +26782,7 @@
       <c r="F34" s="100"/>
       <c r="G34" s="100"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="104"/>
       <c r="B35" s="113" t="s">
         <v>282</v>
@@ -26805,11 +26805,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="104"/>
       <c r="B36" s="113"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="99" t="s">
         <v>248</v>
       </c>
@@ -26820,7 +26820,7 @@
       <c r="F37" s="100"/>
       <c r="G37" s="100"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="125" t="s">
         <v>233</v>
       </c>
@@ -26848,7 +26848,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="117" t="s">
         <v>284</v>
@@ -26874,7 +26874,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="125" t="s">
         <v>70</v>
       </c>
@@ -26902,7 +26902,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="99" t="s">
         <v>321</v>
       </c>
@@ -26913,7 +26913,7 @@
       <c r="F42" s="100"/>
       <c r="G42" s="100"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
       <c r="C43" s="56" t="s">
@@ -26951,12 +26951,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="140" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="99" t="s">
         <v>242</v>
       </c>
@@ -26967,7 +26967,7 @@
       <c r="F47" s="100"/>
       <c r="G47" s="100"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="125" t="s">
         <v>25</v>
       </c>
@@ -27012,7 +27012,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="117" t="s">
         <v>288</v>
@@ -27038,7 +27038,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="104" t="s">
         <v>324</v>
       </c>
@@ -27151,7 +27151,7 @@
       <c r="F56" s="117"/>
       <c r="G56" s="117"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="99" t="s">
         <v>322</v>
       </c>
@@ -27162,7 +27162,7 @@
       <c r="F57" s="100"/>
       <c r="G57" s="100"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="104"/>
       <c r="B58" s="113" t="s">
         <v>292</v>
@@ -27185,11 +27185,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="104"/>
       <c r="B59" s="113"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
         <v>248</v>
       </c>
@@ -27200,7 +27200,7 @@
       <c r="F60" s="100"/>
       <c r="G60" s="100"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="125" t="s">
         <v>233</v>
       </c>
@@ -27228,7 +27228,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="117" t="s">
         <v>294</v>
@@ -27254,7 +27254,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="125" t="s">
         <v>70</v>
       </c>
@@ -27282,7 +27282,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="99" t="s">
         <v>323</v>
       </c>
@@ -27293,7 +27293,7 @@
       <c r="F65" s="100"/>
       <c r="G65" s="100"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
       <c r="C66" s="56" t="s">
@@ -27353,16 +27353,16 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -27608,12 +27608,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="140" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="119" t="s">
         <v>69</v>
       </c>
@@ -27907,12 +27907,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="140" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="119" t="s">
         <v>69</v>
       </c>
@@ -28223,19 +28223,19 @@
   </sheetPr>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -28278,7 +28278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>255</v>
       </c>
@@ -28723,7 +28723,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>132</v>
       </c>
@@ -28855,7 +28855,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>256</v>
       </c>
@@ -29037,12 +29037,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="140" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
@@ -29085,7 +29085,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>271</v>
       </c>
@@ -29831,7 +29831,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>272</v>
       </c>
@@ -30065,12 +30065,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="140" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
@@ -30113,7 +30113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
         <v>273</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>274</v>
       </c>
@@ -31114,15 +31114,15 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -31141,12 +31141,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -31166,7 +31166,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>258</v>
       </c>
@@ -31177,7 +31177,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="90" t="s">
         <v>178</v>
       </c>
@@ -31197,12 +31197,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="140" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
@@ -31221,12 +31221,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="59" t="s">
         <v>67</v>
       </c>
@@ -31251,7 +31251,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>275</v>
       </c>
@@ -31262,7 +31262,7 @@
       <c r="F11" s="127"/>
       <c r="G11" s="127"/>
     </row>
-    <row r="12" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="90" t="s">
         <v>178</v>
       </c>
@@ -31287,12 +31287,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="140" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
@@ -31311,12 +31311,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="59" t="s">
         <v>67</v>
       </c>
@@ -31341,7 +31341,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>277</v>
       </c>
@@ -31352,7 +31352,7 @@
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>178</v>
       </c>
@@ -31398,20 +31398,20 @@
       <selection activeCell="A111" sqref="A111:XFD111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -31437,7 +31437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -31463,7 +31463,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>262</v>
       </c>
@@ -31483,7 +31483,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>263</v>
       </c>
@@ -31503,7 +31503,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -31529,7 +31529,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>263</v>
       </c>
@@ -31549,7 +31549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -31572,7 +31572,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>263</v>
       </c>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>131</v>
       </c>
@@ -31618,7 +31618,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>263</v>
       </c>
@@ -31638,7 +31638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>263</v>
       </c>
@@ -31681,7 +31681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>337</v>
       </c>
@@ -31707,7 +31707,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>263</v>
       </c>
@@ -31727,7 +31727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -31750,7 +31750,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>263</v>
       </c>
@@ -31770,7 +31770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>61</v>
       </c>
@@ -31796,7 +31796,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>263</v>
       </c>
@@ -31817,7 +31817,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
         <v>65</v>
       </c>
@@ -31841,7 +31841,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>263</v>
       </c>
@@ -31862,7 +31862,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>62</v>
       </c>
@@ -31889,7 +31889,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>262</v>
       </c>
@@ -31910,7 +31910,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>63</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>262</v>
       </c>
@@ -31956,7 +31956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>64</v>
       </c>
@@ -31982,7 +31982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="52" t="s">
         <v>262</v>
       </c>
@@ -32002,7 +32002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>79</v>
       </c>
@@ -32028,7 +32028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>262</v>
       </c>
@@ -32048,7 +32048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="52" t="s">
         <v>263</v>
       </c>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>80</v>
       </c>
@@ -32094,7 +32094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>262</v>
       </c>
@@ -32114,7 +32114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="52" t="s">
         <v>263</v>
       </c>
@@ -32134,7 +32134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>81</v>
       </c>
@@ -32160,7 +32160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>262</v>
       </c>
@@ -32180,7 +32180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="52" t="s">
         <v>263</v>
       </c>
@@ -32200,7 +32200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>82</v>
       </c>
@@ -32226,7 +32226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>262</v>
       </c>
@@ -32246,7 +32246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="52" t="s">
         <v>263</v>
       </c>
@@ -32266,7 +32266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
         <v>83</v>
       </c>
@@ -32292,7 +32292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>262</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="52" t="s">
         <v>263</v>
       </c>
@@ -32332,7 +32332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
         <v>60</v>
       </c>
@@ -32358,7 +32358,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>262</v>
       </c>
@@ -32378,7 +32378,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="52" t="s">
         <v>263</v>
       </c>
@@ -32398,7 +32398,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="52" t="s">
         <v>16</v>
       </c>
@@ -32421,7 +32421,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="52" t="s">
         <v>262</v>
       </c>
@@ -32441,7 +32441,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>263</v>
       </c>
@@ -32461,7 +32461,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>84</v>
       </c>
@@ -32487,7 +32487,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>262</v>
       </c>
@@ -32507,7 +32507,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>85</v>
       </c>
@@ -32533,7 +32533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="52" t="s">
         <v>262</v>
       </c>
@@ -32553,7 +32553,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
         <v>190</v>
       </c>
@@ -32579,7 +32579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="52" t="s">
         <v>262</v>
       </c>
@@ -32599,14 +32599,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="144" t="s">
         <v>269</v>
       </c>
       <c r="B55" s="145"/>
       <c r="C55" s="145"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>69</v>
       </c>
@@ -32632,7 +32632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
         <v>28</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="52" t="s">
         <v>262</v>
       </c>
@@ -32688,7 +32688,7 @@
         <v>0.47820895522388057</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="52" t="s">
         <v>263</v>
       </c>
@@ -32713,7 +32713,7 @@
         <v>0.34656716417910466</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
         <v>58</v>
       </c>
@@ -32744,7 +32744,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="52" t="s">
         <v>263</v>
       </c>
@@ -32769,7 +32769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
         <v>65</v>
       </c>
@@ -32797,7 +32797,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="52" t="s">
         <v>263</v>
       </c>
@@ -32822,7 +32822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="52" t="s">
         <v>131</v>
       </c>
@@ -32853,7 +32853,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="52" t="s">
         <v>263</v>
       </c>
@@ -32878,7 +32878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="52" t="s">
         <v>65</v>
       </c>
@@ -32906,7 +32906,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="52" t="s">
         <v>263</v>
       </c>
@@ -32931,7 +32931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
         <v>337</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="52" t="s">
         <v>263</v>
       </c>
@@ -32987,7 +32987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="52" t="s">
         <v>65</v>
       </c>
@@ -33015,7 +33015,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="52" t="s">
         <v>263</v>
       </c>
@@ -33040,7 +33040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
         <v>61</v>
       </c>
@@ -33071,7 +33071,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="52" t="s">
         <v>263</v>
       </c>
@@ -33096,7 +33096,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="52" t="s">
         <v>65</v>
       </c>
@@ -33124,7 +33124,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="52" t="s">
         <v>263</v>
       </c>
@@ -33149,7 +33149,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="52" t="s">
         <v>62</v>
       </c>
@@ -33180,7 +33180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="52" t="s">
         <v>262</v>
       </c>
@@ -33205,7 +33205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="52" t="s">
         <v>63</v>
       </c>
@@ -33236,7 +33236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="52" t="s">
         <v>262</v>
       </c>
@@ -33261,7 +33261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="52" t="s">
         <v>64</v>
       </c>
@@ -33292,7 +33292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C81" s="52" t="s">
         <v>262</v>
       </c>
@@ -33317,7 +33317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="52" t="s">
         <v>79</v>
       </c>
@@ -33348,7 +33348,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C83" s="52" t="s">
         <v>262</v>
       </c>
@@ -33373,7 +33373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="52" t="s">
         <v>263</v>
       </c>
@@ -33398,7 +33398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
         <v>80</v>
       </c>
@@ -33429,7 +33429,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="52" t="s">
         <v>262</v>
       </c>
@@ -33454,7 +33454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="52" t="s">
         <v>263</v>
       </c>
@@ -33479,7 +33479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
         <v>81</v>
       </c>
@@ -33510,7 +33510,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="52" t="s">
         <v>262</v>
       </c>
@@ -33535,7 +33535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C90" s="52" t="s">
         <v>263</v>
       </c>
@@ -33560,7 +33560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
         <v>82</v>
       </c>
@@ -33591,7 +33591,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="52" t="s">
         <v>262</v>
       </c>
@@ -33616,7 +33616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C93" s="52" t="s">
         <v>263</v>
       </c>
@@ -33641,7 +33641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="52" t="s">
         <v>83</v>
       </c>
@@ -33672,7 +33672,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C95" s="52" t="s">
         <v>262</v>
       </c>
@@ -33697,7 +33697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="52" t="s">
         <v>263</v>
       </c>
@@ -33722,7 +33722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="52" t="s">
         <v>60</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="52" t="s">
         <v>262</v>
       </c>
@@ -33778,7 +33778,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="52" t="s">
         <v>263</v>
       </c>
@@ -33803,7 +33803,7 @@
         <v>0.58500000000000008</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100" s="52" t="s">
         <v>16</v>
       </c>
@@ -33831,7 +33831,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="52" t="s">
         <v>262</v>
       </c>
@@ -33856,7 +33856,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="52" t="s">
         <v>263</v>
       </c>
@@ -33881,7 +33881,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="52" t="s">
         <v>84</v>
       </c>
@@ -33912,7 +33912,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="52" t="s">
         <v>262</v>
       </c>
@@ -33937,7 +33937,7 @@
         <v>0.83700000000000008</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="52" t="s">
         <v>85</v>
       </c>
@@ -33968,7 +33968,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="52" t="s">
         <v>262</v>
       </c>
@@ -33993,7 +33993,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="52" t="s">
         <v>190</v>
       </c>
@@ -34024,7 +34024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="52" t="s">
         <v>262</v>
       </c>
@@ -34049,14 +34049,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="141" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="144" t="s">
         <v>270</v>
       </c>
       <c r="B110" s="145"/>
       <c r="C110" s="145"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="40" t="s">
         <v>69</v>
       </c>
@@ -34082,7 +34082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="52" t="s">
         <v>28</v>
       </c>
@@ -34113,7 +34113,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C113" s="52" t="s">
         <v>262</v>
       </c>
@@ -34138,7 +34138,7 @@
         <v>0.55791044776119403</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C114" s="52" t="s">
         <v>263</v>
       </c>
@@ -34163,7 +34163,7 @@
         <v>0.40432835820895546</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="52" t="s">
         <v>58</v>
       </c>
@@ -34194,7 +34194,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="52" t="s">
         <v>263</v>
       </c>
@@ -34219,7 +34219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="52" t="s">
         <v>65</v>
       </c>
@@ -34247,7 +34247,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="52" t="s">
         <v>263</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="52" t="s">
         <v>131</v>
       </c>
@@ -34303,7 +34303,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C120" s="52" t="s">
         <v>263</v>
       </c>
@@ -34328,7 +34328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
         <v>65</v>
       </c>
@@ -34356,7 +34356,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="52" t="s">
         <v>263</v>
       </c>
@@ -34381,7 +34381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
         <v>337</v>
       </c>
@@ -34412,7 +34412,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="52" t="s">
         <v>263</v>
       </c>
@@ -34437,7 +34437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="52" t="s">
         <v>65</v>
       </c>
@@ -34465,7 +34465,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="52" t="s">
         <v>263</v>
       </c>
@@ -34490,7 +34490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="52" t="s">
         <v>61</v>
       </c>
@@ -34521,7 +34521,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="52" t="s">
         <v>263</v>
       </c>
@@ -34546,7 +34546,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="52" t="s">
         <v>65</v>
       </c>
@@ -34574,7 +34574,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C130" s="52" t="s">
         <v>263</v>
       </c>
@@ -34599,7 +34599,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="52" t="s">
         <v>62</v>
       </c>
@@ -34630,7 +34630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C132" s="52" t="s">
         <v>262</v>
       </c>
@@ -34655,7 +34655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="52" t="s">
         <v>63</v>
       </c>
@@ -34686,7 +34686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="52" t="s">
         <v>262</v>
       </c>
@@ -34711,7 +34711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="52" t="s">
         <v>64</v>
       </c>
@@ -34742,7 +34742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" s="52" t="s">
         <v>262</v>
       </c>
@@ -34767,7 +34767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="52" t="s">
         <v>79</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C138" s="52" t="s">
         <v>262</v>
       </c>
@@ -34823,7 +34823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C139" s="52" t="s">
         <v>263</v>
       </c>
@@ -34848,7 +34848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="52" t="s">
         <v>80</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C141" s="52" t="s">
         <v>262</v>
       </c>
@@ -34904,7 +34904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="52" t="s">
         <v>263</v>
       </c>
@@ -34929,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="52" t="s">
         <v>81</v>
       </c>
@@ -34960,7 +34960,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C144" s="52" t="s">
         <v>262</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C145" s="52" t="s">
         <v>263</v>
       </c>
@@ -35010,7 +35010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="52" t="s">
         <v>82</v>
       </c>
@@ -35041,7 +35041,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C147" s="52" t="s">
         <v>262</v>
       </c>
@@ -35066,7 +35066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C148" s="52" t="s">
         <v>263</v>
       </c>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="52" t="s">
         <v>83</v>
       </c>
@@ -35122,7 +35122,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C150" s="52" t="s">
         <v>262</v>
       </c>
@@ -35147,7 +35147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C151" s="52" t="s">
         <v>263</v>
       </c>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="52" t="s">
         <v>60</v>
       </c>
@@ -35203,7 +35203,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C153" s="52" t="s">
         <v>262</v>
       </c>
@@ -35228,7 +35228,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C154" s="52" t="s">
         <v>263</v>
       </c>
@@ -35253,7 +35253,7 @@
         <v>0.68250000000000011</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="52" t="s">
         <v>16</v>
       </c>
@@ -35281,7 +35281,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C156" s="52" t="s">
         <v>262</v>
       </c>
@@ -35306,7 +35306,7 @@
         <v>0.51449999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C157" s="52" t="s">
         <v>263</v>
       </c>
@@ -35331,7 +35331,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="52" t="s">
         <v>84</v>
       </c>
@@ -35362,7 +35362,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C159" s="52" t="s">
         <v>262</v>
       </c>
@@ -35387,7 +35387,7 @@
         <v>0.97650000000000015</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="52" t="s">
         <v>85</v>
       </c>
@@ -35418,7 +35418,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C161" s="52" t="s">
         <v>262</v>
       </c>
@@ -35443,7 +35443,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="52" t="s">
         <v>190</v>
       </c>
@@ -35474,7 +35474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="52" t="s">
         <v>262</v>
       </c>
@@ -35520,16 +35520,16 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -35551,7 +35551,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -35575,7 +35575,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>262</v>
       </c>
@@ -35593,7 +35593,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -35617,7 +35617,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>262</v>
@@ -35636,7 +35636,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -35660,7 +35660,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>262</v>
@@ -35679,12 +35679,12 @@
       </c>
       <c r="H7" s="128"/>
     </row>
-    <row r="9" spans="1:8" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="140" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="119" t="s">
         <v>69</v>
       </c>
@@ -35705,7 +35705,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>86</v>
       </c>
@@ -35732,7 +35732,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="35" t="s">
         <v>262</v>
       </c>
@@ -35753,7 +35753,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>87</v>
       </c>
@@ -35780,7 +35780,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="C14" s="35" t="s">
         <v>262</v>
@@ -35802,7 +35802,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>88</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="C16" s="35" t="s">
         <v>262</v>
@@ -35851,12 +35851,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="140" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="140" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="119" t="s">
         <v>69</v>
       </c>
@@ -35877,7 +35877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>86</v>
       </c>
@@ -35904,7 +35904,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="35" t="s">
         <v>262</v>
       </c>
@@ -35925,7 +35925,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>87</v>
       </c>
@@ -35952,7 +35952,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="C23" s="35" t="s">
         <v>262</v>
@@ -35974,7 +35974,7 @@
         <v>0.61949999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>88</v>
       </c>
@@ -36001,7 +36001,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="C25" s="35" t="s">
         <v>262</v>
@@ -36043,14 +36043,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -36061,7 +36061,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -36160,7 +36160,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -36366,7 +36366,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -36482,13 +36482,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -36909,13 +36909,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -37045,13 +37045,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -37086,7 +37086,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -37103,10 +37103,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -37123,10 +37123,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -37143,7 +37143,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -37157,7 +37157,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>139</v>
       </c>
@@ -37171,7 +37171,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -37188,7 +37188,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>141</v>
       </c>
@@ -37202,7 +37202,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -37219,7 +37219,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>165</v>
       </c>
@@ -37248,13 +37248,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>326</v>
       </c>
@@ -37262,7 +37262,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>330</v>
       </c>
@@ -37270,7 +37270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>331</v>
       </c>
@@ -37278,7 +37278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>325</v>
       </c>
@@ -37286,7 +37286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="146" t="s">
         <v>329</v>
       </c>
@@ -37294,7 +37294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
         <v>332</v>
       </c>
@@ -37302,7 +37302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
         <v>333</v>
       </c>
@@ -37326,15 +37326,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>173</v>
       </c>
@@ -37351,7 +37351,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>168</v>
       </c>
@@ -37365,7 +37365,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -37379,7 +37379,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -37393,7 +37393,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -37407,7 +37407,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -37421,7 +37421,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>167</v>
@@ -37430,7 +37430,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>193</v>
       </c>
@@ -37446,7 +37446,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -37458,7 +37458,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -37470,7 +37470,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -37482,7 +37482,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -37494,7 +37494,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>167</v>
@@ -37505,7 +37505,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>194</v>
       </c>
@@ -37521,7 +37521,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -37535,7 +37535,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -37549,7 +37549,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -37563,7 +37563,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -37577,7 +37577,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>167</v>
@@ -37604,15 +37604,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>159</v>
       </c>
@@ -37626,7 +37626,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -37638,7 +37638,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>180</v>
       </c>

--- a/inputs/en/template_input.xlsx
+++ b/inputs/en/template_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB8B290-EF16-4630-92CF-D41EE9BBABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50E1CA-722B-4E93-9126-FFA943B20F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -2925,9 +2925,6 @@
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2935,6 +2932,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="725" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5110,7 +5110,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -6535,7 +6535,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -12990,7 +12990,7 @@
       <c r="A2" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="117" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -13013,7 +13013,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="115"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="27" t="s">
         <v>170</v>
       </c>
@@ -13035,7 +13035,7 @@
       <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="115"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="27" t="s">
         <v>169</v>
       </c>
@@ -13057,7 +13057,7 @@
       <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -13081,7 +13081,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="115"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="27" t="s">
         <v>170</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="115"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="27" t="s">
         <v>169</v>
       </c>
@@ -13123,7 +13123,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="117" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -13146,7 +13146,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="115"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="27" t="s">
         <v>170</v>
       </c>
@@ -13167,7 +13167,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="115"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="27" t="s">
         <v>169</v>
       </c>
@@ -13188,7 +13188,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -13211,7 +13211,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="115"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="27" t="s">
         <v>170</v>
       </c>
@@ -13232,7 +13232,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="27" t="s">
         <v>169</v>
       </c>
@@ -13253,7 +13253,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="117" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -13276,7 +13276,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="27" t="s">
         <v>170</v>
       </c>
@@ -13297,7 +13297,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="115"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="27" t="s">
         <v>169</v>
       </c>
@@ -13351,7 +13351,7 @@
       <c r="A19" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="117" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -13374,7 +13374,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="115"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="27" t="s">
         <v>170</v>
       </c>
@@ -13395,7 +13395,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="115"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="27" t="s">
         <v>169</v>
       </c>
@@ -13416,7 +13416,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -13439,7 +13439,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="115"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="27" t="s">
         <v>170</v>
       </c>
@@ -13460,7 +13460,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="115"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="27" t="s">
         <v>169</v>
       </c>
@@ -13481,7 +13481,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="117" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -13504,7 +13504,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="115"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="27" t="s">
         <v>170</v>
       </c>
@@ -13525,7 +13525,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="115"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="27" t="s">
         <v>169</v>
       </c>
@@ -13546,7 +13546,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -13569,7 +13569,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="115"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="27" t="s">
         <v>170</v>
       </c>
@@ -13590,7 +13590,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="115"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="27" t="s">
         <v>169</v>
       </c>
@@ -13611,7 +13611,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="117" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -13634,7 +13634,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="115"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="27" t="s">
         <v>170</v>
       </c>
@@ -13655,7 +13655,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="115"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="27" t="s">
         <v>169</v>
       </c>
@@ -13709,7 +13709,7 @@
       <c r="A36" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="117" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -13732,7 +13732,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="115"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="27" t="s">
         <v>170</v>
       </c>
@@ -13753,7 +13753,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="115"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="27" t="s">
         <v>169</v>
       </c>
@@ -13774,7 +13774,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -13797,7 +13797,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="115"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="27" t="s">
         <v>170</v>
       </c>
@@ -13818,7 +13818,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="115"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="27" t="s">
         <v>169</v>
       </c>
@@ -13839,7 +13839,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="117" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -13862,7 +13862,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="115"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="27" t="s">
         <v>170</v>
       </c>
@@ -13883,7 +13883,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="115"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="27" t="s">
         <v>169</v>
       </c>
@@ -13904,7 +13904,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="27" t="s">
@@ -13927,7 +13927,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="115"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="27" t="s">
         <v>170</v>
       </c>
@@ -13948,7 +13948,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="115"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="27" t="s">
         <v>169</v>
       </c>
@@ -13969,7 +13969,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="117" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="27" t="s">
@@ -13992,7 +13992,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="115"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="27" t="s">
         <v>170</v>
       </c>
@@ -14013,7 +14013,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="115"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="27" t="s">
         <v>169</v>
       </c>
@@ -14098,7 +14098,7 @@
       <c r="A55" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="117" t="s">
         <v>32</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -14126,7 +14126,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="115"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="27" t="s">
         <v>170</v>
       </c>
@@ -14152,7 +14152,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="115"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="27" t="s">
         <v>169</v>
       </c>
@@ -14178,7 +14178,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="115" t="s">
+      <c r="B58" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -14206,7 +14206,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="115"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="27" t="s">
         <v>170</v>
       </c>
@@ -14232,7 +14232,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="115"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="27" t="s">
         <v>169</v>
       </c>
@@ -14258,7 +14258,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="115" t="s">
+      <c r="B61" s="117" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="27" t="s">
@@ -14286,7 +14286,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="115"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="27" t="s">
         <v>170</v>
       </c>
@@ -14312,7 +14312,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="115"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="27" t="s">
         <v>169</v>
       </c>
@@ -14338,7 +14338,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="115" t="s">
+      <c r="B64" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="27" t="s">
@@ -14366,7 +14366,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="115"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="27" t="s">
         <v>170</v>
       </c>
@@ -14392,7 +14392,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="115"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="27" t="s">
         <v>169</v>
       </c>
@@ -14418,7 +14418,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="115" t="s">
+      <c r="B67" s="117" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="27" t="s">
@@ -14446,7 +14446,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="115"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="27" t="s">
         <v>170</v>
       </c>
@@ -14472,7 +14472,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="115"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="27" t="s">
         <v>169</v>
       </c>
@@ -14536,7 +14536,7 @@
       <c r="A72" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="B72" s="115" t="s">
+      <c r="B72" s="117" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="27" t="s">
@@ -14564,7 +14564,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="115"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="27" t="s">
         <v>170</v>
       </c>
@@ -14590,7 +14590,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="115"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="27" t="s">
         <v>169</v>
       </c>
@@ -14616,7 +14616,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="115" t="s">
+      <c r="B75" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="27" t="s">
@@ -14644,7 +14644,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="115"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="27" t="s">
         <v>170</v>
       </c>
@@ -14670,7 +14670,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="115"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="27" t="s">
         <v>169</v>
       </c>
@@ -14696,7 +14696,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="115" t="s">
+      <c r="B78" s="117" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="27" t="s">
@@ -14724,7 +14724,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="115"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="27" t="s">
         <v>170</v>
       </c>
@@ -14750,7 +14750,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="115"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="27" t="s">
         <v>169</v>
       </c>
@@ -14776,7 +14776,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="115" t="s">
+      <c r="B81" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="27" t="s">
@@ -14804,7 +14804,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="115"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="27" t="s">
         <v>170</v>
       </c>
@@ -14830,7 +14830,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="115"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="27" t="s">
         <v>169</v>
       </c>
@@ -14856,7 +14856,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="115" t="s">
+      <c r="B84" s="117" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="27" t="s">
@@ -14884,7 +14884,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="115"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="27" t="s">
         <v>170</v>
       </c>
@@ -14910,7 +14910,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="115"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="27" t="s">
         <v>169</v>
       </c>
@@ -14974,7 +14974,7 @@
       <c r="A89" s="77" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="115" t="s">
+      <c r="B89" s="117" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="27" t="s">
@@ -15002,7 +15002,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="115"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="27" t="s">
         <v>170</v>
       </c>
@@ -15028,7 +15028,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="115"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="27" t="s">
         <v>169</v>
       </c>
@@ -15054,7 +15054,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="115" t="s">
+      <c r="B92" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="27" t="s">
@@ -15082,7 +15082,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="115"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="27" t="s">
         <v>170</v>
       </c>
@@ -15108,7 +15108,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="115"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="27" t="s">
         <v>169</v>
       </c>
@@ -15134,7 +15134,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="115" t="s">
+      <c r="B95" s="117" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="27" t="s">
@@ -15162,7 +15162,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="115"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="27" t="s">
         <v>170</v>
       </c>
@@ -15188,7 +15188,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="115"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="27" t="s">
         <v>169</v>
       </c>
@@ -15214,7 +15214,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="115" t="s">
+      <c r="B98" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="27" t="s">
@@ -15242,7 +15242,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="115"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="27" t="s">
         <v>170</v>
       </c>
@@ -15268,7 +15268,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="115"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="27" t="s">
         <v>169</v>
       </c>
@@ -15294,7 +15294,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="115" t="s">
+      <c r="B101" s="117" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="27" t="s">
@@ -15322,7 +15322,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="115"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="27" t="s">
         <v>170</v>
       </c>
@@ -15348,7 +15348,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="115"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="27" t="s">
         <v>169</v>
       </c>
@@ -15443,7 +15443,7 @@
       <c r="A108" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B108" s="115" t="s">
+      <c r="B108" s="117" t="s">
         <v>32</v>
       </c>
       <c r="C108" s="27" t="s">
@@ -15471,7 +15471,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="115"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="27" t="s">
         <v>170</v>
       </c>
@@ -15497,7 +15497,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="115"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="27" t="s">
         <v>169</v>
       </c>
@@ -15523,7 +15523,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="115" t="s">
+      <c r="B111" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C111" s="27" t="s">
@@ -15551,7 +15551,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="115"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="27" t="s">
         <v>170</v>
       </c>
@@ -15577,7 +15577,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="115"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="27" t="s">
         <v>169</v>
       </c>
@@ -15603,7 +15603,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="115" t="s">
+      <c r="B114" s="117" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="27" t="s">
@@ -15631,7 +15631,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="115"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="27" t="s">
         <v>170</v>
       </c>
@@ -15657,7 +15657,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="115"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="27" t="s">
         <v>169</v>
       </c>
@@ -15683,7 +15683,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="115" t="s">
+      <c r="B117" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="27" t="s">
@@ -15711,7 +15711,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="115"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="27" t="s">
         <v>170</v>
       </c>
@@ -15737,7 +15737,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="115"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="27" t="s">
         <v>169</v>
       </c>
@@ -15763,7 +15763,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="115" t="s">
+      <c r="B120" s="117" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="27" t="s">
@@ -15791,7 +15791,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="115"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="27" t="s">
         <v>170</v>
       </c>
@@ -15817,7 +15817,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="115"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="27" t="s">
         <v>169</v>
       </c>
@@ -15881,7 +15881,7 @@
       <c r="A125" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="B125" s="115" t="s">
+      <c r="B125" s="117" t="s">
         <v>32</v>
       </c>
       <c r="C125" s="27" t="s">
@@ -15909,7 +15909,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="115"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="27" t="s">
         <v>170</v>
       </c>
@@ -15935,7 +15935,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="115"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="27" t="s">
         <v>169</v>
       </c>
@@ -15961,7 +15961,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="115" t="s">
+      <c r="B128" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="27" t="s">
@@ -15989,7 +15989,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="115"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="27" t="s">
         <v>170</v>
       </c>
@@ -16015,7 +16015,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="115"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="27" t="s">
         <v>169</v>
       </c>
@@ -16041,7 +16041,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="115" t="s">
+      <c r="B131" s="117" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="27" t="s">
@@ -16069,7 +16069,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="115"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="27" t="s">
         <v>170</v>
       </c>
@@ -16095,7 +16095,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="115"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="27" t="s">
         <v>169</v>
       </c>
@@ -16121,7 +16121,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="115" t="s">
+      <c r="B134" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="27" t="s">
@@ -16149,7 +16149,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="115"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="27" t="s">
         <v>170</v>
       </c>
@@ -16175,7 +16175,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="115"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="27" t="s">
         <v>169</v>
       </c>
@@ -16201,7 +16201,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="115" t="s">
+      <c r="B137" s="117" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="27" t="s">
@@ -16229,7 +16229,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="115"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="27" t="s">
         <v>170</v>
       </c>
@@ -16255,7 +16255,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="115"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="27" t="s">
         <v>169</v>
       </c>
@@ -16319,7 +16319,7 @@
       <c r="A142" s="77" t="s">
         <v>316</v>
       </c>
-      <c r="B142" s="115" t="s">
+      <c r="B142" s="117" t="s">
         <v>32</v>
       </c>
       <c r="C142" s="27" t="s">
@@ -16347,7 +16347,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="115"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="27" t="s">
         <v>170</v>
       </c>
@@ -16373,7 +16373,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="115"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="27" t="s">
         <v>169</v>
       </c>
@@ -16399,7 +16399,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="115" t="s">
+      <c r="B145" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C145" s="27" t="s">
@@ -16427,7 +16427,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="115"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="27" t="s">
         <v>170</v>
       </c>
@@ -16453,7 +16453,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="115"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="27" t="s">
         <v>169</v>
       </c>
@@ -16479,7 +16479,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="115" t="s">
+      <c r="B148" s="117" t="s">
         <v>2</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -16507,7 +16507,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="115"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="27" t="s">
         <v>170</v>
       </c>
@@ -16533,7 +16533,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="115"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="27" t="s">
         <v>169</v>
       </c>
@@ -16559,7 +16559,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="115" t="s">
+      <c r="B151" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C151" s="27" t="s">
@@ -16587,7 +16587,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="115"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="27" t="s">
         <v>170</v>
       </c>
@@ -16613,7 +16613,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="115"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="27" t="s">
         <v>169</v>
       </c>
@@ -16639,7 +16639,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="115" t="s">
+      <c r="B154" s="117" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="27" t="s">
@@ -16667,7 +16667,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="115"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="27" t="s">
         <v>170</v>
       </c>
@@ -16693,7 +16693,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="115"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="27" t="s">
         <v>169</v>
       </c>
@@ -16749,12 +16749,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tLFUmDyoH82P3agTzdNhIl/nrPXW114misPcwvY90QMxHUTQPj6nXWoXArIchS0+Y1PkNffvDNQ/0vLhBaHAnA==" saltValue="GmZrDncYr09T1PgEJ065qQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16764,36 +16788,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31311,8 +31311,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31371,13 +31371,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31391,13 +31391,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="104">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="104">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="104">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31724,7 +31724,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="104">
         <v>0.62</v>
@@ -31767,7 +31767,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="104">
         <v>0.62</v>
@@ -31787,13 +31787,13 @@
         <v>261</v>
       </c>
       <c r="D21" s="104">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="104">
         <v>0</v>
       </c>
       <c r="F21" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="104">
         <v>0</v>
@@ -31813,7 +31813,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="104">
         <v>0</v>
@@ -31833,13 +31833,13 @@
         <v>261</v>
       </c>
       <c r="D23" s="104">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="104">
         <v>0</v>
       </c>
       <c r="F23" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="104">
         <v>0</v>
@@ -31859,7 +31859,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="104">
         <v>0</v>
@@ -31879,13 +31879,13 @@
         <v>261</v>
       </c>
       <c r="D25" s="104">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="104">
         <v>0</v>
       </c>
       <c r="F25" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="104">
         <v>0</v>
@@ -31905,7 +31905,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="104">
         <v>0</v>
@@ -31931,7 +31931,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="104">
         <v>1</v>
@@ -31951,7 +31951,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="104">
         <v>0</v>
@@ -31971,7 +31971,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="104">
         <v>0</v>
@@ -31997,7 +31997,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="104">
         <v>1</v>
@@ -32017,7 +32017,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="104">
         <v>0</v>
@@ -32037,7 +32037,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="104">
         <v>0</v>
@@ -32063,7 +32063,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="104">
         <v>1</v>
@@ -32083,7 +32083,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="104">
         <v>0</v>
@@ -32103,7 +32103,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="104">
         <v>0</v>
@@ -32129,7 +32129,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="104">
         <v>1</v>
@@ -32149,7 +32149,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="104">
         <v>0</v>
@@ -32169,7 +32169,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="104">
         <v>0</v>
@@ -32195,7 +32195,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="104">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="104">
         <v>1</v>
@@ -32215,7 +32215,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="104">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="104">
         <v>0</v>
@@ -32261,7 +32261,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="104">
         <v>0.3</v>
@@ -32281,7 +32281,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="104">
         <v>0.5</v>
@@ -32301,7 +32301,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="104">
         <v>0.65</v>
@@ -32324,7 +32324,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="104">
         <v>0.3</v>
@@ -32344,7 +32344,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="104">
         <v>0.49</v>
@@ -32364,7 +32364,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="104">
         <v>0.52</v>
@@ -32390,7 +32390,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="104">
         <v>0.88</v>
@@ -32404,19 +32404,19 @@
         <v>262</v>
       </c>
       <c r="D49" s="104">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="104">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="104">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="104">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32430,19 +32430,19 @@
         <v>261</v>
       </c>
       <c r="D50" s="104">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="104">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="104">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="104">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32456,7 +32456,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="104">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="104">
         <v>0.86</v>
@@ -32482,7 +32482,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="104">
         <v>0</v>
@@ -32502,7 +32502,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="104">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="104">
         <v>0</v>
@@ -32564,15 +32564,15 @@
       </c>
       <c r="F57" s="104">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="104">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="104">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32589,15 +32589,15 @@
       </c>
       <c r="F58" s="104">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="104">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="104">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32997,7 +32997,7 @@
       </c>
       <c r="F73" s="104">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="104">
         <f t="shared" si="5"/>
@@ -33050,7 +33050,7 @@
       </c>
       <c r="F75" s="104">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="104">
         <f t="shared" si="7"/>
@@ -33073,7 +33073,7 @@
       </c>
       <c r="D76" s="104">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="104">
         <f t="shared" si="8"/>
@@ -33081,7 +33081,7 @@
       </c>
       <c r="F76" s="104">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="104">
         <f t="shared" si="8"/>
@@ -33106,7 +33106,7 @@
       </c>
       <c r="F77" s="104">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="104">
         <f t="shared" si="9"/>
@@ -33129,7 +33129,7 @@
       </c>
       <c r="D78" s="104">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="104">
         <f t="shared" si="10"/>
@@ -33137,7 +33137,7 @@
       </c>
       <c r="F78" s="104">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="104">
         <f t="shared" si="10"/>
@@ -33162,7 +33162,7 @@
       </c>
       <c r="F79" s="104">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="104">
         <f t="shared" si="11"/>
@@ -33185,7 +33185,7 @@
       </c>
       <c r="D80" s="104">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="104">
         <f t="shared" si="12"/>
@@ -33193,7 +33193,7 @@
       </c>
       <c r="F80" s="104">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="104">
         <f t="shared" si="12"/>
@@ -33218,7 +33218,7 @@
       </c>
       <c r="F81" s="104">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="104">
         <f t="shared" si="13"/>
@@ -33249,7 +33249,7 @@
       </c>
       <c r="F82" s="104">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="104">
         <f t="shared" si="14"/>
@@ -33274,7 +33274,7 @@
       </c>
       <c r="F83" s="104">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="104">
         <f t="shared" si="15"/>
@@ -33299,7 +33299,7 @@
       </c>
       <c r="F84" s="104">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="104">
         <f t="shared" si="16"/>
@@ -33330,7 +33330,7 @@
       </c>
       <c r="F85" s="104">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="104">
         <f t="shared" si="17"/>
@@ -33355,7 +33355,7 @@
       </c>
       <c r="F86" s="104">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="104">
         <f t="shared" si="18"/>
@@ -33380,7 +33380,7 @@
       </c>
       <c r="F87" s="104">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="104">
         <f t="shared" si="19"/>
@@ -33411,7 +33411,7 @@
       </c>
       <c r="F88" s="104">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="104">
         <f t="shared" si="20"/>
@@ -33436,7 +33436,7 @@
       </c>
       <c r="F89" s="104">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="104">
         <f t="shared" si="21"/>
@@ -33461,7 +33461,7 @@
       </c>
       <c r="F90" s="104">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="104">
         <f t="shared" si="22"/>
@@ -33492,7 +33492,7 @@
       </c>
       <c r="F91" s="104">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="104">
         <f t="shared" si="23"/>
@@ -33517,7 +33517,7 @@
       </c>
       <c r="F92" s="104">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="104">
         <f t="shared" si="24"/>
@@ -33542,7 +33542,7 @@
       </c>
       <c r="F93" s="104">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="104">
         <f t="shared" si="25"/>
@@ -33573,7 +33573,7 @@
       </c>
       <c r="F94" s="104">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="104">
         <f t="shared" si="26"/>
@@ -33598,7 +33598,7 @@
       </c>
       <c r="F95" s="104">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="104">
         <f t="shared" si="27"/>
@@ -33623,7 +33623,7 @@
       </c>
       <c r="F96" s="104">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="104">
         <f t="shared" si="28"/>
@@ -33654,7 +33654,7 @@
       </c>
       <c r="F97" s="104">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="104">
         <f t="shared" si="29"/>
@@ -33679,7 +33679,7 @@
       </c>
       <c r="F98" s="104">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="104">
         <f t="shared" si="30"/>
@@ -33704,7 +33704,7 @@
       </c>
       <c r="F99" s="104">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="104">
         <f t="shared" si="31"/>
@@ -33732,7 +33732,7 @@
       </c>
       <c r="F100" s="104">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="104">
         <f t="shared" si="32"/>
@@ -33757,7 +33757,7 @@
       </c>
       <c r="F101" s="104">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="104">
         <f t="shared" si="33"/>
@@ -33782,7 +33782,7 @@
       </c>
       <c r="F102" s="104">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="104">
         <f t="shared" si="34"/>
@@ -33813,7 +33813,7 @@
       </c>
       <c r="F103" s="104">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="104">
         <f t="shared" si="35"/>
@@ -33830,23 +33830,23 @@
       </c>
       <c r="D104" s="104">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="104">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="104">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="104">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="104">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33861,23 +33861,23 @@
       </c>
       <c r="D105" s="104">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="104">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="104">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="104">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="104">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33894,7 +33894,7 @@
       </c>
       <c r="F106" s="104">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="104">
         <f t="shared" si="38"/>
@@ -33925,7 +33925,7 @@
       </c>
       <c r="F107" s="104">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="104">
         <f t="shared" si="39"/>
@@ -33950,7 +33950,7 @@
       </c>
       <c r="F108" s="104">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="104">
         <f t="shared" si="40"/>
@@ -34014,15 +34014,15 @@
       </c>
       <c r="F112" s="104">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="104">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="104">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34039,15 +34039,15 @@
       </c>
       <c r="F113" s="104">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="104">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="104">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34447,7 +34447,7 @@
       </c>
       <c r="F128" s="104">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="104">
         <f t="shared" si="46"/>
@@ -34500,7 +34500,7 @@
       </c>
       <c r="F130" s="104">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="104">
         <f t="shared" si="48"/>
@@ -34523,7 +34523,7 @@
       </c>
       <c r="D131" s="104">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="104">
         <f t="shared" si="49"/>
@@ -34531,7 +34531,7 @@
       </c>
       <c r="F131" s="104">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="104">
         <f t="shared" si="49"/>
@@ -34556,7 +34556,7 @@
       </c>
       <c r="F132" s="104">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="104">
         <f t="shared" si="50"/>
@@ -34579,7 +34579,7 @@
       </c>
       <c r="D133" s="104">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="104">
         <f t="shared" si="51"/>
@@ -34587,7 +34587,7 @@
       </c>
       <c r="F133" s="104">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="104">
         <f t="shared" si="51"/>
@@ -34612,7 +34612,7 @@
       </c>
       <c r="F134" s="104">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="104">
         <f t="shared" si="52"/>
@@ -34635,7 +34635,7 @@
       </c>
       <c r="D135" s="104">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="104">
         <f t="shared" si="53"/>
@@ -34643,7 +34643,7 @@
       </c>
       <c r="F135" s="104">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="104">
         <f t="shared" si="53"/>
@@ -34668,7 +34668,7 @@
       </c>
       <c r="F136" s="104">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="104">
         <f t="shared" si="54"/>
@@ -34699,7 +34699,7 @@
       </c>
       <c r="F137" s="104">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="104">
         <f t="shared" si="55"/>
@@ -34724,7 +34724,7 @@
       </c>
       <c r="F138" s="104">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="104">
         <f t="shared" si="56"/>
@@ -34749,7 +34749,7 @@
       </c>
       <c r="F139" s="104">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="104">
         <f t="shared" si="57"/>
@@ -34780,7 +34780,7 @@
       </c>
       <c r="F140" s="104">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="104">
         <f t="shared" si="58"/>
@@ -34805,7 +34805,7 @@
       </c>
       <c r="F141" s="104">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="104">
         <f t="shared" si="59"/>
@@ -34830,7 +34830,7 @@
       </c>
       <c r="F142" s="104">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="104">
         <f t="shared" si="60"/>
@@ -34861,7 +34861,7 @@
       </c>
       <c r="F143" s="104">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="104">
         <f t="shared" si="61"/>
@@ -34886,7 +34886,7 @@
       </c>
       <c r="F144" s="104">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="104">
         <f t="shared" si="62"/>
@@ -34911,7 +34911,7 @@
       </c>
       <c r="F145" s="104">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="104">
         <f t="shared" si="63"/>
@@ -34942,7 +34942,7 @@
       </c>
       <c r="F146" s="104">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="104">
         <f t="shared" si="64"/>
@@ -34967,7 +34967,7 @@
       </c>
       <c r="F147" s="104">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="104">
         <f t="shared" si="65"/>
@@ -34992,7 +34992,7 @@
       </c>
       <c r="F148" s="104">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="104">
         <f t="shared" si="66"/>
@@ -35023,7 +35023,7 @@
       </c>
       <c r="F149" s="104">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="104">
         <f t="shared" si="67"/>
@@ -35048,7 +35048,7 @@
       </c>
       <c r="F150" s="104">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="104">
         <f t="shared" si="68"/>
@@ -35073,7 +35073,7 @@
       </c>
       <c r="F151" s="104">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="104">
         <f t="shared" si="69"/>
@@ -35104,7 +35104,7 @@
       </c>
       <c r="F152" s="104">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="104">
         <f t="shared" si="70"/>
@@ -35129,7 +35129,7 @@
       </c>
       <c r="F153" s="104">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="104">
         <f t="shared" si="71"/>
@@ -35154,7 +35154,7 @@
       </c>
       <c r="F154" s="104">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="104">
         <f t="shared" si="72"/>
@@ -35182,7 +35182,7 @@
       </c>
       <c r="F155" s="104">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="104">
         <f t="shared" si="73"/>
@@ -35207,7 +35207,7 @@
       </c>
       <c r="F156" s="104">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="104">
         <f t="shared" si="74"/>
@@ -35232,7 +35232,7 @@
       </c>
       <c r="F157" s="104">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="104">
         <f t="shared" si="75"/>
@@ -35263,7 +35263,7 @@
       </c>
       <c r="F158" s="104">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="104">
         <f t="shared" si="76"/>
@@ -35280,23 +35280,23 @@
       </c>
       <c r="D159" s="104">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="104">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="104">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="104">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="104">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35311,23 +35311,23 @@
       </c>
       <c r="D160" s="104">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="104">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="104">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="104">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="104">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35344,7 +35344,7 @@
       </c>
       <c r="F161" s="104">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="104">
         <f t="shared" si="79"/>
@@ -35375,7 +35375,7 @@
       </c>
       <c r="F162" s="104">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="104">
         <f t="shared" si="80"/>
@@ -35400,7 +35400,7 @@
       </c>
       <c r="F163" s="104">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="104">
         <f t="shared" si="81"/>
@@ -36997,15 +36997,15 @@
       <c r="B2" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="45"/>
@@ -37017,15 +37017,15 @@
       <c r="B4" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
@@ -37037,43 +37037,43 @@
       <c r="B6" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -37082,29 +37082,29 @@
       <c r="B10" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
@@ -37113,29 +37113,29 @@
       <c r="B13" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="RgdAR3BFtcGQtrRbSdQKBGo+vA8vXft2CfMoIPNylw2Kgtq5Y60OF/gu0FwTwlYUkXD70DqSCseNkguXFqARBA==" saltValue="Mz7gePsAVXfIyQ62rOG4NQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -37174,7 +37174,7 @@
       <c r="A2" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2" s="116">
         <v>10</v>
       </c>
     </row>
@@ -37182,7 +37182,7 @@
       <c r="A3" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="117">
+      <c r="B3" s="116">
         <v>10</v>
       </c>
     </row>
@@ -37190,7 +37190,7 @@
       <c r="A4" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="116">
         <v>50</v>
       </c>
     </row>
@@ -37198,7 +37198,7 @@
       <c r="A5" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="116">
         <v>100</v>
       </c>
     </row>
@@ -37206,7 +37206,7 @@
       <c r="A6" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="116">
         <v>5</v>
       </c>
     </row>
@@ -37214,7 +37214,7 @@
       <c r="A7" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="116">
         <v>5</v>
       </c>
     </row>

--- a/inputs/en/template_input.xlsx
+++ b/inputs/en/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50E1CA-722B-4E93-9126-FFA943B20F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B76BA0-CA63-436C-9049-43C080B6F246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1629,7 +1629,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1799,6 +1799,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2661,7 +2667,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2935,6 +2941,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -6535,7 +6544,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -16749,6 +16758,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tLFUmDyoH82P3agTzdNhIl/nrPXW114misPcwvY90QMxHUTQPj6nXWoXArIchS0+Y1PkNffvDNQ/0vLhBaHAnA==" saltValue="GmZrDncYr09T1PgEJ065qQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16758,42 +16803,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -35945,8 +35954,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36073,16 +36082,16 @@
       <c r="B13" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="118" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="19"/>
@@ -36370,7 +36379,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CjUfkZO3ODoRnqTAfv/FpvLKAjAufeGhUKWqr1d5T1ad0D9lV5FXbPX8NIZCbXStR9H4lMBNeB1fHY7fY/fWgQ==" saltValue="zuEA9mHaDeqEQUI/Brmp1Q==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ebFC+b8bL5tYAifPWQaxixgzzvXaqCOofIEE5JWM0JzcOK5p+YKXWlflnwgJ7toAW8sWXYGum7rLbbSsdxy/aw==" saltValue="c1teugPS6+/vWNb+Sd2rJw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/inputs/en/template_input.xlsx
+++ b/inputs/en/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tharindu.wickram\Desktop\Modeling\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1842CA4-CF26-45CF-8D20-7DDB1D3715C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569B2DA1-7674-4B50-A694-CCA0824D9ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="961" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="961" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -13063,7 +13063,7 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13178,8 +13178,9 @@
         <v>171</v>
       </c>
       <c r="D5" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$C$2),1.56,(1.56-'Breastfeeding distribution'!$C$2)/(1-'Breastfeeding distribution'!$C$2))</f>
-        <v>4.5</v>
+        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$C$2))) /
+('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.56)</f>
+        <v>1.56</v>
       </c>
       <c r="E5" s="102">
         <v>1</v>
@@ -13200,8 +13201,9 @@
         <v>170</v>
       </c>
       <c r="D6" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$C$2),1.56,(1.56-'Breastfeeding distribution'!$C$2)/(1-'Breastfeeding distribution'!$C$2))</f>
-        <v>4.5</v>
+        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$C$2))) /
+('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.56)</f>
+        <v>1.56</v>
       </c>
       <c r="E6" s="102">
         <v>1</v>
@@ -13248,8 +13250,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$D$2),1.56,(1.56-'Breastfeeding distribution'!$D$2)/(1-'Breastfeeding distribution'!$D$2))</f>
-        <v>2.0055204598486145</v>
+        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$D$2))) /
+('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.56)</f>
+        <v>2.8134491663553263</v>
       </c>
       <c r="F8" s="102">
         <v>1</v>
@@ -13270,8 +13273,9 @@
         <v>1</v>
       </c>
       <c r="E9" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$D$2),1.56,(1.56-'Breastfeeding distribution'!$D$2)/(1-'Breastfeeding distribution'!$D$2))</f>
-        <v>2.0055204598486145</v>
+        <f>IFERROR((MIN(1,1.56*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.56*'Breastfeeding distribution'!$D$2))) /
+('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.56)</f>
+        <v>2.8134491663553263</v>
       </c>
       <c r="F9" s="102">
         <v>1</v>
@@ -13481,10 +13485,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G19" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H19" s="102">
         <v>1</v>
@@ -13502,10 +13506,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G20" s="102">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H20" s="102">
         <v>1</v>
@@ -13523,10 +13527,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G21" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H21" s="102">
         <v>1</v>
@@ -13588,10 +13592,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G24" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H24" s="102">
         <v>1</v>
@@ -13653,10 +13657,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G27" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H27" s="102">
         <v>1</v>
@@ -13676,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G28" s="102">
         <v>1</v>
@@ -13697,7 +13701,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G29" s="102">
         <v>1</v>
@@ -13718,10 +13722,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G30" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H30" s="102">
         <v>1</v>
@@ -13744,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="H31" s="102">
         <v>1</v>
@@ -13765,7 +13769,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="H32" s="102">
         <v>1</v>
@@ -13786,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="102">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H33" s="102">
         <v>1</v>
@@ -13806,10 +13810,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G34" s="102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H34" s="102">
         <v>1</v>
@@ -14034,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="G45" s="102">
         <v>1</v>
@@ -14055,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="G46" s="102">
         <v>1</v>
@@ -14102,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="H48" s="102">
         <v>1</v>
@@ -14123,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="102">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="H49" s="102">
         <v>1</v>
@@ -14158,16 +14162,16 @@
         <v>169</v>
       </c>
       <c r="D51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="E51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="G51" s="102">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H51" s="102">
         <v>1</v>
@@ -14302,8 +14306,9 @@
         <v>171</v>
       </c>
       <c r="D58" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$C$2),1.37,(1.37-'Breastfeeding distribution'!$C$2)/(1-'Breastfeeding distribution'!$C$2))</f>
-        <v>3.3125</v>
+        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$C$2))) /
+('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.37)</f>
+        <v>1.37</v>
       </c>
       <c r="E58" s="102">
         <f t="shared" si="1"/>
@@ -14328,8 +14333,9 @@
         <v>170</v>
       </c>
       <c r="D59" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$C$2),1.37,(1.37-'Breastfeeding distribution'!$C$2)/(1-'Breastfeeding distribution'!$C$2))</f>
-        <v>3.3125</v>
+        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$C$2))) /
+('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.37)</f>
+        <v>1.37</v>
       </c>
       <c r="E59" s="102">
         <f t="shared" si="1"/>
@@ -14386,8 +14392,9 @@
         <v>1</v>
       </c>
       <c r="E61" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$D$2),1.37,(1.37-'Breastfeeding distribution'!$D$2)/(1-'Breastfeeding distribution'!$D$2))</f>
-        <v>1.6643617323999775</v>
+        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$D$2))) /
+('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.37)</f>
+        <v>1.9415046815127641</v>
       </c>
       <c r="F61" s="102">
         <f t="shared" si="2"/>
@@ -14412,8 +14419,9 @@
         <v>1</v>
       </c>
       <c r="E62" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$D$2),1.37,(1.37-'Breastfeeding distribution'!$D$2)/(1-'Breastfeeding distribution'!$D$2))</f>
-        <v>1.6643617323999775</v>
+        <f>IFERROR((MIN(1,1.37*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.37*'Breastfeeding distribution'!$D$2))) /
+('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.37)</f>
+        <v>1.9415046815127641</v>
       </c>
       <c r="F62" s="102">
         <f t="shared" si="2"/>
@@ -14665,11 +14673,11 @@
       </c>
       <c r="F72" s="102">
         <f t="shared" si="3"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G72" s="102">
         <f t="shared" si="3"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="H72" s="102">
         <f t="shared" si="3"/>
@@ -14691,11 +14699,11 @@
       </c>
       <c r="F73" s="102">
         <f t="shared" si="4"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G73" s="102">
         <f t="shared" si="4"/>
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="H73" s="102">
         <f t="shared" si="4"/>
@@ -14717,11 +14725,11 @@
       </c>
       <c r="F74" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G74" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H74" s="102">
         <f t="shared" si="4"/>
@@ -14797,11 +14805,11 @@
       </c>
       <c r="F77" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G77" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H77" s="102">
         <f t="shared" si="4"/>
@@ -14877,11 +14885,11 @@
       </c>
       <c r="F80" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G80" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H80" s="102">
         <f t="shared" si="4"/>
@@ -14905,7 +14913,7 @@
       </c>
       <c r="F81" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="G81" s="102">
         <f t="shared" si="4"/>
@@ -14931,7 +14939,7 @@
       </c>
       <c r="F82" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="G82" s="102">
         <f t="shared" si="4"/>
@@ -14957,11 +14965,11 @@
       </c>
       <c r="F83" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G83" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H83" s="102">
         <f t="shared" si="4"/>
@@ -14989,7 +14997,7 @@
       </c>
       <c r="G84" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="H84" s="102">
         <f t="shared" si="4"/>
@@ -15015,7 +15023,7 @@
       </c>
       <c r="G85" s="102">
         <f t="shared" si="4"/>
-        <v>0.70200000000000007</v>
+        <v>1</v>
       </c>
       <c r="H85" s="102">
         <f t="shared" si="4"/>
@@ -15041,7 +15049,7 @@
       </c>
       <c r="G86" s="102">
         <f t="shared" si="4"/>
-        <v>0.89100000000000001</v>
+        <v>1</v>
       </c>
       <c r="H86" s="102">
         <f t="shared" si="4"/>
@@ -15065,11 +15073,11 @@
       </c>
       <c r="F87" s="102">
         <f t="shared" si="4"/>
-        <v>0.85499999999999998</v>
+        <v>1</v>
       </c>
       <c r="G87" s="102">
         <f t="shared" si="4"/>
-        <v>0.85499999999999998</v>
+        <v>1</v>
       </c>
       <c r="H87" s="102">
         <f t="shared" si="4"/>
@@ -15094,24 +15102,24 @@
         <v>171</v>
       </c>
       <c r="D89" s="102">
-        <f>D36*0.9</f>
-        <v>0.9</v>
+        <f>IF(D36=1,1,D36*0.9)</f>
+        <v>1</v>
       </c>
       <c r="E89" s="102">
-        <f t="shared" ref="E89:H89" si="5">E36*0.9</f>
-        <v>0.9</v>
+        <f t="shared" ref="E89:H89" si="5">IF(E36=1,1,E36*0.9)</f>
+        <v>1</v>
       </c>
       <c r="F89" s="102">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G89" s="102">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H89" s="102">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -15120,24 +15128,24 @@
         <v>170</v>
       </c>
       <c r="D90" s="102">
-        <f t="shared" ref="D90:D104" si="6">D37*0.9</f>
-        <v>0.9</v>
+        <f t="shared" ref="D90:H104" si="6">IF(D37=1,1,D37*0.9)</f>
+        <v>1</v>
       </c>
       <c r="E90" s="102">
-        <f t="shared" ref="E90:H90" si="7">E37*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F90" s="102">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G90" s="102">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H90" s="102">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -15147,23 +15155,23 @@
       </c>
       <c r="D91" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E91" s="102">
-        <f t="shared" ref="E91:H91" si="8">E38*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F91" s="102">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G91" s="102">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H91" s="102">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -15175,23 +15183,23 @@
       </c>
       <c r="D92" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E92" s="102">
-        <f t="shared" ref="E92:H92" si="9">E39*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F92" s="102">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G92" s="102">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H92" s="102">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -15201,23 +15209,23 @@
       </c>
       <c r="D93" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E93" s="102">
-        <f t="shared" ref="E93:H93" si="10">E40*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F93" s="102">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G93" s="102">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H93" s="102">
-        <f t="shared" si="10"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -15227,23 +15235,23 @@
       </c>
       <c r="D94" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E94" s="102">
-        <f t="shared" ref="E94:H94" si="11">E41*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F94" s="102">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G94" s="102">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H94" s="102">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -15255,23 +15263,23 @@
       </c>
       <c r="D95" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E95" s="102">
-        <f t="shared" ref="E95:H95" si="12">E42*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F95" s="102">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G95" s="102">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H95" s="102">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -15281,23 +15289,23 @@
       </c>
       <c r="D96" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E96" s="102">
-        <f t="shared" ref="E96:H96" si="13">E43*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F96" s="102">
-        <f t="shared" si="13"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G96" s="102">
-        <f t="shared" si="13"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H96" s="102">
-        <f t="shared" si="13"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -15307,23 +15315,23 @@
       </c>
       <c r="D97" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E97" s="102">
-        <f t="shared" ref="E97:H97" si="14">E44*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F97" s="102">
-        <f t="shared" si="14"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G97" s="102">
-        <f t="shared" si="14"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H97" s="102">
-        <f t="shared" si="14"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -15335,23 +15343,23 @@
       </c>
       <c r="D98" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E98" s="102">
-        <f t="shared" ref="E98:H98" si="15">E45*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F98" s="102">
-        <f t="shared" si="15"/>
-        <v>1.6380000000000001</v>
+        <f>IF(F45=1,1,F45*0.9)</f>
+        <v>1</v>
       </c>
       <c r="G98" s="102">
-        <f t="shared" si="15"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H98" s="102">
-        <f t="shared" si="15"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -15361,23 +15369,23 @@
       </c>
       <c r="D99" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E99" s="102">
-        <f t="shared" ref="E99:H99" si="16">E46*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F99" s="102">
-        <f t="shared" si="16"/>
-        <v>1.6380000000000001</v>
+        <f>IF(F46=1,1,F46*0.9)</f>
+        <v>1</v>
       </c>
       <c r="G99" s="102">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H99" s="102">
-        <f t="shared" si="16"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -15387,23 +15395,23 @@
       </c>
       <c r="D100" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E100" s="102">
-        <f t="shared" ref="E100:H100" si="17">E47*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F100" s="102">
-        <f t="shared" si="17"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G100" s="102">
-        <f t="shared" si="17"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H100" s="102">
-        <f t="shared" si="17"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -15415,23 +15423,23 @@
       </c>
       <c r="D101" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E101" s="102">
-        <f t="shared" ref="E101:H101" si="18">E48*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F101" s="102">
-        <f t="shared" si="18"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G101" s="102">
-        <f t="shared" si="18"/>
-        <v>1.6380000000000001</v>
+        <f>IF(G48=1,1,G48*0.9)</f>
+        <v>1</v>
       </c>
       <c r="H101" s="102">
-        <f t="shared" si="18"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -15441,23 +15449,23 @@
       </c>
       <c r="D102" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E102" s="102">
-        <f t="shared" ref="E102:H102" si="19">E49*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F102" s="102">
-        <f t="shared" si="19"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G102" s="102">
-        <f t="shared" si="19"/>
-        <v>1.6380000000000001</v>
+        <f>IF(G49=1,1,G49*0.9)</f>
+        <v>1</v>
       </c>
       <c r="H102" s="102">
-        <f t="shared" si="19"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -15467,23 +15475,23 @@
       </c>
       <c r="D103" s="102">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E103" s="102">
-        <f t="shared" ref="E103:H103" si="20">E50*0.9</f>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F103" s="102">
-        <f t="shared" si="20"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G103" s="102">
-        <f t="shared" si="20"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H103" s="102">
-        <f t="shared" si="20"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -15495,23 +15503,23 @@
       </c>
       <c r="D104" s="102">
         <f t="shared" si="6"/>
-        <v>0.94500000000000006</v>
+        <v>1</v>
       </c>
       <c r="E104" s="102">
-        <f t="shared" ref="E104:H104" si="21">E51*0.9</f>
-        <v>0.94500000000000006</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F104" s="102">
-        <f t="shared" si="21"/>
-        <v>0.94500000000000006</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G104" s="102">
-        <f t="shared" si="21"/>
-        <v>0.94500000000000006</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H104" s="102">
-        <f t="shared" si="21"/>
-        <v>0.9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -15567,19 +15575,19 @@
         <v>1</v>
       </c>
       <c r="E108" s="102">
-        <f t="shared" ref="E108:H108" si="22">IF(E2=1,1,E2*1.05)</f>
+        <f t="shared" ref="E108:H108" si="7">IF(E2=1,1,E2*1.05)</f>
         <v>1</v>
       </c>
       <c r="F108" s="102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G108" s="102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H108" s="102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -15589,23 +15597,23 @@
         <v>170</v>
       </c>
       <c r="D109" s="102">
-        <f t="shared" ref="D109:H112" si="23">IF(D3=1,1,D3*1.05)</f>
+        <f t="shared" ref="D109:H112" si="8">IF(D3=1,1,D3*1.05)</f>
         <v>1</v>
       </c>
       <c r="E109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H109" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15615,23 +15623,23 @@
         <v>169</v>
       </c>
       <c r="D110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H110" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15643,23 +15651,24 @@
         <v>171</v>
       </c>
       <c r="D111" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$C$2),1.77,(1.77-'Breastfeeding distribution'!$C$2)/(1-'Breastfeeding distribution'!$C$2))</f>
-        <v>5.8124999999999991</v>
+        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$C$2))) /
+('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.77)</f>
+        <v>1.77</v>
       </c>
       <c r="E111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H111" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15669,23 +15678,24 @@
         <v>170</v>
       </c>
       <c r="D112" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$C$2),1.77,(1.77-'Breastfeeding distribution'!$C$2)/(1-'Breastfeeding distribution'!$C$2))</f>
-        <v>5.8124999999999991</v>
+        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$C$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$C$2))) /
+('Breastfeeding distribution'!$C$2/(1-'Breastfeeding distribution'!$C$2)), 1.77)</f>
+        <v>1.77</v>
       </c>
       <c r="E112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H112" s="102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15695,23 +15705,23 @@
         <v>169</v>
       </c>
       <c r="D113" s="102">
-        <f t="shared" ref="D113:H123" si="24">IF(D7=1,1,D7*1.05)</f>
+        <f t="shared" ref="D113:H123" si="9">IF(D7=1,1,D7*1.05)</f>
         <v>1</v>
       </c>
       <c r="E113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H113" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15723,23 +15733,24 @@
         <v>171</v>
       </c>
       <c r="D114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E114" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$D$2),1.77,(1.77-'Breastfeeding distribution'!$D$2)/(1-'Breastfeeding distribution'!$D$2))</f>
-        <v>2.3825906322918446</v>
+        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$D$2))) /
+('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.77)</f>
+        <v>4.5688105335991329</v>
       </c>
       <c r="F114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H114" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15749,23 +15760,24 @@
         <v>170</v>
       </c>
       <c r="D115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E115" s="102">
-        <f>IF(ISBLANK('Breastfeeding distribution'!$D$2),1.77,(1.77-'Breastfeeding distribution'!$D$2)/(1-'Breastfeeding distribution'!$D$2))</f>
-        <v>2.3825906322918446</v>
+        <f>IFERROR((MIN(1,1.77*'Breastfeeding distribution'!$D$2)/(1-MIN(1,1.77*'Breastfeeding distribution'!$D$2))) /
+('Breastfeeding distribution'!$D$2/(1-'Breastfeeding distribution'!$D$2)), 1.77)</f>
+        <v>4.5688105335991329</v>
       </c>
       <c r="F115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H115" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15775,23 +15787,23 @@
         <v>169</v>
       </c>
       <c r="D116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H116" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15803,22 +15815,22 @@
         <v>171</v>
       </c>
       <c r="D117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F117" s="102">
         <v>2.11</v>
       </c>
       <c r="G117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H117" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15828,22 +15840,22 @@
         <v>170</v>
       </c>
       <c r="D118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F118" s="102">
         <v>2.11</v>
       </c>
       <c r="G118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H118" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15853,23 +15865,23 @@
         <v>169</v>
       </c>
       <c r="D119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H119" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15881,22 +15893,22 @@
         <v>171</v>
       </c>
       <c r="D120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G120" s="102">
         <v>2.11</v>
       </c>
       <c r="H120" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15906,22 +15918,22 @@
         <v>170</v>
       </c>
       <c r="D121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G121" s="102">
         <v>2.11</v>
       </c>
       <c r="H121" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15931,23 +15943,23 @@
         <v>169</v>
       </c>
       <c r="D122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H122" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15959,23 +15971,23 @@
         <v>169</v>
       </c>
       <c r="D123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="E123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="F123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="G123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1.1025</v>
       </c>
       <c r="H123" s="102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -16001,19 +16013,19 @@
         <v>1</v>
       </c>
       <c r="E125" s="102">
-        <f t="shared" ref="E125:H125" si="25">IF(E19=1,1,E19*1.05)</f>
+        <f t="shared" ref="E125:H125" si="10">IF(E19=1,1,E19*1.05)</f>
         <v>1</v>
       </c>
       <c r="F125" s="102">
-        <f t="shared" si="25"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G125" s="102">
-        <f t="shared" si="25"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="H125" s="102">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -16023,23 +16035,23 @@
         <v>170</v>
       </c>
       <c r="D126" s="102">
-        <f t="shared" ref="D126:H140" si="26">IF(D20=1,1,D20*1.05)</f>
+        <f t="shared" ref="D126:H140" si="11">IF(D20=1,1,D20*1.05)</f>
         <v>1</v>
       </c>
       <c r="E126" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F126" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G126" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0289999999999999</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H126" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16049,23 +16061,23 @@
         <v>169</v>
       </c>
       <c r="D127" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E127" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F127" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G127" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H127" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16077,23 +16089,23 @@
         <v>171</v>
       </c>
       <c r="D128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H128" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16103,23 +16115,23 @@
         <v>170</v>
       </c>
       <c r="D129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H129" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16129,23 +16141,23 @@
         <v>169</v>
       </c>
       <c r="D130" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E130" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F130" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G130" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H130" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16157,23 +16169,23 @@
         <v>171</v>
       </c>
       <c r="D131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H131" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16183,23 +16195,23 @@
         <v>170</v>
       </c>
       <c r="D132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H132" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16209,23 +16221,23 @@
         <v>169</v>
       </c>
       <c r="D133" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E133" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F133" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G133" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H133" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16237,23 +16249,23 @@
         <v>171</v>
       </c>
       <c r="D134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F134" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H134" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16263,23 +16275,23 @@
         <v>170</v>
       </c>
       <c r="D135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F135" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H135" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16289,23 +16301,23 @@
         <v>169</v>
       </c>
       <c r="D136" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E136" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F136" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G136" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H136" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16317,23 +16329,23 @@
         <v>171</v>
       </c>
       <c r="D137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G137" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H137" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16343,23 +16355,23 @@
         <v>170</v>
       </c>
       <c r="D138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G138" s="102">
-        <f t="shared" si="26"/>
-        <v>0.81900000000000006</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H138" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16369,23 +16381,23 @@
         <v>169</v>
       </c>
       <c r="D139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G139" s="102">
-        <f t="shared" si="26"/>
-        <v>1.0395000000000001</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H139" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16397,23 +16409,23 @@
         <v>169</v>
       </c>
       <c r="D140" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E140" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F140" s="102">
-        <f t="shared" si="26"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="G140" s="102">
-        <f t="shared" si="26"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H140" s="102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16435,24 +16447,24 @@
         <v>171</v>
       </c>
       <c r="D142" s="102">
-        <f>D36*1.05</f>
-        <v>1.05</v>
+        <f>IF(D36=1,1,D36*1.05)</f>
+        <v>1</v>
       </c>
       <c r="E142" s="102">
-        <f>E36*1.05</f>
-        <v>1.05</v>
+        <f t="shared" ref="E142:H142" si="12">IF(E36=1,1,E36*1.05)</f>
+        <v>1</v>
       </c>
       <c r="F142" s="102">
-        <f t="shared" ref="F142:H142" si="27">F36*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="G142" s="102">
-        <f t="shared" si="27"/>
-        <v>1.05</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="H142" s="102">
-        <f t="shared" si="27"/>
-        <v>1.05</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -16461,24 +16473,24 @@
         <v>170</v>
       </c>
       <c r="D143" s="102">
-        <f t="shared" ref="D143:H143" si="28">D37*1.05</f>
-        <v>1.05</v>
+        <f t="shared" ref="D143:H157" si="13">IF(D37=1,1,D37*1.05)</f>
+        <v>1</v>
       </c>
       <c r="E143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H143" s="102">
-        <f t="shared" si="28"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -16487,24 +16499,24 @@
         <v>169</v>
       </c>
       <c r="D144" s="102">
-        <f t="shared" ref="D144:H144" si="29">D38*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H144" s="102">
-        <f t="shared" si="29"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
@@ -16515,24 +16527,24 @@
         <v>171</v>
       </c>
       <c r="D145" s="102">
-        <f t="shared" ref="D145:H145" si="30">D39*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H145" s="102">
-        <f t="shared" si="30"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
@@ -16541,24 +16553,24 @@
         <v>170</v>
       </c>
       <c r="D146" s="102">
-        <f t="shared" ref="D146:H146" si="31">D40*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H146" s="102">
-        <f t="shared" si="31"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
@@ -16567,24 +16579,24 @@
         <v>169</v>
       </c>
       <c r="D147" s="102">
-        <f t="shared" ref="D147:H147" si="32">D41*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H147" s="102">
-        <f t="shared" si="32"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
@@ -16595,24 +16607,24 @@
         <v>171</v>
       </c>
       <c r="D148" s="102">
-        <f t="shared" ref="D148:H148" si="33">D42*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H148" s="102">
-        <f t="shared" si="33"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
@@ -16621,24 +16633,24 @@
         <v>170</v>
       </c>
       <c r="D149" s="102">
-        <f t="shared" ref="D149:H149" si="34">D43*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H149" s="102">
-        <f t="shared" si="34"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
@@ -16647,24 +16659,24 @@
         <v>169</v>
       </c>
       <c r="D150" s="102">
-        <f t="shared" ref="D150:H150" si="35">D44*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H150" s="102">
-        <f t="shared" si="35"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
@@ -16675,24 +16687,24 @@
         <v>171</v>
       </c>
       <c r="D151" s="102">
-        <f t="shared" ref="D151:H151" si="36">D45*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H151" s="102">
-        <f t="shared" si="36"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
@@ -16701,24 +16713,24 @@
         <v>170</v>
       </c>
       <c r="D152" s="102">
-        <f t="shared" ref="D152:H152" si="37">D46*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H152" s="102">
-        <f t="shared" si="37"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
@@ -16727,24 +16739,24 @@
         <v>169</v>
       </c>
       <c r="D153" s="102">
-        <f t="shared" ref="D153:H153" si="38">D47*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H153" s="102">
-        <f t="shared" si="38"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
@@ -16755,24 +16767,24 @@
         <v>171</v>
       </c>
       <c r="D154" s="102">
-        <f t="shared" ref="D154:H154" si="39">D48*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H154" s="102">
-        <f t="shared" si="39"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
@@ -16781,24 +16793,24 @@
         <v>170</v>
       </c>
       <c r="D155" s="102">
-        <f t="shared" ref="D155:H155" si="40">D49*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.9110000000000003</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H155" s="102">
-        <f t="shared" si="40"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
@@ -16807,24 +16819,24 @@
         <v>169</v>
       </c>
       <c r="D156" s="102">
-        <f t="shared" ref="D156:H156" si="41">D50*1.05</f>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H156" s="102">
-        <f t="shared" si="41"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
@@ -16835,28 +16847,28 @@
         <v>169</v>
       </c>
       <c r="D157" s="102">
-        <f t="shared" ref="D157:H157" si="42">D51*1.05</f>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="E157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="G157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.1025</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="H157" s="102">
-        <f t="shared" si="42"/>
-        <v>1.05</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IWoiLePC2Hgw/zVdkU9Ry4NH2BFf6UymJu4VJ77c56ghs7ONicX9DG7lwetcnfmKBRkMFyzNlezBzSSj6DYt0Q==" saltValue="dC0fCPVl9MISnrrWOFSnSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z2Sh+MfQ/G4PueXRb8ZAtgj1nRGg65nslXBdmZZPRKgG1MxLre5J049ZmSpV+GTE/exeFs0taEhwHmOHXGbVug==" saltValue="5dHL9O3+Ennr8+ewoDPI6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -16906,7 +16918,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D158:H158 D89 H104 D90:H103 D104:G104 E89:H89 D142:H157" unlockedFormula="1"/>
+    <ignoredError sqref="D158:H158" unlockedFormula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -16920,7 +16932,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18125,7 +18137,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UalIKbPJyu13xlbHmeyhXX2zZj40FsypWf2ATJ1yYcuEpzFuKF1sVwxwXNGsINTJJ71sukAjwQTLF3+QslSClw==" saltValue="3QQ1TEoO2Dyu8i7vcyMPJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y1y9pzSdsXEkqXGrxUslApPlUyRm1K3gWiZxSNflT5x235fPIOcH1mWFjPz4CvV0NW3Duc4lh++NKK5IOy70lg==" saltValue="05rw7z+TFvARV0cPRkHu/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18138,8 +18150,8 @@
   </sheetPr>
   <dimension ref="A1:P328"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -26280,7 +26292,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -26378,12 +26390,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.64, (0.64*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.64*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.64, (0.64*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.64*SUM('Nutritional status distribution'!$E$4:$E$5)))
+/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
         <v>0.58983967886464039</v>
       </c>
       <c r="F6" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.64, (0.64*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.64*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.58983967886464039</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!$F$4),0.64, (0.64*SUM('Nutritional status distribution'!$F$4:$F$5)/(1-0.64*SUM('Nutritional status distribution'!$F$4:$F$5)))/ (SUM('Nutritional status distribution'!$F$4:$F$5)/(1-SUM('Nutritional status distribution'!$F$4:$F$5))))</f>
+        <v>0.52474827695613546</v>
       </c>
       <c r="G6" s="104">
         <v>1</v>
@@ -26404,8 +26417,8 @@
         <v>0.85574238427686589</v>
       </c>
       <c r="F7" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.88, (0.88*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.88*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.85574238427686589</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!$F$4),0.88, (0.88*SUM('Nutritional status distribution'!$F$4:$F$5)/(1-0.88*SUM('Nutritional status distribution'!$F$4:$F$5)))/ (SUM('Nutritional status distribution'!$F$4:$F$5)/(1-SUM('Nutritional status distribution'!$F$4:$F$5))))</f>
+        <v>0.81996938552863874</v>
       </c>
       <c r="G7" s="104">
         <v>1</v>
@@ -26426,8 +26439,8 @@
         <v>0.85574238427686589</v>
       </c>
       <c r="F8" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.88, (0.88*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.88*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.85574238427686589</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!$F$4),0.88, (0.88*SUM('Nutritional status distribution'!$F$4:$F$5)/(1-0.88*SUM('Nutritional status distribution'!$F$4:$F$5)))/ (SUM('Nutritional status distribution'!$F$4:$F$5)/(1-SUM('Nutritional status distribution'!$F$4:$F$5))))</f>
+        <v>0.81996938552863874</v>
       </c>
       <c r="G8" s="104">
         <v>1</v>
@@ -26705,12 +26718,12 @@
         <v>1</v>
       </c>
       <c r="E29" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.44, (0.44*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.44*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.44, (0.44*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.44*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
         <v>0.38859461375301474</v>
       </c>
       <c r="F29" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.44, (0.44*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.44*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.38859461375301474</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.44, (0.44*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.44*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
+        <v>0.32795428705435947</v>
       </c>
       <c r="G29" s="104">
         <f t="shared" si="2"/>
@@ -26730,12 +26743,12 @@
         <v>1</v>
       </c>
       <c r="E30" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.85, (0.85*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.85*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.85, (0.85*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.85*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
         <v>0.82091214070727592</v>
       </c>
       <c r="F30" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.85, (0.85*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.85*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.82091214070727592</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.85, (0.85*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.85*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
+        <v>0.77873521514816446</v>
       </c>
       <c r="G30" s="104">
         <f t="shared" si="3"/>
@@ -26755,12 +26768,12 @@
         <v>1</v>
       </c>
       <c r="E31" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.85, (0.85*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.85*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.85, (0.85*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.85*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
         <v>0.82091214070727592</v>
       </c>
       <c r="F31" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.85, (0.85*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.85*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.82091214070727592</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.85, (0.85*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.85*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
+        <v>0.77873521514816446</v>
       </c>
       <c r="G31" s="104">
         <f t="shared" si="3"/>
@@ -27082,12 +27095,12 @@
         <v>1</v>
       </c>
       <c r="E52" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.92, (0.92*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.92*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.92, (0.92*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.92*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
         <v>0.90293638807901733</v>
       </c>
       <c r="F52" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.92, (0.92*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.92*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.90293638807901733</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.92, (0.92*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.92*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
+        <v>0.87718696072640712</v>
       </c>
       <c r="G52" s="104">
         <f t="shared" si="8"/>
@@ -27107,12 +27120,12 @@
         <v>1</v>
       </c>
       <c r="E53" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.91, (0.91*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.91*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.91, (0.91*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.91*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
         <v>0.89105601510511334</v>
       </c>
       <c r="F53" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.91, (0.91*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.91*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.89105601510511334</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.91, (0.91*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.91*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
+        <v>0.86263438509246337</v>
       </c>
       <c r="G53" s="104">
         <f t="shared" si="9"/>
@@ -27132,12 +27145,12 @@
         <v>1</v>
       </c>
       <c r="E54" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.91, (0.91*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.91*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
+        <f>IF(ISBLANK('Nutritional status distribution'!E$4),0.91, (0.91*SUM('Nutritional status distribution'!E$4:E$5)/(1-0.91*SUM('Nutritional status distribution'!E$4:E$5)))/ (SUM('Nutritional status distribution'!E$4:E$5)/(1-SUM('Nutritional status distribution'!E$4:E$5))))</f>
         <v>0.89105601510511334</v>
       </c>
       <c r="F54" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!$E$4),0.91, (0.91*SUM('Nutritional status distribution'!$E$4:$E$5)/(1-0.91*SUM('Nutritional status distribution'!$E$4:$E$5)))/ (SUM('Nutritional status distribution'!$E$4:$E$5)/(1-SUM('Nutritional status distribution'!$E$4:$E$5))))</f>
-        <v>0.89105601510511334</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!F$4),0.91, (0.91*SUM('Nutritional status distribution'!F$4:F$5)/(1-0.91*SUM('Nutritional status distribution'!F$4:F$5)))/ (SUM('Nutritional status distribution'!F$4:F$5)/(1-SUM('Nutritional status distribution'!F$4:F$5))))</f>
+        <v>0.86263438509246337</v>
       </c>
       <c r="G54" s="104">
         <f t="shared" si="9"/>
@@ -27355,7 +27368,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q87QzKhzgOe+nb8nwLaL2TJbX/PCpQyLDncMoVJ9OZ5/uImvumBawcaDvrqPnpyLZfIdRRL77KBlBwhTTfixNQ==" saltValue="/5XM/rTMDWeyfKpXoQoJWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RRcVIjmLfKs0C2pdMWpHVrpM0/aRn2xTRxydjU+VK9NQSfcLbirGnPriKjFoiXPhnKFYf1XrRtFzyy0VBJjUUQ==" saltValue="oXPq6TrovkgcDCZW9vbUGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -27369,8 +27382,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27408,10 +27421,10 @@
         <v>253</v>
       </c>
       <c r="C2" s="104">
-        <v>0.71</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D2" s="104">
-        <v>0.71</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E2" s="104">
         <v>0</v>
@@ -27446,10 +27459,10 @@
         <v>253</v>
       </c>
       <c r="C4" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="D4" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="E4" s="104">
         <v>0</v>
@@ -27484,10 +27497,10 @@
         <v>253</v>
       </c>
       <c r="C6" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="D6" s="104">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="E6" s="104">
         <v>0</v>
@@ -27598,12 +27611,12 @@
         <v>253</v>
       </c>
       <c r="C12" s="104">
-        <f>0.93*C4</f>
-        <v>0.36270000000000002</v>
+        <f>1-0.93*0.39</f>
+        <v>0.63729999999999998</v>
       </c>
       <c r="D12" s="104">
-        <f>0.93*D4</f>
-        <v>0.36270000000000002</v>
+        <f>1-0.93*0.39</f>
+        <v>0.63729999999999998</v>
       </c>
       <c r="E12" s="104">
         <v>0</v>
@@ -27661,10 +27674,12 @@
         <v>253</v>
       </c>
       <c r="C17" s="104">
-        <v>0.54</v>
+        <f>1-0.94</f>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="D17" s="104">
-        <v>0.54</v>
+        <f>1-0.94</f>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="E17" s="104">
         <f t="shared" ref="E17:F17" si="0">E2*0.9</f>
@@ -27701,10 +27716,12 @@
         <v>253</v>
       </c>
       <c r="C19" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D19" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E19" s="104">
         <f t="shared" ref="E19:F19" si="1">E4*0.9</f>
@@ -27741,10 +27758,12 @@
         <v>253</v>
       </c>
       <c r="C21" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D21" s="104">
-        <v>0.17</v>
+        <f>1-0.86</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E21" s="104">
         <f t="shared" ref="E21:F21" si="2">E6*0.9</f>
@@ -27781,15 +27800,15 @@
         <v>253</v>
       </c>
       <c r="C23" s="104">
-        <f>C10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="D23" s="104">
-        <f t="shared" ref="D23:F23" si="3">D10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="E23" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E23:F23" si="3">E10*0.9</f>
         <v>0</v>
       </c>
       <c r="F23" s="104">
@@ -27823,15 +27842,15 @@
         <v>253</v>
       </c>
       <c r="C25" s="104">
-        <f>C10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="D25" s="104">
-        <f t="shared" ref="D25:F25" si="4">D10*0.9</f>
-        <v>0.315</v>
+        <f>1-0.77</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="E25" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E25:F25" si="4">E10*0.9</f>
         <v>0</v>
       </c>
       <c r="F25" s="104">
@@ -27865,12 +27884,12 @@
         <v>253</v>
       </c>
       <c r="C27" s="104">
-        <f>0.93*C19</f>
-        <v>0.15810000000000002</v>
+        <f>1-0.98*0.86</f>
+        <v>0.15720000000000001</v>
       </c>
       <c r="D27" s="104">
-        <f>0.93*D19</f>
-        <v>0.15810000000000002</v>
+        <f>1-0.98*0.86</f>
+        <v>0.15720000000000001</v>
       </c>
       <c r="E27" s="104">
         <f t="shared" ref="E27:F27" si="5">E12*0.9</f>
@@ -27930,10 +27949,12 @@
         <v>253</v>
       </c>
       <c r="C32" s="104">
-        <v>0.94</v>
+        <f>1-0.54</f>
+        <v>0.45999999999999996</v>
       </c>
       <c r="D32" s="104">
-        <v>0.94</v>
+        <f>1-0.54</f>
+        <v>0.45999999999999996</v>
       </c>
       <c r="E32" s="104">
         <f t="shared" ref="E32:F32" si="6">E2*1.1</f>
@@ -27970,10 +27991,12 @@
         <v>253</v>
       </c>
       <c r="C34" s="104">
-        <v>0.86</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="D34" s="104">
-        <v>0.86</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="E34" s="104">
         <f t="shared" ref="E34:F34" si="7">E4*1.1</f>
@@ -28010,15 +28033,15 @@
         <v>253</v>
       </c>
       <c r="C36" s="104">
-        <f>C6*1.1</f>
-        <v>0.42900000000000005</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="D36" s="104">
-        <f t="shared" ref="D36:F36" si="8">D6*1.1</f>
-        <v>0.42900000000000005</v>
+        <f>1-0.17</f>
+        <v>0.83</v>
       </c>
       <c r="E36" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E36:F36" si="8">E6*1.1</f>
         <v>0</v>
       </c>
       <c r="F36" s="104">
@@ -28052,15 +28075,15 @@
         <v>253</v>
       </c>
       <c r="C38" s="104">
-        <f>C8*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="D38" s="104">
-        <f t="shared" ref="D38:F38" si="9">D8*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E38" s="104">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E38:F38" si="9">E8*1.1</f>
         <v>0</v>
       </c>
       <c r="F38" s="104">
@@ -28094,15 +28117,15 @@
         <v>253</v>
       </c>
       <c r="C40" s="104">
-        <f>C10*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="D40" s="104">
-        <f t="shared" ref="D40:F40" si="10">D10*1.1</f>
-        <v>0.38500000000000001</v>
+        <f>1-0.55</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E40" s="104">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E40:F40" si="10">E10*1.1</f>
         <v>0</v>
       </c>
       <c r="F40" s="104">
@@ -28136,12 +28159,12 @@
         <v>253</v>
       </c>
       <c r="C42" s="104">
-        <f>0.93*C34</f>
-        <v>0.79980000000000007</v>
+        <f>1-0.88*0.17</f>
+        <v>0.85040000000000004</v>
       </c>
       <c r="D42" s="104">
-        <f>0.93*D34</f>
-        <v>0.79980000000000007</v>
+        <f>1-0.88*0.17</f>
+        <v>0.85040000000000004</v>
       </c>
       <c r="E42" s="104">
         <f t="shared" ref="E42:F42" si="11">E12*1.1</f>
@@ -28171,7 +28194,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2jJANxwZ4t5c6bB8zpWUYS65kFqIn1nZy/FMhbZKu5JjZe7JMZfkxjrT7hhTOcDV6i+TjtUgqROnMLoDkr6ghw==" saltValue="7kysB53uhJN8jFx8asaf9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SwlIz2oyAgc9fGTC4ZRPUXZ3dPEas3y13bZRX4sKDita4RXLUDDh84fXpEO704Lfu62ulNL1ggOQ+3tAtfbt7A==" saltValue="kgDQMqS+ZPfkLR54CYu5JA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -28185,7 +28208,7 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -28496,16 +28519,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="M8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="N8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="O8" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -28540,16 +28563,16 @@
         <v>1</v>
       </c>
       <c r="L9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="M9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="N9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="O9" s="104">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -28760,16 +28783,16 @@
         <v>1</v>
       </c>
       <c r="L14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="M14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="N14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="O14" s="104">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -28783,10 +28806,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="104">
-        <v>0.84</v>
+        <v>0.36</v>
       </c>
       <c r="F15" s="104">
-        <v>0.84</v>
+        <v>0.36</v>
       </c>
       <c r="G15" s="104">
         <v>1</v>
@@ -29100,15 +29123,13 @@
         <v>144</v>
       </c>
       <c r="C26" s="104">
-        <f>IF(C3=1,1,C3*0.9)</f>
-        <v>0.47700000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="D26" s="104">
-        <f t="shared" ref="D26:O26" si="0">IF(D3=1,1,D3*0.9)</f>
-        <v>0.47700000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="E26" s="104">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E26:O26" si="0">IF(E3=1,1,E3*0.9)</f>
         <v>1</v>
       </c>
       <c r="F26" s="104">
@@ -29157,7 +29178,7 @@
         <v>183</v>
       </c>
       <c r="C27" s="104">
-        <f t="shared" ref="C27:O38" si="1">IF(C4=1,1,C4*0.9)</f>
+        <f t="shared" ref="C27:O34" si="1">IF(C4=1,1,C4*0.9)</f>
         <v>1</v>
       </c>
       <c r="D27" s="104">
@@ -29177,20 +29198,16 @@
         <v>1</v>
       </c>
       <c r="H27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K27" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L27" s="104">
         <f t="shared" si="1"/>
@@ -29234,20 +29251,16 @@
         <v>1</v>
       </c>
       <c r="H28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K28" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L28" s="104">
         <f t="shared" si="1"/>
@@ -29291,20 +29304,16 @@
         <v>1</v>
       </c>
       <c r="H29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K29" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L29" s="104">
         <f t="shared" si="1"/>
@@ -29348,20 +29357,16 @@
         <v>1</v>
       </c>
       <c r="H30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K30" s="104">
-        <f t="shared" si="1"/>
-        <v>0.65700000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L30" s="104">
         <f t="shared" si="1"/>
@@ -29421,20 +29426,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="M31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="N31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="O31" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -29478,20 +29479,16 @@
         <v>1</v>
       </c>
       <c r="L32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="M32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="N32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
       <c r="O32" s="104">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -29535,20 +29532,16 @@
         <v>1</v>
       </c>
       <c r="L33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="M33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="N33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="O33" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -29564,15 +29557,12 @@
         <v>1</v>
       </c>
       <c r="E34" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="F34" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="G34" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H34" s="104">
@@ -29613,56 +29603,43 @@
         <v>34</v>
       </c>
       <c r="C35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="D35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="E35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="F35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="G35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="H35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="I35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="J35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="K35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="L35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="M35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="N35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
       <c r="O35" s="104">
-        <f t="shared" si="1"/>
-        <v>0.747</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -29670,55 +29647,52 @@
         <v>132</v>
       </c>
       <c r="C36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C36:O38" si="2">IF(C13=1,1,C13*0.9)</f>
         <v>1</v>
       </c>
       <c r="D36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E36" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="F36" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="G36" s="104">
-        <f t="shared" si="1"/>
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="H36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O36" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -29727,56 +29701,56 @@
         <v>59</v>
       </c>
       <c r="C37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K37" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f>L32</f>
+        <v>0.38</v>
       </c>
       <c r="M37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f t="shared" ref="M37:O37" si="3">M32</f>
+        <v>0.38</v>
       </c>
       <c r="N37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.38</v>
       </c>
       <c r="O37" s="104">
-        <f t="shared" si="1"/>
-        <v>0.29700000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.38</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -29784,55 +29758,53 @@
         <v>337</v>
       </c>
       <c r="C38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E38" s="104">
-        <f t="shared" si="1"/>
-        <v>0.75600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F38" s="104">
-        <f t="shared" si="1"/>
-        <v>0.75600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="G38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O38" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -29847,55 +29819,55 @@
         <v>63</v>
       </c>
       <c r="C41" s="104">
-        <f>IF(C18=1,1,C18*0.9)</f>
+        <f t="shared" ref="C41:O44" si="4">IF(C18=1,1,C18*0.9)</f>
         <v>1</v>
       </c>
       <c r="D41" s="104">
-        <f t="shared" ref="D41:O41" si="2">IF(D18=1,1,D18*0.9)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O41" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -29904,11 +29876,11 @@
         <v>64</v>
       </c>
       <c r="C42" s="104">
-        <f t="shared" ref="C42:O44" si="3">IF(C19=1,1,C19*0.9)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D42" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E42" s="104">
@@ -29972,55 +29944,55 @@
         <v>62</v>
       </c>
       <c r="C43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O43" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -30029,11 +30001,11 @@
         <v>47</v>
       </c>
       <c r="C44" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D44" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E44" s="104">
@@ -30150,55 +30122,53 @@
         <v>144</v>
       </c>
       <c r="C49" s="104">
-        <f>IF(C3=1,1,C3*1.05)</f>
-        <v>0.55650000000000011</v>
+        <v>0.7</v>
       </c>
       <c r="D49" s="104">
-        <f t="shared" ref="D49:O49" si="4">IF(D3=1,1,D3*1.05)</f>
-        <v>0.55650000000000011</v>
+        <v>0.7</v>
       </c>
       <c r="E49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E49:O49" si="5">IF(E3=1,1,E3*1.05)</f>
         <v>1</v>
       </c>
       <c r="F49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O49" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30207,55 +30177,51 @@
         <v>183</v>
       </c>
       <c r="C50" s="104">
-        <f t="shared" ref="C50:O61" si="5">IF(C4=1,1,C4*1.05)</f>
+        <f t="shared" ref="C50:O57" si="6">IF(C4=1,1,C4*1.05)</f>
         <v>1</v>
       </c>
       <c r="D50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K50" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O50" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30264,55 +30230,51 @@
         <v>201</v>
       </c>
       <c r="C51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K51" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O51" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30321,55 +30283,51 @@
         <v>184</v>
       </c>
       <c r="C52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K52" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O52" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30378,55 +30336,51 @@
         <v>185</v>
       </c>
       <c r="C53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="J53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="K53" s="104">
-        <f t="shared" si="5"/>
-        <v>0.76649999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="L53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O53" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30435,56 +30389,52 @@
         <v>182</v>
       </c>
       <c r="C54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K54" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="N54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="O54" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -30492,56 +30442,52 @@
         <v>202</v>
       </c>
       <c r="C55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K55" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="M55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="N55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="O55" s="104">
-        <f t="shared" si="5"/>
-        <v>0.51449999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -30549,56 +30495,52 @@
         <v>57</v>
       </c>
       <c r="C56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K56" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="M56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="N56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="O56" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -30606,55 +30548,53 @@
         <v>131</v>
       </c>
       <c r="C57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E57" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="F57" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="G57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O57" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30663,56 +30603,43 @@
         <v>34</v>
       </c>
       <c r="C58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="D58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="E58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="F58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="G58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="H58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="I58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="J58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="K58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="L58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="M58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="N58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="O58" s="104">
-        <f t="shared" si="5"/>
-        <v>0.87149999999999994</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -30720,55 +30647,52 @@
         <v>132</v>
       </c>
       <c r="C59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C59:O61" si="7">IF(C13=1,1,C13*1.05)</f>
         <v>1</v>
       </c>
       <c r="D59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E59" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="F59" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="G59" s="104">
-        <f t="shared" si="5"/>
-        <v>0.72449999999999992</v>
+        <v>0.77</v>
       </c>
       <c r="H59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O59" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -30777,56 +30701,56 @@
         <v>59</v>
       </c>
       <c r="C60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K60" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f>L54</f>
+        <v>0.7</v>
       </c>
       <c r="M60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f t="shared" ref="M60:O60" si="8">M54</f>
+        <v>0.7</v>
       </c>
       <c r="N60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f t="shared" si="8"/>
+        <v>0.7</v>
       </c>
       <c r="O60" s="104">
-        <f t="shared" si="5"/>
-        <v>0.34650000000000003</v>
+        <f t="shared" si="8"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -30834,55 +30758,53 @@
         <v>337</v>
       </c>
       <c r="C61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E61" s="104">
-        <f t="shared" si="5"/>
-        <v>0.88200000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="F61" s="104">
-        <f t="shared" si="5"/>
-        <v>0.88200000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="G61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O61" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -30897,55 +30819,55 @@
         <v>63</v>
       </c>
       <c r="C64" s="104">
-        <f>IF(C18=1,1,C18*1.05)</f>
+        <f t="shared" ref="C64:O67" si="9">IF(C18=1,1,C18*1.05)</f>
         <v>1</v>
       </c>
       <c r="D64" s="104">
-        <f t="shared" ref="D64:O64" si="6">IF(D18=1,1,D18*1.05)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O64" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -30954,11 +30876,11 @@
         <v>64</v>
       </c>
       <c r="C65" s="104">
-        <f t="shared" ref="C65:O67" si="7">IF(C19=1,1,C19*1.05)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D65" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E65" s="104">
@@ -31022,55 +30944,55 @@
         <v>62</v>
       </c>
       <c r="C66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O66" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -31079,11 +31001,11 @@
         <v>47</v>
       </c>
       <c r="C67" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D67" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E67" s="104">
@@ -31143,7 +31065,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1dhT3oNKXbNW7aRQs0YbQEoPK8RSqIIIcplnLg2AWqJTHDIPuuiKwJgrFQ4JT0B8zAr1NGb2nOG3Vy1rerJe6A==" saltValue="tfOZq1LjoXihgBNyAmmT6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="N+n+/f56Ytt4Zdtdkl9LD5Psm+aThtTeGniiYNpy38QQpuOJS7l8Tee/x8eWmhUO5SRkjG7Crwmz8nN1OxdIdg==" saltValue="tKaGFvfVqgmxaw5ihpNiVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -31157,7 +31079,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -31200,24 +31122,24 @@
         <v>1</v>
       </c>
       <c r="D3" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$11),0.86,(0.86*'Nutritional status distribution'!D$11/(1-0.86*'Nutritional status distribution'!D$11))
+        <f>IF(ISBLANK('Nutritional status distribution'!D$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!D$11/(1-(1/1.33)*'Nutritional status distribution'!D$11))
 / ('Nutritional status distribution'!D$11/(1-'Nutritional status distribution'!D$11)))</f>
-        <v>0.85501242750621365</v>
+        <v>0.74418604651162779</v>
       </c>
       <c r="E3" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$11),0.86,(0.86*'Nutritional status distribution'!E$11/(1-0.86*'Nutritional status distribution'!E$11))
+        <f>IF(ISBLANK('Nutritional status distribution'!E$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!E$11/(1-(1/1.33)*'Nutritional status distribution'!E$11))
 / ('Nutritional status distribution'!E$11/(1-'Nutritional status distribution'!E$11)))</f>
-        <v>0.85808073922946126</v>
+        <v>0.74891097206376045</v>
       </c>
       <c r="F3" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$11),0.86,(0.86*'Nutritional status distribution'!F$11/(1-0.86*'Nutritional status distribution'!F$11))
+        <f>IF(ISBLANK('Nutritional status distribution'!F$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!F$11/(1-(1/1.33)*'Nutritional status distribution'!F$11))
 / ('Nutritional status distribution'!F$11/(1-'Nutritional status distribution'!F$11)))</f>
-        <v>0.85877386651825993</v>
+        <v>0.74998192742905989</v>
       </c>
       <c r="G3" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$11),0.86,(0.86*'Nutritional status distribution'!G$11/(1-0.86*'Nutritional status distribution'!G$11))
+        <f>IF(ISBLANK('Nutritional status distribution'!G$11),(1/1.33),((1/1.33)*'Nutritional status distribution'!G$11/(1-(1/1.33)*'Nutritional status distribution'!G$11))
 / ('Nutritional status distribution'!G$11/(1-'Nutritional status distribution'!G$11)))</f>
-        <v>0.85911132126749401</v>
+        <v>0.75050381305965674</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -31239,24 +31161,24 @@
         <v>1</v>
       </c>
       <c r="D5" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!D$10),0.86,(0.86*'Nutritional status distribution'!D$10/(1-0.86*'Nutritional status distribution'!D$10))
+        <f>IF(ISBLANK('Nutritional status distribution'!D$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!D$10/(1-(1/1.33)*'Nutritional status distribution'!D$10))
 / ('Nutritional status distribution'!D$10/(1-'Nutritional status distribution'!D$10)))</f>
-        <v>0.85318176097990694</v>
+        <v>0.74137931034482751</v>
       </c>
       <c r="E5" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!E$10),0.86,(0.86*'Nutritional status distribution'!E$10/(1-0.86*'Nutritional status distribution'!E$10))
+        <f>IF(ISBLANK('Nutritional status distribution'!E$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!E$10/(1-(1/1.33)*'Nutritional status distribution'!E$10))
 / ('Nutritional status distribution'!E$10/(1-'Nutritional status distribution'!E$10)))</f>
-        <v>0.85317877313988577</v>
+        <v>0.74137473695379219</v>
       </c>
       <c r="F5" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!F$10),0.86,(0.86*'Nutritional status distribution'!F$10/(1-0.86*'Nutritional status distribution'!F$10))
+        <f>IF(ISBLANK('Nutritional status distribution'!F$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!F$10/(1-(1/1.33)*'Nutritional status distribution'!F$10))
 / ('Nutritional status distribution'!F$10/(1-'Nutritional status distribution'!F$10)))</f>
-        <v>0.8546826900993596</v>
+        <v>0.74367982247882258</v>
       </c>
       <c r="G5" s="104">
-        <f>IF(ISBLANK('Nutritional status distribution'!G$10),0.86,(0.86*'Nutritional status distribution'!G$10/(1-0.86*'Nutritional status distribution'!G$10))
+        <f>IF(ISBLANK('Nutritional status distribution'!G$10),(1/1.33),((1/1.33)*'Nutritional status distribution'!G$10/(1-(1/1.33)*'Nutritional status distribution'!G$10))
 / ('Nutritional status distribution'!G$10/(1-'Nutritional status distribution'!G$10)))</f>
-        <v>0.85725874437876104</v>
+        <v>0.74764262641695323</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -31293,24 +31215,27 @@
         <v>67</v>
       </c>
       <c r="C10" s="104">
-        <f>C3*0.9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D10" s="104">
-        <f t="shared" ref="D10:G10" si="0">D3*0.9</f>
-        <v>0.76951118475559233</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!D$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!D$11/(1-(1/1.54)*'Nutritional status distribution'!D$11))
+/ ('Nutritional status distribution'!D$11/(1-'Nutritional status distribution'!D$11)))</f>
+        <v>0.64</v>
       </c>
       <c r="E10" s="104">
-        <f t="shared" si="0"/>
-        <v>0.77227266530651517</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!E$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!E$11/(1-(1/1.54)*'Nutritional status distribution'!E$11))
+/ ('Nutritional status distribution'!E$11/(1-'Nutritional status distribution'!E$11)))</f>
+        <v>0.64573318763423793</v>
       </c>
       <c r="F10" s="104">
-        <f t="shared" si="0"/>
-        <v>0.77289647986643395</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!F$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!F$11/(1-(1/1.54)*'Nutritional status distribution'!F$11))
+/ ('Nutritional status distribution'!F$11/(1-'Nutritional status distribution'!F$11)))</f>
+        <v>0.64703681148148418</v>
       </c>
       <c r="G10" s="104">
-        <f t="shared" si="0"/>
-        <v>0.77320018914074462</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!G$11),(1/1.54),((1/1.54)*'Nutritional status distribution'!G$11/(1-(1/1.54)*'Nutritional status distribution'!G$11))
+/ ('Nutritional status distribution'!G$11/(1-'Nutritional status distribution'!G$11)))</f>
+        <v>0.64767263413148468</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -31329,24 +31254,27 @@
         <v>178</v>
       </c>
       <c r="C12" s="104">
-        <f>C5*0.9</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D12" s="104">
-        <f t="shared" ref="D12:G12" si="1">D5*0.9</f>
-        <v>0.76786358488191631</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!D$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!D$10/(1-(1/1.54)*'Nutritional status distribution'!D$10))
+/ ('Nutritional status distribution'!D$10/(1-'Nutritional status distribution'!D$10)))</f>
+        <v>0.63660834454912518</v>
       </c>
       <c r="E12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.76786089582589723</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!E$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!E$10/(1-(1/1.54)*'Nutritional status distribution'!E$10))
+/ ('Nutritional status distribution'!E$10/(1-'Nutritional status distribution'!E$10)))</f>
+        <v>0.63660282656050271</v>
       </c>
       <c r="F12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.76921442108942362</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!F$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!F$10/(1-(1/1.54)*'Nutritional status distribution'!F$10))
+/ ('Nutritional status distribution'!F$10/(1-'Nutritional status distribution'!F$10)))</f>
+        <v>0.6393875097491748</v>
       </c>
       <c r="G12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.77153286994088499</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!G$10),(1/1.54),((1/1.54)*'Nutritional status distribution'!G$10/(1-(1/1.54)*'Nutritional status distribution'!G$10))
+/ ('Nutritional status distribution'!G$10/(1-'Nutritional status distribution'!G$10)))</f>
+        <v>0.64419127013395971</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -31383,24 +31311,27 @@
         <v>67</v>
       </c>
       <c r="C17" s="104">
-        <f>C3*1.05</f>
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="D17" s="104">
-        <f t="shared" ref="D17:G17" si="2">D3*1.05</f>
-        <v>0.89776304888152436</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!D$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!D$11/(1-(1/1.16)*'Nutritional status distribution'!D$11))
+/ ('Nutritional status distribution'!D$11/(1-'Nutritional status distribution'!D$11)))</f>
+        <v>0.85714285714285721</v>
       </c>
       <c r="E17" s="104">
-        <f t="shared" si="2"/>
-        <v>0.90098477619093431</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!E$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!E$11/(1-(1/1.16)*'Nutritional status distribution'!E$11))
+/ ('Nutritional status distribution'!E$11/(1-'Nutritional status distribution'!E$11)))</f>
+        <v>0.86017345661971134</v>
       </c>
       <c r="F17" s="104">
-        <f t="shared" si="2"/>
-        <v>0.90171255984417298</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!F$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!F$11/(1-(1/1.16)*'Nutritional status distribution'!F$11))
+/ ('Nutritional status distribution'!F$11/(1-'Nutritional status distribution'!F$11)))</f>
+        <v>0.86085802051335469</v>
       </c>
       <c r="G17" s="104">
-        <f t="shared" si="2"/>
-        <v>0.90206688733086871</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!G$11),(1/1.16),((1/1.16)*'Nutritional status distribution'!G$11/(1-(1/1.16)*'Nutritional status distribution'!G$11))
+/ ('Nutritional status distribution'!G$11/(1-'Nutritional status distribution'!G$11)))</f>
+        <v>0.86119130020042822</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -31419,28 +31350,31 @@
         <v>178</v>
       </c>
       <c r="C19" s="104">
-        <f>C5*1.05</f>
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="D19" s="104">
-        <f t="shared" ref="D19:G19" si="3">D5*1.05</f>
-        <v>0.89584084902890238</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!D$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!D$10/(1-(1/1.16)*'Nutritional status distribution'!D$10))
+/ ('Nutritional status distribution'!D$10/(1-'Nutritional status distribution'!D$10)))</f>
+        <v>0.85533453887884281</v>
       </c>
       <c r="E19" s="104">
-        <f t="shared" si="3"/>
-        <v>0.8958377117968801</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!E$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!E$10/(1-(1/1.16)*'Nutritional status distribution'!E$10))
+/ ('Nutritional status distribution'!E$10/(1-'Nutritional status distribution'!E$10)))</f>
+        <v>0.85533158742052517</v>
       </c>
       <c r="F19" s="104">
-        <f t="shared" si="3"/>
-        <v>0.89741682460432759</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!F$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!F$10/(1-(1/1.16)*'Nutritional status distribution'!F$10))
+/ ('Nutritional status distribution'!F$10/(1-'Nutritional status distribution'!F$10)))</f>
+        <v>0.85681715347913645</v>
       </c>
       <c r="G19" s="104">
-        <f t="shared" si="3"/>
-        <v>0.90012168159769912</v>
+        <f>IF(ISBLANK('Nutritional status distribution'!G$10),(1/1.16),((1/1.16)*'Nutritional status distribution'!G$10/(1-(1/1.16)*'Nutritional status distribution'!G$10))
+/ ('Nutritional status distribution'!G$10/(1-'Nutritional status distribution'!G$10)))</f>
+        <v>0.8593615961490525</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qh8577GkxMlvcUqs9QPqoQnQNDduc7v4Y9fLy7NAt46Bs2LEY0k9ZEycdjG6wCkazt0xRo45olMJb1bVPH+sEQ==" saltValue="c/RWXiJy9xEtxF1fsoLznQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D/n64ebPOcYBlYgvmqJi+d8UjvkJ00ZumZJGyx+7UUjEyQdx7ttfIYOIPZofJztJMjUcYx/etIypw7zlhbQz2w==" saltValue="D3uUgGffYw8vKRFgBEjWKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -31453,8 +31387,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -31533,13 +31467,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="104">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
       <c r="G3" s="104">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
       <c r="H3" s="104">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31553,13 +31487,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="104">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
       <c r="G4" s="104">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
       <c r="H4" s="104">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -31777,10 +31711,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="104">
-        <v>0.69</v>
+        <v>0.31</v>
       </c>
       <c r="G14" s="104">
-        <v>0.69</v>
+        <v>0.31</v>
       </c>
       <c r="H14" s="104">
         <v>0</v>
@@ -31820,10 +31754,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="104">
-        <v>0.86</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G16" s="104">
-        <v>0.86</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H16" s="104">
         <v>0</v>
@@ -31866,13 +31800,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="104">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="G18" s="104">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="H18" s="104">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -31909,13 +31843,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="104">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G20" s="104">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H20" s="104">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -32417,19 +32351,19 @@
         <v>262</v>
       </c>
       <c r="D43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="E43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="G43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H43" s="104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -32437,19 +32371,19 @@
         <v>263</v>
       </c>
       <c r="D44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="F44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="G44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="H44" s="104">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -32460,19 +32394,19 @@
         <v>261</v>
       </c>
       <c r="D45" s="104">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H45" s="104">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -32526,19 +32460,19 @@
         <v>261</v>
       </c>
       <c r="D48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="E48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="H48" s="104">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -32546,19 +32480,19 @@
         <v>262</v>
       </c>
       <c r="D49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="E49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="F49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="G49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
       <c r="H49" s="104">
-        <v>0.78409090909090906</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32618,10 +32552,10 @@
         <v>261</v>
       </c>
       <c r="D52" s="104">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E52" s="104">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F52" s="104">
         <v>0</v>
@@ -32641,7 +32575,7 @@
         <v>0.51</v>
       </c>
       <c r="E53" s="104">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F53" s="104">
         <v>0</v>
@@ -32722,7 +32656,7 @@
         <v>262</v>
       </c>
       <c r="D58" s="104">
-        <f t="shared" ref="D58:H73" si="1">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*0.9))</f>
+        <f t="shared" ref="D58:E59" si="1">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*0.9))</f>
         <v>0</v>
       </c>
       <c r="E58" s="104">
@@ -32730,13 +32664,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="104">
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
       <c r="G58" s="104">
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
       <c r="H58" s="104">
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32752,13 +32686,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="104">
-        <v>0.82</v>
+        <v>0.13</v>
       </c>
       <c r="G59" s="104">
-        <v>0.82</v>
+        <v>0.13</v>
       </c>
       <c r="H59" s="104">
-        <v>0.82</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -32772,23 +32706,18 @@
         <v>261</v>
       </c>
       <c r="D60" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E60" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F60" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G60" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H60" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32797,23 +32726,18 @@
         <v>263</v>
       </c>
       <c r="D61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H61" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32825,23 +32749,18 @@
         <v>261</v>
       </c>
       <c r="D62" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E62" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F62" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G62" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H62" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32850,23 +32769,18 @@
         <v>263</v>
       </c>
       <c r="D63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H63" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32881,23 +32795,18 @@
         <v>261</v>
       </c>
       <c r="D64" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E64" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F64" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G64" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H64" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32906,23 +32815,18 @@
         <v>263</v>
       </c>
       <c r="D65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H65" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32934,23 +32838,18 @@
         <v>261</v>
       </c>
       <c r="D66" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E66" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F66" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G66" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H66" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32959,23 +32858,18 @@
         <v>263</v>
       </c>
       <c r="D67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H67" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32990,23 +32884,18 @@
         <v>261</v>
       </c>
       <c r="D68" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F68" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G68" s="104">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H68" s="104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -33015,7 +32904,7 @@
         <v>263</v>
       </c>
       <c r="D69" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D69:H77" si="2">IF($C14="Affected fraction",D14,IF(D14=1,1,D14*0.9))</f>
         <v>0</v>
       </c>
       <c r="E69" s="104">
@@ -33023,13 +32912,13 @@
         <v>0</v>
       </c>
       <c r="F69" s="104">
-        <v>0.55000000000000004</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G69" s="104">
-        <v>0.55000000000000004</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H69" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33041,23 +32930,23 @@
         <v>261</v>
       </c>
       <c r="D70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H70" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33066,21 +32955,21 @@
         <v>263</v>
       </c>
       <c r="D71" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E71" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F71" s="104">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G71" s="104">
-        <v>0.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H71" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33095,23 +32984,23 @@
         <v>261</v>
       </c>
       <c r="D72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H72" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33120,24 +33009,21 @@
         <v>263</v>
       </c>
       <c r="D73" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E73" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F73" s="104">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="G73" s="104">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="H73" s="104">
-        <f t="shared" si="1"/>
-        <v>0.28800000000000003</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -33148,7 +33034,7 @@
         <v>261</v>
       </c>
       <c r="D74" s="104">
-        <f t="shared" ref="D74:H89" si="2">IF($C19="Affected fraction",D19,IF(D19=1,1,D19*0.9))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E74" s="104">
@@ -33181,16 +33067,13 @@
         <v>0</v>
       </c>
       <c r="F75" s="104">
-        <f t="shared" si="2"/>
-        <v>0.36000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="G75" s="104">
-        <f t="shared" si="2"/>
-        <v>0.36000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="H75" s="104">
-        <f t="shared" si="2"/>
-        <v>0.36000000000000004</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -33229,8 +33112,7 @@
         <v>262</v>
       </c>
       <c r="D77" s="104">
-        <f t="shared" si="2"/>
-        <v>0.11700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E77" s="104">
         <f t="shared" si="2"/>
@@ -33260,23 +33142,23 @@
         <v>261</v>
       </c>
       <c r="D78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D78:H79" si="3">IF($C23="Affected fraction",D23,IF(D23=1,1,D23*0.9))</f>
         <v>1</v>
       </c>
       <c r="E78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H78" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33285,23 +33167,22 @@
         <v>262</v>
       </c>
       <c r="D79" s="104">
-        <f t="shared" si="2"/>
-        <v>0.11700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H79" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33316,23 +33197,23 @@
         <v>261</v>
       </c>
       <c r="D80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D80:H81" si="4">IF($C25="Affected fraction",D25,IF(D25=1,1,D25*0.9))</f>
         <v>1</v>
       </c>
       <c r="E80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -33341,23 +33222,22 @@
         <v>262</v>
       </c>
       <c r="D81" s="104">
-        <f t="shared" si="2"/>
-        <v>0.11700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -33372,23 +33252,18 @@
         <v>261</v>
       </c>
       <c r="D82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H82" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33397,23 +33272,18 @@
         <v>262</v>
       </c>
       <c r="D83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H83" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33422,23 +33292,18 @@
         <v>263</v>
       </c>
       <c r="D84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H84" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33453,23 +33318,18 @@
         <v>261</v>
       </c>
       <c r="D85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H85" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33478,23 +33338,18 @@
         <v>262</v>
       </c>
       <c r="D86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H86" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33503,23 +33358,18 @@
         <v>263</v>
       </c>
       <c r="D87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H87" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33534,23 +33384,18 @@
         <v>261</v>
       </c>
       <c r="D88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H88" s="104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -33559,23 +33404,18 @@
         <v>262</v>
       </c>
       <c r="D89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H89" s="104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -33584,23 +33424,18 @@
         <v>263</v>
       </c>
       <c r="D90" s="104">
-        <f t="shared" ref="D90:H105" si="3">IF($C35="Affected fraction",D35,IF(D35=1,1,D35*0.9))</f>
         <v>0</v>
       </c>
       <c r="E90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H90" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33615,23 +33450,18 @@
         <v>261</v>
       </c>
       <c r="D91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H91" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33640,23 +33470,18 @@
         <v>262</v>
       </c>
       <c r="D92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H92" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33665,23 +33490,18 @@
         <v>263</v>
       </c>
       <c r="D93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H93" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33696,23 +33516,18 @@
         <v>261</v>
       </c>
       <c r="D94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H94" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -33721,23 +33536,18 @@
         <v>262</v>
       </c>
       <c r="D95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H95" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33746,23 +33556,18 @@
         <v>263</v>
       </c>
       <c r="D96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H96" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33777,23 +33582,23 @@
         <v>261</v>
       </c>
       <c r="D97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D97:H97" si="5">IF($C42="Affected fraction",D42,IF(D42=1,1,D42*0.9))</f>
         <v>0</v>
       </c>
       <c r="E97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H97" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -33802,24 +33607,19 @@
         <v>262</v>
       </c>
       <c r="D98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="E98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="F98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="G98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
       <c r="H98" s="104">
-        <f t="shared" si="3"/>
-        <v>0.85499999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -33827,24 +33627,19 @@
         <v>263</v>
       </c>
       <c r="D99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H99" s="104">
-        <f t="shared" si="3"/>
-        <v>0.81900000000000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -33855,24 +33650,19 @@
         <v>261</v>
       </c>
       <c r="D100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H100" s="104">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -33880,23 +33670,18 @@
         <v>262</v>
       </c>
       <c r="D101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H101" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33905,23 +33690,18 @@
         <v>263</v>
       </c>
       <c r="D102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H102" s="104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -33936,24 +33716,19 @@
         <v>261</v>
       </c>
       <c r="D103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="E103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="H103" s="104">
-        <f t="shared" si="3"/>
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -33961,24 +33736,19 @@
         <v>262</v>
       </c>
       <c r="D104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="E104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="F104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="G104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
       <c r="H104" s="104">
-        <f t="shared" si="3"/>
-        <v>0.70568181818181819</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33992,23 +33762,18 @@
         <v>261</v>
       </c>
       <c r="D105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H105" s="104">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -34017,24 +33782,19 @@
         <v>262</v>
       </c>
       <c r="D106" s="104">
-        <f t="shared" ref="D106:H108" si="4">IF($C51="Affected fraction",D51,IF(D51=1,1,D51*0.9))</f>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="E106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="F106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="G106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="H106" s="104">
-        <f t="shared" si="4"/>
-        <v>0.68400000000000005</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -34048,23 +33808,18 @@
         <v>261</v>
       </c>
       <c r="D107" s="104">
-        <f t="shared" si="4"/>
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E107" s="104">
-        <f t="shared" si="4"/>
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F107" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G107" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H107" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -34073,23 +33828,18 @@
         <v>262</v>
       </c>
       <c r="D108" s="104">
-        <f t="shared" si="4"/>
-        <v>0.45900000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="E108" s="104">
-        <f t="shared" si="4"/>
-        <v>0.45900000000000002</v>
+        <v>0</v>
       </c>
       <c r="F108" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G108" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H108" s="104">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -34141,19 +33891,19 @@
         <v>0</v>
       </c>
       <c r="E112" s="104">
-        <f t="shared" ref="E112:H112" si="5">IF($C2="Affected fraction",E2,IF(E2=1,1,E2*1.05))</f>
+        <f t="shared" ref="E112" si="6">IF($C2="Affected fraction",E2,IF(E2=1,1,E2*1.05))</f>
         <v>0</v>
       </c>
       <c r="F112" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F112:H112" si="7">IF($C57="Affected fraction",F57,IF(F57=1,1,F57*0.9))</f>
         <v>1</v>
       </c>
       <c r="G112" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H112" s="104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34162,21 +33912,21 @@
         <v>262</v>
       </c>
       <c r="D113" s="104">
-        <f t="shared" ref="D113:H128" si="6">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*1.05))</f>
+        <f t="shared" ref="D113:E114" si="8">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*1.05))</f>
         <v>0</v>
       </c>
       <c r="E113" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F113" s="104">
-        <v>0.98</v>
+        <v>0.21</v>
       </c>
       <c r="G113" s="104">
-        <v>0.98</v>
+        <v>0.21</v>
       </c>
       <c r="H113" s="104">
-        <v>0.98</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34184,21 +33934,21 @@
         <v>263</v>
       </c>
       <c r="D114" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E114" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F114" s="104">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
       <c r="G114" s="104">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
       <c r="H114" s="104">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -34212,23 +33962,18 @@
         <v>261</v>
       </c>
       <c r="D115" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E115" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F115" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G115" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H115" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34237,23 +33982,18 @@
         <v>263</v>
       </c>
       <c r="D116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H116" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34265,23 +34005,18 @@
         <v>261</v>
       </c>
       <c r="D117" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E117" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F117" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G117" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H117" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34290,23 +34025,18 @@
         <v>263</v>
       </c>
       <c r="D118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H118" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34321,23 +34051,18 @@
         <v>261</v>
       </c>
       <c r="D119" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E119" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F119" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G119" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H119" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34346,23 +34071,18 @@
         <v>263</v>
       </c>
       <c r="D120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H120" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34374,23 +34094,18 @@
         <v>261</v>
       </c>
       <c r="D121" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E121" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F121" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G121" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H121" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34399,23 +34114,18 @@
         <v>263</v>
       </c>
       <c r="D122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H122" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34430,23 +34140,18 @@
         <v>261</v>
       </c>
       <c r="D123" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E123" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F123" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G123" s="104">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H123" s="104">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -34455,21 +34160,21 @@
         <v>263</v>
       </c>
       <c r="D124" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D124:H136" si="9">IF($C14="Affected fraction",D14,IF(D14=1,1,D14*1.05))</f>
         <v>0</v>
       </c>
       <c r="E124" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F124" s="104">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="G124" s="104">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="H124" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34481,23 +34186,23 @@
         <v>261</v>
       </c>
       <c r="D125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H125" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34506,21 +34211,21 @@
         <v>263</v>
       </c>
       <c r="D126" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E126" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F126" s="104">
-        <v>0.93</v>
+        <v>0.2</v>
       </c>
       <c r="G126" s="104">
-        <v>0.93</v>
+        <v>0.2</v>
       </c>
       <c r="H126" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34535,23 +34240,23 @@
         <v>261</v>
       </c>
       <c r="D127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H127" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -34560,24 +34265,21 @@
         <v>263</v>
       </c>
       <c r="D128" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E128" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F128" s="104">
-        <f t="shared" si="6"/>
-        <v>0.33600000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G128" s="104">
-        <f t="shared" si="6"/>
-        <v>0.33600000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="H128" s="104">
-        <f t="shared" si="6"/>
-        <v>0.33600000000000002</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -34588,23 +34290,23 @@
         <v>261</v>
       </c>
       <c r="D129" s="104">
-        <f t="shared" ref="D129:H144" si="7">IF($C19="Affected fraction",D19,IF(D19=1,1,D19*1.05))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F129:H129" si="10">IF($C74="Affected fraction",F74,IF(F74=1,1,F74*0.9))</f>
         <v>1</v>
       </c>
       <c r="G129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H129" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -34613,24 +34315,21 @@
         <v>263</v>
       </c>
       <c r="D130" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E130" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F130" s="104">
-        <f t="shared" si="7"/>
-        <v>0.42000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="G130" s="104">
-        <f t="shared" si="7"/>
-        <v>0.42000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="H130" s="104">
-        <f t="shared" si="7"/>
-        <v>0.42000000000000004</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -34644,23 +34343,23 @@
         <v>261</v>
       </c>
       <c r="D131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D131" si="11">IF($C76="Affected fraction",D76,IF(D76=1,1,D76*0.9))</f>
         <v>1</v>
       </c>
       <c r="E131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H131" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34669,23 +34368,22 @@
         <v>262</v>
       </c>
       <c r="D132" s="104">
-        <f t="shared" si="7"/>
-        <v>0.13650000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H132" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34700,23 +34398,23 @@
         <v>261</v>
       </c>
       <c r="D133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D133" si="12">IF($C78="Affected fraction",D78,IF(D78=1,1,D78*0.9))</f>
         <v>1</v>
       </c>
       <c r="E133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H133" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34725,23 +34423,22 @@
         <v>262</v>
       </c>
       <c r="D134" s="104">
-        <f t="shared" si="7"/>
-        <v>0.13650000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H134" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34756,23 +34453,23 @@
         <v>261</v>
       </c>
       <c r="D135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D135" si="13">IF($C80="Affected fraction",D80,IF(D80=1,1,D80*0.9))</f>
         <v>1</v>
       </c>
       <c r="E135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H135" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34781,23 +34478,22 @@
         <v>262</v>
       </c>
       <c r="D136" s="104">
-        <f t="shared" si="7"/>
-        <v>0.13650000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H136" s="104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -34812,23 +34508,18 @@
         <v>261</v>
       </c>
       <c r="D137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H137" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34837,23 +34528,18 @@
         <v>262</v>
       </c>
       <c r="D138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H138" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34862,23 +34548,18 @@
         <v>263</v>
       </c>
       <c r="D139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H139" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34893,23 +34574,18 @@
         <v>261</v>
       </c>
       <c r="D140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H140" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34918,23 +34594,18 @@
         <v>262</v>
       </c>
       <c r="D141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H141" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34943,23 +34614,18 @@
         <v>263</v>
       </c>
       <c r="D142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H142" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -34974,23 +34640,18 @@
         <v>261</v>
       </c>
       <c r="D143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H143" s="104">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -34999,23 +34660,18 @@
         <v>262</v>
       </c>
       <c r="D144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H144" s="104">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -35024,23 +34680,18 @@
         <v>263</v>
       </c>
       <c r="D145" s="104">
-        <f t="shared" ref="D145:H160" si="8">IF($C35="Affected fraction",D35,IF(D35=1,1,D35*1.05))</f>
         <v>0</v>
       </c>
       <c r="E145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H145" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35055,23 +34706,18 @@
         <v>261</v>
       </c>
       <c r="D146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H146" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -35080,23 +34726,18 @@
         <v>262</v>
       </c>
       <c r="D147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H147" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35105,23 +34746,18 @@
         <v>263</v>
       </c>
       <c r="D148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H148" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35136,23 +34772,18 @@
         <v>261</v>
       </c>
       <c r="D149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H149" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -35161,23 +34792,18 @@
         <v>262</v>
       </c>
       <c r="D150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H150" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35186,23 +34812,18 @@
         <v>263</v>
       </c>
       <c r="D151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H151" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35217,23 +34838,23 @@
         <v>261</v>
       </c>
       <c r="D152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D152:H153" si="14">IF($C97="Affected fraction",D97,IF(D97=1,1,D97*0.9))</f>
         <v>0</v>
       </c>
       <c r="E152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="G152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H152" s="104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -35242,24 +34863,24 @@
         <v>262</v>
       </c>
       <c r="D153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="E153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="G153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="H153" s="104">
-        <f t="shared" si="8"/>
-        <v>0.99749999999999994</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -35267,24 +34888,19 @@
         <v>263</v>
       </c>
       <c r="D154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="E154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="F154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="G154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
       <c r="H154" s="104">
-        <f t="shared" si="8"/>
-        <v>0.95550000000000013</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -35295,24 +34911,19 @@
         <v>261</v>
       </c>
       <c r="D155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H155" s="104">
-        <f t="shared" si="8"/>
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -35320,23 +34931,18 @@
         <v>262</v>
       </c>
       <c r="D156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H156" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35345,23 +34951,18 @@
         <v>263</v>
       </c>
       <c r="D157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H157" s="104">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35376,24 +34977,19 @@
         <v>261</v>
       </c>
       <c r="D158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="E158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="F158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="H158" s="104">
-        <f t="shared" si="8"/>
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -35401,24 +34997,19 @@
         <v>262</v>
       </c>
       <c r="D159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="E159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="F159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="G159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
       <c r="H159" s="104">
-        <f t="shared" si="8"/>
-        <v>0.8232954545454545</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35432,23 +35023,18 @@
         <v>261</v>
       </c>
       <c r="D160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H160" s="104">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -35457,24 +35043,19 @@
         <v>262</v>
       </c>
       <c r="D161" s="104">
-        <f t="shared" ref="D161:H163" si="9">IF($C51="Affected fraction",D51,IF(D51=1,1,D51*1.05))</f>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="E161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="F161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="G161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="H161" s="104">
-        <f t="shared" si="9"/>
-        <v>0.79800000000000004</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -35488,23 +35069,18 @@
         <v>261</v>
       </c>
       <c r="D162" s="104">
-        <f t="shared" si="9"/>
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E162" s="104">
-        <f t="shared" si="9"/>
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F162" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G162" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H162" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -35513,28 +35089,23 @@
         <v>262</v>
       </c>
       <c r="D163" s="104">
-        <f t="shared" si="9"/>
-        <v>0.53550000000000009</v>
+        <v>0.71</v>
       </c>
       <c r="E163" s="104">
-        <f t="shared" si="9"/>
-        <v>0.53550000000000009</v>
+        <v>0</v>
       </c>
       <c r="F163" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G163" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H163" s="104">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nyEYhmp482MxReAlps2vaqsOYdzllZn+VdXzSkitH3YZA63FnwH0DL4WQf6y4fhuAsZiksigOE4Ka6C4XNUCNQ==" saltValue="Lhszi/8stRlDVNPXwd3L6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P3R4ZSaX+cRq+I+Hjdm0ENsY0RPnttyzUqn7+uMGFOSxmNI8hYjWWvrNV97oPS1OHgqPuRijIys5uxXq4JNbRw==" saltValue="ko0EvqYd/vgIBWRPCue0mg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -35548,7 +35119,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -35611,16 +35182,16 @@
         <v>262</v>
       </c>
       <c r="D3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="E3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="F3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="G3" s="104">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="H3" s="31"/>
     </row>
@@ -35695,16 +35266,16 @@
         <v>262</v>
       </c>
       <c r="D7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="G7" s="104">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H7" s="31"/>
     </row>
@@ -35766,20 +35337,16 @@
         <v>262</v>
       </c>
       <c r="D12" s="104">
-        <f t="shared" ref="D12:G16" si="1">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*0.9))</f>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
       <c r="E12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
       <c r="F12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G12" s="104">
-        <f t="shared" si="1"/>
-        <v>0.15300000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -35793,7 +35360,7 @@
         <v>261</v>
       </c>
       <c r="D13" s="104">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D13:G16" si="1">IF($C4="Affected fraction",D4,IF(D4=1,1,D4*0.9))</f>
         <v>1</v>
       </c>
       <c r="E13" s="104">
@@ -35863,19 +35430,19 @@
       </c>
       <c r="D16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="F16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="G16" s="104">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -35936,20 +35503,16 @@
         <v>262</v>
       </c>
       <c r="D21" s="104">
-        <f t="shared" ref="D21:G25" si="3">IF($C3="Affected fraction",D3,IF(D3=1,1,D3*1.05))</f>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="E21" s="104">
-        <f t="shared" si="3"/>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="F21" s="104">
-        <f t="shared" si="3"/>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="G21" s="104">
-        <f t="shared" si="3"/>
-        <v>0.17850000000000002</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -35963,7 +35526,7 @@
         <v>261</v>
       </c>
       <c r="D22" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D22:G22" si="3">IF($C4="Affected fraction",D4,IF(D4=1,1,D4*1.05))</f>
         <v>1</v>
       </c>
       <c r="E22" s="104">
@@ -35984,20 +35547,20 @@
         <v>262</v>
       </c>
       <c r="D23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f>IF($C5="Affected fraction",D5,IF(D5=1,1,D5*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f t="shared" ref="E23:G23" si="4">IF($C5="Affected fraction",E5,IF(E5=1,1,E5*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="F23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f t="shared" si="4"/>
+        <v>0.64900000000000002</v>
       </c>
       <c r="G23" s="104">
-        <f t="shared" si="3"/>
-        <v>0.61949999999999994</v>
+        <f t="shared" si="4"/>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -36011,19 +35574,19 @@
         <v>261</v>
       </c>
       <c r="D24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D24:G24" si="5">IF($C6="Affected fraction",D6,IF(D6=1,1,D6*1.05))</f>
         <v>1</v>
       </c>
       <c r="E24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G24" s="104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -36032,24 +35595,24 @@
         <v>262</v>
       </c>
       <c r="D25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f>IF($C7="Affected fraction",D7,IF(D7=1,1,D7*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f t="shared" ref="E25:G25" si="6">IF($C7="Affected fraction",E7,IF(E7=1,1,E7*1.1))</f>
+        <v>0.64900000000000002</v>
       </c>
       <c r="F25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f t="shared" si="6"/>
+        <v>0.64900000000000002</v>
       </c>
       <c r="G25" s="104">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
+        <f t="shared" si="6"/>
+        <v>0.64900000000000002</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KeA6qqdISpxIy2CECcfjrAHsM3ydGBa/W9AuoKdjIz7JJjAwWC9AwnrfyVQGCdwdWhKPCj+HIe81Mr45fZ3Crw==" saltValue="gYIqGMPYaMraxrvZzm63vQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+Hyzt5Ezkb1+pcnPv5cF3AGbkyJpDe6sYTTTCtUkcGm/6GI7g5dkEXl0lzxKKoble5hYyC5AHOQ+oZkT9Pax1w==" saltValue="4x0CcO4pF5w7PeBdGrF0iQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
